--- a/useful/time_sheet.xlsx
+++ b/useful/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="73">
   <si>
     <t>1.</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Header logged in: button "logout" instead of "login"</t>
-  </si>
-  <si>
-    <t>Prof. page: table with buttons to record individual notes</t>
   </si>
   <si>
     <t>Protect pw after form validation - record in DB</t>
@@ -262,14 +259,20 @@
   <si>
     <t>Test the application - windows 7 / windows 10 / MAC</t>
   </si>
+  <si>
+    <t>Prof. page: insert button to record individual notes</t>
+  </si>
+  <si>
+    <t>Prof. page: add drop-down menu for fields - Clasa, Semestru, nota</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="dd\.mm"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -473,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -538,30 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,11 +565,53 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,46 +622,31 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HT100"/>
+  <dimension ref="A1:HT101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -960,7 +966,7 @@
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="39" customWidth="1"/>
     <col min="5" max="5" width="63.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="302" width="3.28515625" style="1" customWidth="1"/>
@@ -968,59 +974,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="G1" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="22" t="s">
+      <c r="G1" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="22" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="22" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
     </row>
     <row r="2" spans="1:228" x14ac:dyDescent="0.25">
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:228" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
-      <c r="C3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="50" t="s">
+      <c r="C3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="12">
-        <f>SUM(F5:F100)</f>
-        <v>10</v>
+        <f>SUM(F5:F101)</f>
+        <v>13</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>13</v>
@@ -1690,698 +1696,698 @@
     <row r="4" spans="1:228" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="44">
+      <c r="C4" s="31">
         <v>2018</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="51" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="32">
         <v>43216</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="33">
         <v>43217</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="34">
         <v>43218</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="34">
         <v>43219</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="35">
         <v>43220</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="36">
         <v>43221</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="33">
         <v>43222</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="33">
         <v>43223</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="33">
         <v>43224</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="34">
         <v>43225</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="34">
         <v>43226</v>
       </c>
-      <c r="R4" s="46">
+      <c r="R4" s="33">
         <v>43227</v>
       </c>
-      <c r="S4" s="46">
+      <c r="S4" s="33">
         <v>43228</v>
       </c>
-      <c r="T4" s="46">
+      <c r="T4" s="33">
         <v>43229</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4" s="33">
         <v>43230</v>
       </c>
-      <c r="V4" s="46">
+      <c r="V4" s="33">
         <v>43231</v>
       </c>
-      <c r="W4" s="47">
+      <c r="W4" s="34">
         <v>43232</v>
       </c>
-      <c r="X4" s="47">
+      <c r="X4" s="34">
         <v>43233</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="33">
         <v>43234</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="33">
         <v>43235</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="33">
         <v>43236</v>
       </c>
-      <c r="AB4" s="46">
+      <c r="AB4" s="33">
         <v>43237</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4" s="33">
         <v>43238</v>
       </c>
-      <c r="AD4" s="47">
+      <c r="AD4" s="34">
         <v>43239</v>
       </c>
-      <c r="AE4" s="47">
+      <c r="AE4" s="34">
         <v>43240</v>
       </c>
-      <c r="AF4" s="46">
+      <c r="AF4" s="33">
         <v>43241</v>
       </c>
-      <c r="AG4" s="46">
+      <c r="AG4" s="33">
         <v>43242</v>
       </c>
-      <c r="AH4" s="46">
+      <c r="AH4" s="33">
         <v>43243</v>
       </c>
-      <c r="AI4" s="46">
+      <c r="AI4" s="33">
         <v>43244</v>
       </c>
-      <c r="AJ4" s="46">
+      <c r="AJ4" s="33">
         <v>43245</v>
       </c>
-      <c r="AK4" s="47">
+      <c r="AK4" s="34">
         <v>43246</v>
       </c>
-      <c r="AL4" s="47">
+      <c r="AL4" s="34">
         <v>43247</v>
       </c>
-      <c r="AM4" s="49">
+      <c r="AM4" s="36">
         <v>43248</v>
       </c>
-      <c r="AN4" s="46">
+      <c r="AN4" s="33">
         <v>43249</v>
       </c>
-      <c r="AO4" s="46">
+      <c r="AO4" s="33">
         <v>43250</v>
       </c>
-      <c r="AP4" s="46">
+      <c r="AP4" s="33">
         <v>43251</v>
       </c>
-      <c r="AQ4" s="49">
+      <c r="AQ4" s="36">
         <v>43252</v>
       </c>
-      <c r="AR4" s="47">
+      <c r="AR4" s="34">
         <v>43253</v>
       </c>
-      <c r="AS4" s="47">
+      <c r="AS4" s="34">
         <v>43254</v>
       </c>
-      <c r="AT4" s="46">
+      <c r="AT4" s="33">
         <v>43255</v>
       </c>
-      <c r="AU4" s="46">
+      <c r="AU4" s="33">
         <v>43256</v>
       </c>
-      <c r="AV4" s="46">
+      <c r="AV4" s="33">
         <v>43257</v>
       </c>
-      <c r="AW4" s="46">
+      <c r="AW4" s="33">
         <v>43258</v>
       </c>
-      <c r="AX4" s="46">
+      <c r="AX4" s="33">
         <v>43259</v>
       </c>
-      <c r="AY4" s="47">
+      <c r="AY4" s="34">
         <v>43260</v>
       </c>
-      <c r="AZ4" s="47">
+      <c r="AZ4" s="34">
         <v>43261</v>
       </c>
-      <c r="BA4" s="46">
+      <c r="BA4" s="33">
         <v>43262</v>
       </c>
-      <c r="BB4" s="46">
+      <c r="BB4" s="33">
         <v>43263</v>
       </c>
-      <c r="BC4" s="46">
+      <c r="BC4" s="33">
         <v>43264</v>
       </c>
-      <c r="BD4" s="46">
+      <c r="BD4" s="33">
         <v>43265</v>
       </c>
-      <c r="BE4" s="46">
+      <c r="BE4" s="33">
         <v>43266</v>
       </c>
-      <c r="BF4" s="47">
+      <c r="BF4" s="34">
         <v>43267</v>
       </c>
-      <c r="BG4" s="47">
+      <c r="BG4" s="34">
         <v>43268</v>
       </c>
-      <c r="BH4" s="46">
+      <c r="BH4" s="33">
         <v>43269</v>
       </c>
-      <c r="BI4" s="46">
+      <c r="BI4" s="33">
         <v>43270</v>
       </c>
-      <c r="BJ4" s="46">
+      <c r="BJ4" s="33">
         <v>43271</v>
       </c>
-      <c r="BK4" s="46">
+      <c r="BK4" s="33">
         <v>43272</v>
       </c>
-      <c r="BL4" s="46">
+      <c r="BL4" s="33">
         <v>43273</v>
       </c>
-      <c r="BM4" s="47">
+      <c r="BM4" s="34">
         <v>43274</v>
       </c>
-      <c r="BN4" s="47">
+      <c r="BN4" s="34">
         <v>43275</v>
       </c>
-      <c r="BO4" s="46">
+      <c r="BO4" s="33">
         <v>43276</v>
       </c>
-      <c r="BP4" s="46">
+      <c r="BP4" s="33">
         <v>43277</v>
       </c>
-      <c r="BQ4" s="46">
+      <c r="BQ4" s="33">
         <v>43278</v>
       </c>
-      <c r="BR4" s="46">
+      <c r="BR4" s="33">
         <v>43279</v>
       </c>
-      <c r="BS4" s="46">
+      <c r="BS4" s="33">
         <v>43280</v>
       </c>
-      <c r="BT4" s="47">
+      <c r="BT4" s="34">
         <v>43281</v>
       </c>
-      <c r="BU4" s="47">
+      <c r="BU4" s="34">
         <v>43282</v>
       </c>
-      <c r="BV4" s="46">
+      <c r="BV4" s="33">
         <v>43283</v>
       </c>
-      <c r="BW4" s="46">
+      <c r="BW4" s="33">
         <v>43284</v>
       </c>
-      <c r="BX4" s="46">
+      <c r="BX4" s="33">
         <v>43285</v>
       </c>
-      <c r="BY4" s="46">
+      <c r="BY4" s="33">
         <v>43286</v>
       </c>
-      <c r="BZ4" s="46">
+      <c r="BZ4" s="33">
         <v>43287</v>
       </c>
-      <c r="CA4" s="47">
+      <c r="CA4" s="34">
         <v>43288</v>
       </c>
-      <c r="CB4" s="47">
+      <c r="CB4" s="34">
         <v>43289</v>
       </c>
-      <c r="CC4" s="46">
+      <c r="CC4" s="33">
         <v>43290</v>
       </c>
-      <c r="CD4" s="46">
+      <c r="CD4" s="33">
         <v>43291</v>
       </c>
-      <c r="CE4" s="46">
+      <c r="CE4" s="33">
         <v>43292</v>
       </c>
-      <c r="CF4" s="46">
+      <c r="CF4" s="33">
         <v>43293</v>
       </c>
-      <c r="CG4" s="46">
+      <c r="CG4" s="33">
         <v>43294</v>
       </c>
-      <c r="CH4" s="47">
+      <c r="CH4" s="34">
         <v>43295</v>
       </c>
-      <c r="CI4" s="47">
+      <c r="CI4" s="34">
         <v>43296</v>
       </c>
-      <c r="CJ4" s="46">
+      <c r="CJ4" s="33">
         <v>43297</v>
       </c>
-      <c r="CK4" s="46">
+      <c r="CK4" s="33">
         <v>43298</v>
       </c>
-      <c r="CL4" s="46">
+      <c r="CL4" s="33">
         <v>43299</v>
       </c>
-      <c r="CM4" s="46">
+      <c r="CM4" s="33">
         <v>43300</v>
       </c>
-      <c r="CN4" s="46">
+      <c r="CN4" s="33">
         <v>43301</v>
       </c>
-      <c r="CO4" s="47">
+      <c r="CO4" s="34">
         <v>43302</v>
       </c>
-      <c r="CP4" s="47">
+      <c r="CP4" s="34">
         <v>43303</v>
       </c>
-      <c r="CQ4" s="46">
+      <c r="CQ4" s="33">
         <v>43304</v>
       </c>
-      <c r="CR4" s="46">
+      <c r="CR4" s="33">
         <v>43305</v>
       </c>
-      <c r="CS4" s="46">
+      <c r="CS4" s="33">
         <v>43306</v>
       </c>
-      <c r="CT4" s="46">
+      <c r="CT4" s="33">
         <v>43307</v>
       </c>
-      <c r="CU4" s="46">
+      <c r="CU4" s="33">
         <v>43308</v>
       </c>
-      <c r="CV4" s="47">
+      <c r="CV4" s="34">
         <v>43309</v>
       </c>
-      <c r="CW4" s="47">
+      <c r="CW4" s="34">
         <v>43310</v>
       </c>
-      <c r="CX4" s="46">
+      <c r="CX4" s="33">
         <v>43311</v>
       </c>
-      <c r="CY4" s="46">
+      <c r="CY4" s="33">
         <v>43312</v>
       </c>
-      <c r="CZ4" s="46">
+      <c r="CZ4" s="33">
         <v>43313</v>
       </c>
-      <c r="DA4" s="48">
+      <c r="DA4" s="35">
         <v>43314</v>
       </c>
-      <c r="DB4" s="48">
+      <c r="DB4" s="35">
         <v>43315</v>
       </c>
-      <c r="DC4" s="47">
+      <c r="DC4" s="34">
         <v>43316</v>
       </c>
-      <c r="DD4" s="47">
+      <c r="DD4" s="34">
         <v>43317</v>
       </c>
-      <c r="DE4" s="48">
+      <c r="DE4" s="35">
         <v>43318</v>
       </c>
-      <c r="DF4" s="48">
+      <c r="DF4" s="35">
         <v>43319</v>
       </c>
-      <c r="DG4" s="48">
+      <c r="DG4" s="35">
         <v>43320</v>
       </c>
-      <c r="DH4" s="48">
+      <c r="DH4" s="35">
         <v>43321</v>
       </c>
-      <c r="DI4" s="48">
+      <c r="DI4" s="35">
         <v>43322</v>
       </c>
-      <c r="DJ4" s="47">
+      <c r="DJ4" s="34">
         <v>43323</v>
       </c>
-      <c r="DK4" s="47">
+      <c r="DK4" s="34">
         <v>43324</v>
       </c>
-      <c r="DL4" s="48">
+      <c r="DL4" s="35">
         <v>43325</v>
       </c>
-      <c r="DM4" s="48">
+      <c r="DM4" s="35">
         <v>43326</v>
       </c>
-      <c r="DN4" s="49">
+      <c r="DN4" s="36">
         <v>43327</v>
       </c>
-      <c r="DO4" s="48">
+      <c r="DO4" s="35">
         <v>43328</v>
       </c>
-      <c r="DP4" s="48">
+      <c r="DP4" s="35">
         <v>43329</v>
       </c>
-      <c r="DQ4" s="47">
+      <c r="DQ4" s="34">
         <v>43330</v>
       </c>
-      <c r="DR4" s="47">
+      <c r="DR4" s="34">
         <v>43331</v>
       </c>
-      <c r="DS4" s="46">
+      <c r="DS4" s="33">
         <v>43332</v>
       </c>
-      <c r="DT4" s="46">
+      <c r="DT4" s="33">
         <v>43333</v>
       </c>
-      <c r="DU4" s="46">
+      <c r="DU4" s="33">
         <v>43334</v>
       </c>
-      <c r="DV4" s="46">
+      <c r="DV4" s="33">
         <v>43335</v>
       </c>
-      <c r="DW4" s="46">
+      <c r="DW4" s="33">
         <v>43336</v>
       </c>
-      <c r="DX4" s="47">
+      <c r="DX4" s="34">
         <v>43337</v>
       </c>
-      <c r="DY4" s="47">
+      <c r="DY4" s="34">
         <v>43338</v>
       </c>
-      <c r="DZ4" s="46">
+      <c r="DZ4" s="33">
         <v>43339</v>
       </c>
-      <c r="EA4" s="46">
+      <c r="EA4" s="33">
         <v>43340</v>
       </c>
-      <c r="EB4" s="46">
+      <c r="EB4" s="33">
         <v>43341</v>
       </c>
-      <c r="EC4" s="46">
+      <c r="EC4" s="33">
         <v>43342</v>
       </c>
-      <c r="ED4" s="46">
+      <c r="ED4" s="33">
         <v>43343</v>
       </c>
-      <c r="EE4" s="47">
+      <c r="EE4" s="34">
         <v>43344</v>
       </c>
-      <c r="EF4" s="47">
+      <c r="EF4" s="34">
         <v>43345</v>
       </c>
-      <c r="EG4" s="46">
+      <c r="EG4" s="33">
         <v>43346</v>
       </c>
-      <c r="EH4" s="46">
+      <c r="EH4" s="33">
         <v>43347</v>
       </c>
-      <c r="EI4" s="46">
+      <c r="EI4" s="33">
         <v>43348</v>
       </c>
-      <c r="EJ4" s="46">
+      <c r="EJ4" s="33">
         <v>43349</v>
       </c>
-      <c r="EK4" s="46">
+      <c r="EK4" s="33">
         <v>43350</v>
       </c>
-      <c r="EL4" s="47">
+      <c r="EL4" s="34">
         <v>43351</v>
       </c>
-      <c r="EM4" s="47">
+      <c r="EM4" s="34">
         <v>43352</v>
       </c>
-      <c r="EN4" s="46">
+      <c r="EN4" s="33">
         <v>43353</v>
       </c>
-      <c r="EO4" s="46">
+      <c r="EO4" s="33">
         <v>43354</v>
       </c>
-      <c r="EP4" s="46">
+      <c r="EP4" s="33">
         <v>43355</v>
       </c>
-      <c r="EQ4" s="46">
+      <c r="EQ4" s="33">
         <v>43356</v>
       </c>
-      <c r="ER4" s="46">
+      <c r="ER4" s="33">
         <v>43357</v>
       </c>
-      <c r="ES4" s="47">
+      <c r="ES4" s="34">
         <v>43358</v>
       </c>
-      <c r="ET4" s="47">
+      <c r="ET4" s="34">
         <v>43359</v>
       </c>
-      <c r="EU4" s="46">
+      <c r="EU4" s="33">
         <v>43360</v>
       </c>
-      <c r="EV4" s="46">
+      <c r="EV4" s="33">
         <v>43361</v>
       </c>
-      <c r="EW4" s="46">
+      <c r="EW4" s="33">
         <v>43362</v>
       </c>
-      <c r="EX4" s="46">
+      <c r="EX4" s="33">
         <v>43363</v>
       </c>
-      <c r="EY4" s="46">
+      <c r="EY4" s="33">
         <v>43364</v>
       </c>
-      <c r="EZ4" s="47">
+      <c r="EZ4" s="34">
         <v>43365</v>
       </c>
-      <c r="FA4" s="47">
+      <c r="FA4" s="34">
         <v>43366</v>
       </c>
-      <c r="FB4" s="46">
+      <c r="FB4" s="33">
         <v>43367</v>
       </c>
-      <c r="FC4" s="46">
+      <c r="FC4" s="33">
         <v>43368</v>
       </c>
-      <c r="FD4" s="46">
+      <c r="FD4" s="33">
         <v>43369</v>
       </c>
-      <c r="FE4" s="46">
+      <c r="FE4" s="33">
         <v>43370</v>
       </c>
-      <c r="FF4" s="46">
+      <c r="FF4" s="33">
         <v>43371</v>
       </c>
-      <c r="FG4" s="47">
+      <c r="FG4" s="34">
         <v>43372</v>
       </c>
-      <c r="FH4" s="47">
+      <c r="FH4" s="34">
         <v>43373</v>
       </c>
-      <c r="FI4" s="46">
+      <c r="FI4" s="33">
         <v>43374</v>
       </c>
-      <c r="FJ4" s="46">
+      <c r="FJ4" s="33">
         <v>43375</v>
       </c>
-      <c r="FK4" s="46">
+      <c r="FK4" s="33">
         <v>43376</v>
       </c>
-      <c r="FL4" s="46">
+      <c r="FL4" s="33">
         <v>43377</v>
       </c>
-      <c r="FM4" s="46">
+      <c r="FM4" s="33">
         <v>43378</v>
       </c>
-      <c r="FN4" s="47">
+      <c r="FN4" s="34">
         <v>43379</v>
       </c>
-      <c r="FO4" s="47">
+      <c r="FO4" s="34">
         <v>43380</v>
       </c>
-      <c r="FP4" s="46">
+      <c r="FP4" s="33">
         <v>43381</v>
       </c>
-      <c r="FQ4" s="46">
+      <c r="FQ4" s="33">
         <v>43382</v>
       </c>
-      <c r="FR4" s="46">
+      <c r="FR4" s="33">
         <v>43383</v>
       </c>
-      <c r="FS4" s="46">
+      <c r="FS4" s="33">
         <v>43384</v>
       </c>
-      <c r="FT4" s="46">
+      <c r="FT4" s="33">
         <v>43385</v>
       </c>
-      <c r="FU4" s="47">
+      <c r="FU4" s="34">
         <v>43386</v>
       </c>
-      <c r="FV4" s="47">
+      <c r="FV4" s="34">
         <v>43387</v>
       </c>
-      <c r="FW4" s="46">
+      <c r="FW4" s="33">
         <v>43388</v>
       </c>
-      <c r="FX4" s="46">
+      <c r="FX4" s="33">
         <v>43389</v>
       </c>
-      <c r="FY4" s="46">
+      <c r="FY4" s="33">
         <v>43390</v>
       </c>
-      <c r="FZ4" s="46">
+      <c r="FZ4" s="33">
         <v>43391</v>
       </c>
-      <c r="GA4" s="46">
+      <c r="GA4" s="33">
         <v>43392</v>
       </c>
-      <c r="GB4" s="47">
+      <c r="GB4" s="34">
         <v>43393</v>
       </c>
-      <c r="GC4" s="47">
+      <c r="GC4" s="34">
         <v>43394</v>
       </c>
-      <c r="GD4" s="46">
+      <c r="GD4" s="33">
         <v>43395</v>
       </c>
-      <c r="GE4" s="46">
+      <c r="GE4" s="33">
         <v>43396</v>
       </c>
-      <c r="GF4" s="46">
+      <c r="GF4" s="33">
         <v>43397</v>
       </c>
-      <c r="GG4" s="46">
+      <c r="GG4" s="33">
         <v>43398</v>
       </c>
-      <c r="GH4" s="46">
+      <c r="GH4" s="33">
         <v>43399</v>
       </c>
-      <c r="GI4" s="47">
+      <c r="GI4" s="34">
         <v>43400</v>
       </c>
-      <c r="GJ4" s="47">
+      <c r="GJ4" s="34">
         <v>43401</v>
       </c>
-      <c r="GK4" s="46">
+      <c r="GK4" s="33">
         <v>43402</v>
       </c>
-      <c r="GL4" s="46">
+      <c r="GL4" s="33">
         <v>43403</v>
       </c>
-      <c r="GM4" s="46">
+      <c r="GM4" s="33">
         <v>43404</v>
       </c>
-      <c r="GN4" s="46">
+      <c r="GN4" s="33">
         <v>43405</v>
       </c>
-      <c r="GO4" s="46">
+      <c r="GO4" s="33">
         <v>43406</v>
       </c>
-      <c r="GP4" s="47">
+      <c r="GP4" s="34">
         <v>43407</v>
       </c>
-      <c r="GQ4" s="47">
+      <c r="GQ4" s="34">
         <v>43408</v>
       </c>
-      <c r="GR4" s="46">
+      <c r="GR4" s="33">
         <v>43409</v>
       </c>
-      <c r="GS4" s="46">
+      <c r="GS4" s="33">
         <v>43410</v>
       </c>
-      <c r="GT4" s="46">
+      <c r="GT4" s="33">
         <v>43411</v>
       </c>
-      <c r="GU4" s="46">
+      <c r="GU4" s="33">
         <v>43412</v>
       </c>
-      <c r="GV4" s="46">
+      <c r="GV4" s="33">
         <v>43413</v>
       </c>
-      <c r="GW4" s="47">
+      <c r="GW4" s="34">
         <v>43414</v>
       </c>
-      <c r="GX4" s="47">
+      <c r="GX4" s="34">
         <v>43415</v>
       </c>
-      <c r="GY4" s="46">
+      <c r="GY4" s="33">
         <v>43416</v>
       </c>
-      <c r="GZ4" s="46">
+      <c r="GZ4" s="33">
         <v>43417</v>
       </c>
-      <c r="HA4" s="46">
+      <c r="HA4" s="33">
         <v>43418</v>
       </c>
-      <c r="HB4" s="46">
+      <c r="HB4" s="33">
         <v>43419</v>
       </c>
-      <c r="HC4" s="46">
+      <c r="HC4" s="33">
         <v>43420</v>
       </c>
-      <c r="HD4" s="47">
+      <c r="HD4" s="34">
         <v>43421</v>
       </c>
-      <c r="HE4" s="47">
+      <c r="HE4" s="34">
         <v>43422</v>
       </c>
-      <c r="HF4" s="46">
+      <c r="HF4" s="33">
         <v>43423</v>
       </c>
-      <c r="HG4" s="46">
+      <c r="HG4" s="33">
         <v>43424</v>
       </c>
-      <c r="HH4" s="46">
+      <c r="HH4" s="33">
         <v>43425</v>
       </c>
-      <c r="HI4" s="46">
+      <c r="HI4" s="33">
         <v>43426</v>
       </c>
-      <c r="HJ4" s="46">
+      <c r="HJ4" s="33">
         <v>43427</v>
       </c>
-      <c r="HK4" s="46">
+      <c r="HK4" s="33">
         <v>43428</v>
       </c>
-      <c r="HL4" s="46">
+      <c r="HL4" s="33">
         <v>43429</v>
       </c>
-      <c r="HM4" s="46">
+      <c r="HM4" s="33">
         <v>43430</v>
       </c>
-      <c r="HN4" s="46">
+      <c r="HN4" s="33">
         <v>43431</v>
       </c>
-      <c r="HO4" s="46">
+      <c r="HO4" s="33">
         <v>43432</v>
       </c>
-      <c r="HP4" s="46">
+      <c r="HP4" s="33">
         <v>43433</v>
       </c>
-      <c r="HQ4" s="46">
+      <c r="HQ4" s="33">
         <v>43434</v>
       </c>
-      <c r="HR4" s="46">
+      <c r="HR4" s="33">
         <v>43435</v>
       </c>
-      <c r="HS4" s="46">
+      <c r="HS4" s="33">
         <v>43436</v>
       </c>
-      <c r="HT4" s="46">
+      <c r="HT4" s="33">
         <v>43437</v>
       </c>
     </row>
     <row r="5" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="42">
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" ref="F5:F100" si="0">SUM(G5:GP5)</f>
+        <f t="shared" ref="F5:F101" si="0">SUM(G5:GP5)</f>
         <v>3</v>
       </c>
       <c r="G5" s="1">
@@ -2453,22 +2459,24 @@
       <c r="HE5" s="7"/>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="55">
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="42">
         <v>1.2</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="L6" s="9"/>
       <c r="P6" s="7"/>
@@ -2534,13 +2542,13 @@
       <c r="HE6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="55">
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="42">
         <v>1.3</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="0"/>
@@ -2615,13 +2623,13 @@
       <c r="HE7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="55">
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="42">
         <v>1.4</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="0"/>
@@ -2695,13 +2703,13 @@
       <c r="HE8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="55">
+      <c r="B9" s="53"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="42">
         <v>1.5</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" si="0"/>
@@ -2773,13 +2781,13 @@
       <c r="HE9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="55">
+      <c r="B10" s="53"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="42">
         <v>1.6</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="0"/>
@@ -2851,9 +2859,9 @@
       <c r="HE10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="55">
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="42">
         <v>1.7</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -2932,9 +2940,9 @@
       <c r="HE11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="55">
+      <c r="B12" s="53"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="42">
         <v>1.8</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -3010,13 +3018,13 @@
       <c r="HE12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="55">
+      <c r="B13" s="53"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="42">
         <v>1.9</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="0"/>
@@ -3090,11 +3098,11 @@
       <c r="HE13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" si="0"/>
@@ -3166,13 +3174,13 @@
       <c r="HE14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="43">
         <v>2.1</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -3248,9 +3256,9 @@
       <c r="HE15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="55">
+      <c r="B16" s="53"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="42">
         <v>2.2000000000000002</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -3326,13 +3334,13 @@
       <c r="HE16" s="7"/>
     </row>
     <row r="17" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="55">
+      <c r="B17" s="53"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="42">
         <v>2.2999999999999998</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="0"/>
@@ -3404,9 +3412,9 @@
       <c r="HE17" s="7"/>
     </row>
     <row r="18" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="55">
+      <c r="B18" s="53"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="42">
         <v>2.4</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -3482,9 +3490,9 @@
       <c r="HE18" s="7"/>
     </row>
     <row r="19" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="55">
+      <c r="B19" s="53"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="42">
         <v>2.5</v>
       </c>
       <c r="E19" s="13"/>
@@ -3558,9 +3566,9 @@
       <c r="HE19" s="7"/>
     </row>
     <row r="20" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="55">
+      <c r="B20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="42">
         <v>2.6</v>
       </c>
       <c r="E20" s="13"/>
@@ -3634,9 +3642,9 @@
       <c r="HE20" s="7"/>
     </row>
     <row r="21" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="55">
+      <c r="B21" s="53"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="42">
         <v>2.7</v>
       </c>
       <c r="E21" s="13"/>
@@ -3710,9 +3718,9 @@
       <c r="HE21" s="7"/>
     </row>
     <row r="22" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="55">
+      <c r="B22" s="53"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="42">
         <v>2.8</v>
       </c>
       <c r="E22" s="13"/>
@@ -3786,9 +3794,9 @@
       <c r="HE22" s="7"/>
     </row>
     <row r="23" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="55">
+      <c r="B23" s="53"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="42">
         <v>2.9</v>
       </c>
       <c r="E23" s="13"/>
@@ -3862,11 +3870,11 @@
       <c r="HE23" s="7"/>
     </row>
     <row r="24" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" si="0"/>
@@ -3938,17 +3946,17 @@
       <c r="HE24" s="7"/>
     </row>
     <row r="25" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="43">
         <v>3.1</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="0"/>
@@ -4020,9 +4028,9 @@
       <c r="HE25" s="7"/>
     </row>
     <row r="26" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="55">
+      <c r="B26" s="53"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="42">
         <v>3.2</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -4098,9 +4106,9 @@
       <c r="HE26" s="7"/>
     </row>
     <row r="27" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="55">
+      <c r="B27" s="53"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="42">
         <v>3.3</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -4176,13 +4184,13 @@
       <c r="HE27" s="7"/>
     </row>
     <row r="28" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="55">
+      <c r="B28" s="53"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="42">
         <v>3.4</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="0"/>
@@ -4254,13 +4262,13 @@
       <c r="HE28" s="7"/>
     </row>
     <row r="29" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="55">
+      <c r="B29" s="53"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="42">
         <v>3.5</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="0"/>
@@ -4332,13 +4340,13 @@
       <c r="HE29" s="7"/>
     </row>
     <row r="30" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="55">
+      <c r="B30" s="53"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="42">
         <v>3.6</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="0"/>
@@ -4410,13 +4418,13 @@
       <c r="HE30" s="7"/>
     </row>
     <row r="31" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="55">
+      <c r="B31" s="53"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="42">
         <v>3.7</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="0"/>
@@ -4488,9 +4496,9 @@
       <c r="HE31" s="7"/>
     </row>
     <row r="32" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="55">
+      <c r="B32" s="53"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="42">
         <v>3.8</v>
       </c>
       <c r="E32" s="13"/>
@@ -4564,9 +4572,9 @@
       <c r="HE32" s="7"/>
     </row>
     <row r="33" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="55">
+      <c r="B33" s="53"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="42">
         <v>3.9</v>
       </c>
       <c r="E33" s="13"/>
@@ -4640,11 +4648,11 @@
       <c r="HE33" s="7"/>
     </row>
     <row r="34" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" si="0"/>
@@ -4716,13 +4724,13 @@
       <c r="HE34" s="7"/>
     </row>
     <row r="35" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="43">
         <v>4.0999999999999996</v>
       </c>
       <c r="E35" s="11" t="s">
@@ -4798,13 +4806,13 @@
       <c r="HE35" s="7"/>
     </row>
     <row r="36" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="55">
+      <c r="B36" s="53"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="42">
         <v>4.2</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" si="0"/>
@@ -4876,13 +4884,13 @@
       <c r="HE36" s="7"/>
     </row>
     <row r="37" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="55">
+      <c r="B37" s="53"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="42">
         <v>4.3</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" si="0"/>
@@ -4954,13 +4962,13 @@
       <c r="HE37" s="7"/>
     </row>
     <row r="38" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="55">
+      <c r="B38" s="53"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="42">
         <v>4.4000000000000004</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" si="0"/>
@@ -5032,9 +5040,9 @@
       <c r="HE38" s="7"/>
     </row>
     <row r="39" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="55">
+      <c r="B39" s="53"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="42">
         <v>4.5</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -5110,13 +5118,13 @@
       <c r="HE39" s="7"/>
     </row>
     <row r="40" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="55">
+      <c r="B40" s="53"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="42">
         <v>4.5999999999999996</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" si="0"/>
@@ -5188,12 +5196,14 @@
       <c r="HE40" s="7"/>
     </row>
     <row r="41" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="55">
+      <c r="B41" s="53"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="42">
         <v>4.7</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="F41" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5264,13 +5274,13 @@
       <c r="HE41" s="7"/>
     </row>
     <row r="42" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="55">
+      <c r="B42" s="53"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="42">
         <v>4.8</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" si="0"/>
@@ -5342,9 +5352,9 @@
       <c r="HE42" s="7"/>
     </row>
     <row r="43" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="55">
+      <c r="B43" s="53"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="42">
         <v>4.9000000000000004</v>
       </c>
       <c r="E43" s="13"/>
@@ -5418,13 +5428,13 @@
       <c r="HE43" s="7"/>
     </row>
     <row r="44" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="17">
+      <c r="B44" s="53"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5494,19 +5504,13 @@
       <c r="HE44" s="7"/>
     </row>
     <row r="45" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="56">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="12">
+      <c r="B45" s="54"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5576,15 +5580,19 @@
       <c r="HE45" s="7"/>
     </row>
     <row r="46" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="55">
-        <v>5.2</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="14">
+      <c r="B46" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="43">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5654,13 +5662,13 @@
       <c r="HE46" s="7"/>
     </row>
     <row r="47" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="55">
-        <v>5.3</v>
+      <c r="B47" s="53"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="42">
+        <v>5.2</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" si="0"/>
@@ -5732,13 +5740,13 @@
       <c r="HE47" s="7"/>
     </row>
     <row r="48" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="55">
-        <v>5.4</v>
+      <c r="B48" s="53"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="42">
+        <v>5.3</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" si="0"/>
@@ -5810,13 +5818,13 @@
       <c r="HE48" s="7"/>
     </row>
     <row r="49" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="55">
-        <v>5.5</v>
+      <c r="B49" s="53"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="42">
+        <v>5.4</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F49" s="14">
         <f t="shared" si="0"/>
@@ -5888,13 +5896,13 @@
       <c r="HE49" s="7"/>
     </row>
     <row r="50" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="55">
-        <v>5.6</v>
+      <c r="B50" s="53"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="42">
+        <v>5.5</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="14">
         <f t="shared" si="0"/>
@@ -5966,13 +5974,13 @@
       <c r="HE50" s="7"/>
     </row>
     <row r="51" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="55">
-        <v>5.7</v>
+      <c r="B51" s="53"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="42">
+        <v>5.6</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="14">
         <f t="shared" si="0"/>
@@ -6044,12 +6052,14 @@
       <c r="HE51" s="7"/>
     </row>
     <row r="52" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="55">
-        <v>5.8</v>
-      </c>
-      <c r="E52" s="13"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="42">
+        <v>5.7</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="F52" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6120,10 +6130,10 @@
       <c r="HE52" s="7"/>
     </row>
     <row r="53" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="55">
-        <v>5.9</v>
+      <c r="B53" s="53"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="42">
+        <v>5.8</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="14">
@@ -6196,13 +6206,13 @@
       <c r="HE53" s="7"/>
     </row>
     <row r="54" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="26"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="17">
+      <c r="B54" s="53"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="42">
+        <v>5.9</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6272,20 +6282,14 @@
       <c r="HE54" s="7"/>
     </row>
     <row r="55" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="56">
-        <v>6.1</v>
-      </c>
-      <c r="E55" s="11" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="12">
-        <f t="shared" ref="F55:F64" si="1">SUM(G55:GP55)</f>
+      <c r="F55" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55" s="7"/>
@@ -6354,16 +6358,20 @@
       <c r="HE55" s="7"/>
     </row>
     <row r="56" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="55">
-        <v>6.2</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="14">
-        <f t="shared" si="1"/>
+      <c r="B56" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="43">
+        <v>6.1</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" ref="F56:F65" si="1">SUM(G56:GP56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="7"/>
@@ -6432,12 +6440,14 @@
       <c r="HE56" s="7"/>
     </row>
     <row r="57" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="55">
-        <v>6.3</v>
-      </c>
-      <c r="E57" s="13"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="42">
+        <v>6.2</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F57" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6508,10 +6518,10 @@
       <c r="HE57" s="7"/>
     </row>
     <row r="58" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="55">
-        <v>6.4</v>
+      <c r="B58" s="53"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="42">
+        <v>6.3</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="14">
@@ -6584,10 +6594,10 @@
       <c r="HE58" s="7"/>
     </row>
     <row r="59" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="55">
-        <v>6.5</v>
+      <c r="B59" s="53"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="42">
+        <v>6.4</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="14">
@@ -6660,10 +6670,10 @@
       <c r="HE59" s="7"/>
     </row>
     <row r="60" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="55">
-        <v>6.6</v>
+      <c r="B60" s="53"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="42">
+        <v>6.5</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="14">
@@ -6736,10 +6746,10 @@
       <c r="HE60" s="7"/>
     </row>
     <row r="61" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="55">
-        <v>6.7</v>
+      <c r="B61" s="53"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="42">
+        <v>6.6</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="14">
@@ -6812,10 +6822,10 @@
       <c r="HE61" s="7"/>
     </row>
     <row r="62" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="55">
-        <v>6.8</v>
+      <c r="B62" s="53"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="42">
+        <v>6.7</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="14">
@@ -6888,10 +6898,10 @@
       <c r="HE62" s="7"/>
     </row>
     <row r="63" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="55">
-        <v>6.9</v>
+      <c r="B63" s="53"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="42">
+        <v>6.8</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="14">
@@ -6964,13 +6974,13 @@
       <c r="HE63" s="7"/>
     </row>
     <row r="64" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="26"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="17">
+      <c r="B64" s="53"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="42">
+        <v>6.9</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7040,20 +7050,14 @@
       <c r="HE64" s="7"/>
     </row>
     <row r="65" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="56">
-        <v>7.1</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" s="12">
-        <f t="shared" ref="F65:F74" si="2">SUM(G65:GP65)</f>
+      <c r="B65" s="54"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I65" s="7"/>
@@ -7122,16 +7126,20 @@
       <c r="HE65" s="7"/>
     </row>
     <row r="66" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="55">
-        <v>7.2</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="14">
-        <f t="shared" si="2"/>
+      <c r="B66" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="43">
+        <v>7.1</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="12">
+        <f t="shared" ref="F66:F75" si="2">SUM(G66:GP66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="7"/>
@@ -7200,13 +7208,13 @@
       <c r="HE66" s="7"/>
     </row>
     <row r="67" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="55">
-        <v>7.3</v>
+      <c r="B67" s="53"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="42">
+        <v>7.2</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F67" s="14">
         <f t="shared" si="2"/>
@@ -7278,13 +7286,13 @@
       <c r="HE67" s="7"/>
     </row>
     <row r="68" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="55">
-        <v>7.4</v>
+      <c r="B68" s="53"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="42">
+        <v>7.3</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F68" s="14">
         <f t="shared" si="2"/>
@@ -7356,13 +7364,13 @@
       <c r="HE68" s="7"/>
     </row>
     <row r="69" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="55">
-        <v>7.5</v>
+      <c r="B69" s="53"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="42">
+        <v>7.4</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F69" s="14">
         <f t="shared" si="2"/>
@@ -7434,12 +7442,14 @@
       <c r="HE69" s="7"/>
     </row>
     <row r="70" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="55">
-        <v>7.6</v>
-      </c>
-      <c r="E70" s="13"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="42">
+        <v>7.5</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="F70" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7510,10 +7520,10 @@
       <c r="HE70" s="7"/>
     </row>
     <row r="71" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="55">
-        <v>7.7</v>
+      <c r="B71" s="53"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="42">
+        <v>7.6</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="14">
@@ -7586,10 +7596,10 @@
       <c r="HE71" s="7"/>
     </row>
     <row r="72" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="55">
-        <v>7.8</v>
+      <c r="B72" s="53"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="42">
+        <v>7.7</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="14">
@@ -7662,10 +7672,10 @@
       <c r="HE72" s="7"/>
     </row>
     <row r="73" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="55">
-        <v>7.9</v>
+      <c r="B73" s="53"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="42">
+        <v>7.8</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="14">
@@ -7738,13 +7748,13 @@
       <c r="HE73" s="7"/>
     </row>
     <row r="74" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="26"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="17">
+      <c r="B74" s="53"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="42">
+        <v>7.9</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7813,19 +7823,15 @@
       <c r="HD74" s="7"/>
       <c r="HE74" s="7"/>
     </row>
-    <row r="75" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="56">
-        <v>7.1</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="12">
-        <f t="shared" ref="F75:F84" si="3">SUM(G75:GP75)</f>
+    <row r="75" spans="2:213" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" s="54"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I75" s="7"/>
@@ -7894,14 +7900,18 @@
       <c r="HE75" s="7"/>
     </row>
     <row r="76" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="55">
-        <v>7.2</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="14">
-        <f t="shared" si="3"/>
+      <c r="B76" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="43">
+        <v>7.1</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12">
+        <f t="shared" ref="F76:F85" si="3">SUM(G76:GP76)</f>
         <v>0</v>
       </c>
       <c r="I76" s="7"/>
@@ -7970,10 +7980,10 @@
       <c r="HE76" s="7"/>
     </row>
     <row r="77" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="55">
-        <v>7.3</v>
+      <c r="B77" s="47"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="42">
+        <v>7.2</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="14">
@@ -8046,10 +8056,10 @@
       <c r="HE77" s="7"/>
     </row>
     <row r="78" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="41"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="55">
-        <v>7.4</v>
+      <c r="B78" s="47"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="42">
+        <v>7.3</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="14">
@@ -8122,10 +8132,10 @@
       <c r="HE78" s="7"/>
     </row>
     <row r="79" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="41"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="55">
-        <v>7.5</v>
+      <c r="B79" s="47"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="42">
+        <v>7.4</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="14">
@@ -8198,10 +8208,10 @@
       <c r="HE79" s="7"/>
     </row>
     <row r="80" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="55">
-        <v>7.6</v>
+      <c r="B80" s="47"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="42">
+        <v>7.5</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="14">
@@ -8274,10 +8284,10 @@
       <c r="HE80" s="7"/>
     </row>
     <row r="81" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="55">
-        <v>7.7</v>
+      <c r="B81" s="47"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="42">
+        <v>7.6</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="14">
@@ -8350,10 +8360,10 @@
       <c r="HE81" s="7"/>
     </row>
     <row r="82" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="55">
-        <v>7.8</v>
+      <c r="B82" s="47"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="42">
+        <v>7.7</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="14">
@@ -8426,10 +8436,10 @@
       <c r="HE82" s="7"/>
     </row>
     <row r="83" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="55">
-        <v>7.9</v>
+      <c r="B83" s="47"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="42">
+        <v>7.8</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="14">
@@ -8502,13 +8512,13 @@
       <c r="HE83" s="7"/>
     </row>
     <row r="84" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="42"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F84" s="17">
+      <c r="B84" s="47"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="42">
+        <v>7.9</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8577,10 +8587,15 @@
       <c r="HD84" s="7"/>
       <c r="HE84" s="7"/>
     </row>
-    <row r="85" spans="2:213" x14ac:dyDescent="0.25">
-      <c r="E85" s="8"/>
-      <c r="F85" s="3">
-        <f t="shared" si="0"/>
+    <row r="85" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="48"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I85" s="7"/>
@@ -9713,33 +9728,104 @@
       <c r="HD100" s="7"/>
       <c r="HE100" s="7"/>
     </row>
+    <row r="101" spans="5:213" x14ac:dyDescent="0.25">
+      <c r="E101" s="8"/>
+      <c r="F101" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="L101" s="9"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="AD101" s="7"/>
+      <c r="AE101" s="7"/>
+      <c r="AK101" s="7"/>
+      <c r="AL101" s="7"/>
+      <c r="AM101" s="9"/>
+      <c r="AQ101" s="9"/>
+      <c r="AR101" s="7"/>
+      <c r="AS101" s="7"/>
+      <c r="AY101" s="7"/>
+      <c r="AZ101" s="7"/>
+      <c r="BF101" s="7"/>
+      <c r="BG101" s="7"/>
+      <c r="BM101" s="7"/>
+      <c r="BN101" s="7"/>
+      <c r="BT101" s="7"/>
+      <c r="BU101" s="7"/>
+      <c r="CA101" s="7"/>
+      <c r="CB101" s="7"/>
+      <c r="CH101" s="7"/>
+      <c r="CI101" s="7"/>
+      <c r="CO101" s="7"/>
+      <c r="CP101" s="7"/>
+      <c r="CV101" s="7"/>
+      <c r="CW101" s="7"/>
+      <c r="DC101" s="7"/>
+      <c r="DD101" s="7"/>
+      <c r="DJ101" s="7"/>
+      <c r="DK101" s="7"/>
+      <c r="DN101" s="9"/>
+      <c r="DQ101" s="7"/>
+      <c r="DR101" s="7"/>
+      <c r="DX101" s="7"/>
+      <c r="DY101" s="7"/>
+      <c r="EE101" s="7"/>
+      <c r="EF101" s="7"/>
+      <c r="EL101" s="7"/>
+      <c r="EM101" s="7"/>
+      <c r="ES101" s="7"/>
+      <c r="ET101" s="7"/>
+      <c r="EZ101" s="7"/>
+      <c r="FA101" s="7"/>
+      <c r="FG101" s="7"/>
+      <c r="FH101" s="7"/>
+      <c r="FN101" s="7"/>
+      <c r="FO101" s="7"/>
+      <c r="FU101" s="7"/>
+      <c r="FV101" s="7"/>
+      <c r="GB101" s="7"/>
+      <c r="GC101" s="7"/>
+      <c r="GI101" s="7"/>
+      <c r="GJ101" s="7"/>
+      <c r="GP101" s="7"/>
+      <c r="GQ101" s="7"/>
+      <c r="GW101" s="7"/>
+      <c r="GX101" s="7"/>
+      <c r="HD101" s="7"/>
+      <c r="HE101" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C25:C34"/>
     <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="B75:B84"/>
-    <mergeCell ref="C75:C84"/>
+    <mergeCell ref="B76:B85"/>
+    <mergeCell ref="C76:C85"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="S1:W1"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C55:C64"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="B56:B65"/>
+    <mergeCell ref="C56:C65"/>
+    <mergeCell ref="B66:B75"/>
+    <mergeCell ref="C66:C75"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="C46:C55"/>
     <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="C15:C24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C25:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B14:B75 B5:B12" numberStoredAsText="1"/>
+    <ignoredError sqref="B45:B76 B5:B12 B14:B43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/useful/time_sheet.xlsx
+++ b/useful/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="74">
   <si>
     <t>1.</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Prof. page: add drop-down menu for fields - Clasa, Semestru, nota</t>
+  </si>
+  <si>
+    <t>design</t>
   </si>
 </sst>
 </file>
@@ -607,6 +610,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -622,32 +646,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HT101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -974,39 +977,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
       <c r="J1" s="26"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
       <c r="Q1" s="23"/>
       <c r="R1" s="28"/>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
       <c r="X1" s="23"/>
       <c r="Y1" s="29"/>
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="45"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
       <c r="AF1" s="24"/>
       <c r="AG1" s="24"/>
       <c r="AH1" s="25"/>
@@ -2374,10 +2377,10 @@
       </c>
     </row>
     <row r="5" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="42">
@@ -2459,8 +2462,8 @@
       <c r="HE5" s="7"/>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="42">
         <v>1.2</v>
       </c>
@@ -2542,8 +2545,8 @@
       <c r="HE6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="42">
         <v>1.3</v>
       </c>
@@ -2623,8 +2626,8 @@
       <c r="HE7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="42">
         <v>1.4</v>
       </c>
@@ -2703,8 +2706,8 @@
       <c r="HE8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="42">
         <v>1.5</v>
       </c>
@@ -2781,8 +2784,8 @@
       <c r="HE9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="42">
         <v>1.6</v>
       </c>
@@ -2859,8 +2862,8 @@
       <c r="HE10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="42">
         <v>1.7</v>
       </c>
@@ -2940,8 +2943,8 @@
       <c r="HE11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="42">
         <v>1.8</v>
       </c>
@@ -3018,8 +3021,8 @@
       <c r="HE12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="53"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="42">
         <v>1.9</v>
       </c>
@@ -3098,8 +3101,8 @@
       <c r="HE13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
-      <c r="C14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="41"/>
       <c r="E14" s="16" t="s">
         <v>44</v>
@@ -3174,10 +3177,10 @@
       <c r="HE14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="47" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="43">
@@ -3256,8 +3259,8 @@
       <c r="HE15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="42">
         <v>2.2000000000000002</v>
       </c>
@@ -3334,8 +3337,8 @@
       <c r="HE16" s="7"/>
     </row>
     <row r="17" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="53"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="42">
         <v>2.2999999999999998</v>
       </c>
@@ -3412,8 +3415,8 @@
       <c r="HE17" s="7"/>
     </row>
     <row r="18" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="42">
         <v>2.4</v>
       </c>
@@ -3490,8 +3493,8 @@
       <c r="HE18" s="7"/>
     </row>
     <row r="19" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="53"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="42">
         <v>2.5</v>
       </c>
@@ -3566,8 +3569,8 @@
       <c r="HE19" s="7"/>
     </row>
     <row r="20" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="42">
         <v>2.6</v>
       </c>
@@ -3642,8 +3645,8 @@
       <c r="HE20" s="7"/>
     </row>
     <row r="21" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="53"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="42">
         <v>2.7</v>
       </c>
@@ -3718,8 +3721,8 @@
       <c r="HE21" s="7"/>
     </row>
     <row r="22" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="42">
         <v>2.8</v>
       </c>
@@ -3794,8 +3797,8 @@
       <c r="HE22" s="7"/>
     </row>
     <row r="23" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="53"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="42">
         <v>2.9</v>
       </c>
@@ -3870,8 +3873,8 @@
       <c r="HE23" s="7"/>
     </row>
     <row r="24" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="51"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="41"/>
       <c r="E24" s="16" t="s">
         <v>44</v>
@@ -3946,10 +3949,10 @@
       <c r="HE24" s="7"/>
     </row>
     <row r="25" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="47" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="43">
@@ -4028,8 +4031,8 @@
       <c r="HE25" s="7"/>
     </row>
     <row r="26" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="42">
         <v>3.2</v>
       </c>
@@ -4106,8 +4109,8 @@
       <c r="HE26" s="7"/>
     </row>
     <row r="27" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="53"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="42">
         <v>3.3</v>
       </c>
@@ -4184,8 +4187,8 @@
       <c r="HE27" s="7"/>
     </row>
     <row r="28" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="53"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="42">
         <v>3.4</v>
       </c>
@@ -4262,8 +4265,8 @@
       <c r="HE28" s="7"/>
     </row>
     <row r="29" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="53"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="42">
         <v>3.5</v>
       </c>
@@ -4340,8 +4343,8 @@
       <c r="HE29" s="7"/>
     </row>
     <row r="30" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="42">
         <v>3.6</v>
       </c>
@@ -4418,8 +4421,8 @@
       <c r="HE30" s="7"/>
     </row>
     <row r="31" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="53"/>
-      <c r="C31" s="50"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="42">
         <v>3.7</v>
       </c>
@@ -4496,12 +4499,14 @@
       <c r="HE31" s="7"/>
     </row>
     <row r="32" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="53"/>
-      <c r="C32" s="50"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="42">
         <v>3.8</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="F32" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4572,8 +4577,8 @@
       <c r="HE32" s="7"/>
     </row>
     <row r="33" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="53"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="42">
         <v>3.9</v>
       </c>
@@ -4648,8 +4653,8 @@
       <c r="HE33" s="7"/>
     </row>
     <row r="34" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="54"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="41"/>
       <c r="E34" s="16" t="s">
         <v>44</v>
@@ -4724,10 +4729,10 @@
       <c r="HE34" s="7"/>
     </row>
     <row r="35" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="47" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="43">
@@ -4806,8 +4811,8 @@
       <c r="HE35" s="7"/>
     </row>
     <row r="36" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="53"/>
-      <c r="C36" s="50"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="42">
         <v>4.2</v>
       </c>
@@ -4884,8 +4889,8 @@
       <c r="HE36" s="7"/>
     </row>
     <row r="37" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="53"/>
-      <c r="C37" s="50"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="42">
         <v>4.3</v>
       </c>
@@ -4962,8 +4967,8 @@
       <c r="HE37" s="7"/>
     </row>
     <row r="38" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="53"/>
-      <c r="C38" s="50"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="42">
         <v>4.4000000000000004</v>
       </c>
@@ -5040,8 +5045,8 @@
       <c r="HE38" s="7"/>
     </row>
     <row r="39" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="53"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="42">
         <v>4.5</v>
       </c>
@@ -5118,8 +5123,8 @@
       <c r="HE39" s="7"/>
     </row>
     <row r="40" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="53"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="42">
         <v>4.5999999999999996</v>
       </c>
@@ -5196,8 +5201,8 @@
       <c r="HE40" s="7"/>
     </row>
     <row r="41" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="53"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="42">
         <v>4.7</v>
       </c>
@@ -5274,8 +5279,8 @@
       <c r="HE41" s="7"/>
     </row>
     <row r="42" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="53"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="42">
         <v>4.8</v>
       </c>
@@ -5352,8 +5357,8 @@
       <c r="HE42" s="7"/>
     </row>
     <row r="43" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="53"/>
-      <c r="C43" s="50"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="42">
         <v>4.9000000000000004</v>
       </c>
@@ -5428,9 +5433,9 @@
       <c r="HE43" s="7"/>
     </row>
     <row r="44" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="53"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="57">
+      <c r="B44" s="49"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="44">
         <v>4.0999999999999996</v>
       </c>
       <c r="E44" s="13"/>
@@ -5504,8 +5509,8 @@
       <c r="HE44" s="7"/>
     </row>
     <row r="45" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="54"/>
-      <c r="C45" s="51"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="41"/>
       <c r="E45" s="16" t="s">
         <v>44</v>
@@ -5580,10 +5585,10 @@
       <c r="HE45" s="7"/>
     </row>
     <row r="46" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="47" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="43">
@@ -5662,8 +5667,8 @@
       <c r="HE46" s="7"/>
     </row>
     <row r="47" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="53"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="42">
         <v>5.2</v>
       </c>
@@ -5740,8 +5745,8 @@
       <c r="HE47" s="7"/>
     </row>
     <row r="48" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="53"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="42">
         <v>5.3</v>
       </c>
@@ -5818,8 +5823,8 @@
       <c r="HE48" s="7"/>
     </row>
     <row r="49" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
-      <c r="C49" s="50"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="42">
         <v>5.4</v>
       </c>
@@ -5896,8 +5901,8 @@
       <c r="HE49" s="7"/>
     </row>
     <row r="50" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="53"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="42">
         <v>5.5</v>
       </c>
@@ -5974,8 +5979,8 @@
       <c r="HE50" s="7"/>
     </row>
     <row r="51" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="53"/>
-      <c r="C51" s="50"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="42">
         <v>5.6</v>
       </c>
@@ -6052,8 +6057,8 @@
       <c r="HE51" s="7"/>
     </row>
     <row r="52" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="53"/>
-      <c r="C52" s="50"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="42">
         <v>5.7</v>
       </c>
@@ -6130,8 +6135,8 @@
       <c r="HE52" s="7"/>
     </row>
     <row r="53" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="53"/>
-      <c r="C53" s="50"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="42">
         <v>5.8</v>
       </c>
@@ -6206,8 +6211,8 @@
       <c r="HE53" s="7"/>
     </row>
     <row r="54" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="53"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="42">
         <v>5.9</v>
       </c>
@@ -6282,8 +6287,8 @@
       <c r="HE54" s="7"/>
     </row>
     <row r="55" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="54"/>
-      <c r="C55" s="51"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="41"/>
       <c r="E55" s="16" t="s">
         <v>44</v>
@@ -6358,10 +6363,10 @@
       <c r="HE55" s="7"/>
     </row>
     <row r="56" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="47" t="s">
         <v>69</v>
       </c>
       <c r="D56" s="43">
@@ -6440,8 +6445,8 @@
       <c r="HE56" s="7"/>
     </row>
     <row r="57" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="53"/>
-      <c r="C57" s="50"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="42">
         <v>6.2</v>
       </c>
@@ -6518,8 +6523,8 @@
       <c r="HE57" s="7"/>
     </row>
     <row r="58" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="53"/>
-      <c r="C58" s="50"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="42">
         <v>6.3</v>
       </c>
@@ -6594,8 +6599,8 @@
       <c r="HE58" s="7"/>
     </row>
     <row r="59" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="53"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="42">
         <v>6.4</v>
       </c>
@@ -6670,8 +6675,8 @@
       <c r="HE59" s="7"/>
     </row>
     <row r="60" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="53"/>
-      <c r="C60" s="50"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="42">
         <v>6.5</v>
       </c>
@@ -6746,8 +6751,8 @@
       <c r="HE60" s="7"/>
     </row>
     <row r="61" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="53"/>
-      <c r="C61" s="50"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="42">
         <v>6.6</v>
       </c>
@@ -6822,8 +6827,8 @@
       <c r="HE61" s="7"/>
     </row>
     <row r="62" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="53"/>
-      <c r="C62" s="50"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="42">
         <v>6.7</v>
       </c>
@@ -6898,8 +6903,8 @@
       <c r="HE62" s="7"/>
     </row>
     <row r="63" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="53"/>
-      <c r="C63" s="50"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="42">
         <v>6.8</v>
       </c>
@@ -6974,8 +6979,8 @@
       <c r="HE63" s="7"/>
     </row>
     <row r="64" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="53"/>
-      <c r="C64" s="50"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="42">
         <v>6.9</v>
       </c>
@@ -7050,8 +7055,8 @@
       <c r="HE64" s="7"/>
     </row>
     <row r="65" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="54"/>
-      <c r="C65" s="51"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="41"/>
       <c r="E65" s="16" t="s">
         <v>44</v>
@@ -7126,10 +7131,10 @@
       <c r="HE65" s="7"/>
     </row>
     <row r="66" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="47" t="s">
         <v>66</v>
       </c>
       <c r="D66" s="43">
@@ -7208,8 +7213,8 @@
       <c r="HE66" s="7"/>
     </row>
     <row r="67" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="53"/>
-      <c r="C67" s="50"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="42">
         <v>7.2</v>
       </c>
@@ -7286,8 +7291,8 @@
       <c r="HE67" s="7"/>
     </row>
     <row r="68" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="53"/>
-      <c r="C68" s="50"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="42">
         <v>7.3</v>
       </c>
@@ -7364,8 +7369,8 @@
       <c r="HE68" s="7"/>
     </row>
     <row r="69" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="53"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="42">
         <v>7.4</v>
       </c>
@@ -7442,8 +7447,8 @@
       <c r="HE69" s="7"/>
     </row>
     <row r="70" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="53"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="42">
         <v>7.5</v>
       </c>
@@ -7520,8 +7525,8 @@
       <c r="HE70" s="7"/>
     </row>
     <row r="71" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="53"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="42">
         <v>7.6</v>
       </c>
@@ -7596,8 +7601,8 @@
       <c r="HE71" s="7"/>
     </row>
     <row r="72" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="53"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="42">
         <v>7.7</v>
       </c>
@@ -7672,8 +7677,8 @@
       <c r="HE72" s="7"/>
     </row>
     <row r="73" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="53"/>
-      <c r="C73" s="50"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="42">
         <v>7.8</v>
       </c>
@@ -7748,8 +7753,8 @@
       <c r="HE73" s="7"/>
     </row>
     <row r="74" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="53"/>
-      <c r="C74" s="50"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="42">
         <v>7.9</v>
       </c>
@@ -7824,8 +7829,8 @@
       <c r="HE74" s="7"/>
     </row>
     <row r="75" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="54"/>
-      <c r="C75" s="51"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="41"/>
       <c r="E75" s="16" t="s">
         <v>44</v>
@@ -7900,10 +7905,10 @@
       <c r="HE75" s="7"/>
     </row>
     <row r="76" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="47" t="s">
         <v>55</v>
       </c>
       <c r="D76" s="43">
@@ -7980,8 +7985,8 @@
       <c r="HE76" s="7"/>
     </row>
     <row r="77" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="47"/>
-      <c r="C77" s="50"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="42">
         <v>7.2</v>
       </c>
@@ -8056,8 +8061,8 @@
       <c r="HE77" s="7"/>
     </row>
     <row r="78" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="47"/>
-      <c r="C78" s="50"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="42">
         <v>7.3</v>
       </c>
@@ -8132,8 +8137,8 @@
       <c r="HE78" s="7"/>
     </row>
     <row r="79" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="47"/>
-      <c r="C79" s="50"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="42">
         <v>7.4</v>
       </c>
@@ -8208,8 +8213,8 @@
       <c r="HE79" s="7"/>
     </row>
     <row r="80" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="47"/>
-      <c r="C80" s="50"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="42">
         <v>7.5</v>
       </c>
@@ -8284,8 +8289,8 @@
       <c r="HE80" s="7"/>
     </row>
     <row r="81" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="47"/>
-      <c r="C81" s="50"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="42">
         <v>7.6</v>
       </c>
@@ -8360,8 +8365,8 @@
       <c r="HE81" s="7"/>
     </row>
     <row r="82" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="47"/>
-      <c r="C82" s="50"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="42">
         <v>7.7</v>
       </c>
@@ -8436,8 +8441,8 @@
       <c r="HE82" s="7"/>
     </row>
     <row r="83" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="47"/>
-      <c r="C83" s="50"/>
+      <c r="B83" s="54"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="42">
         <v>7.8</v>
       </c>
@@ -8512,8 +8517,8 @@
       <c r="HE83" s="7"/>
     </row>
     <row r="84" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="47"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="42">
         <v>7.9</v>
       </c>
@@ -8588,8 +8593,8 @@
       <c r="HE84" s="7"/>
     </row>
     <row r="85" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="48"/>
-      <c r="C85" s="51"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="41"/>
       <c r="E85" s="16" t="s">
         <v>44</v>
@@ -9801,17 +9806,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="C15:C24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="B76:B85"/>
     <mergeCell ref="C76:C85"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:P1"/>
-    <mergeCell ref="S1:W1"/>
     <mergeCell ref="B56:B65"/>
     <mergeCell ref="C56:C65"/>
     <mergeCell ref="B66:B75"/>
@@ -9821,6 +9820,12 @@
     <mergeCell ref="B46:B55"/>
     <mergeCell ref="C46:C55"/>
     <mergeCell ref="B5:B14"/>
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C25:C34"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/useful/time_sheet.xlsx
+++ b/useful/time_sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="22995" windowHeight="12525"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="22995" windowHeight="12525" tabRatio="163"/>
   </bookViews>
   <sheets>
     <sheet name="Time sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="79">
   <si>
     <t>1.</t>
   </si>
@@ -268,6 +268,21 @@
   <si>
     <t>design</t>
   </si>
+  <si>
+    <t>Create a timeline for the project - proposed deadlines for steps</t>
+  </si>
+  <si>
+    <t>= done</t>
+  </si>
+  <si>
+    <t>= on going</t>
+  </si>
+  <si>
+    <t>= recurent</t>
+  </si>
+  <si>
+    <t>Create functional links to proper pages in header menu</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,8 +364,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -416,30 +443,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -465,7 +472,48 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -479,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,34 +562,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,32 +607,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -601,7 +637,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -613,22 +649,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -640,10 +688,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,6 +717,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,16 +1053,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HT101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="35" customWidth="1"/>
     <col min="5" max="5" width="63.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="302" width="3.28515625" style="1" customWidth="1"/>
@@ -977,13 +1070,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="69"/>
+      <c r="G1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="51" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1089,8 @@
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="28"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="51" t="s">
         <v>8</v>
       </c>
@@ -1000,8 +1098,8 @@
       <c r="U1" s="51"/>
       <c r="V1" s="51"/>
       <c r="W1" s="51"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="29"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="26"/>
       <c r="Z1" s="51" t="s">
         <v>17</v>
       </c>
@@ -1010,1476 +1108,2318 @@
       <c r="AC1" s="51"/>
       <c r="AD1" s="51"/>
       <c r="AE1" s="52"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="E2" s="13"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="22"/>
     </row>
-    <row r="3" spans="1:228" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="22" t="s">
+    <row r="3" spans="1:228" x14ac:dyDescent="0.25">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BS3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="BT3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="BW3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BZ3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="CC3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="CD3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="CF3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CG3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CH3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="CI3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="CJ3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="CM3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CN3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CO3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="CQ3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="CS3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="CT3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="CU3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="CV3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="CW3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="CX3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="CZ3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="DA3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DB3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="DC3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="DD3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="DE3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="DF3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="DG3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="DH3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DI3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="DJ3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="DK3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="DL3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="DM3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="DN3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="DO3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="DP3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="DQ3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="DR3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="DS3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="DT3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="DU3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="DV3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="DW3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="DX3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="DY3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="DZ3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EC3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="ED3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="EE3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="EF3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="EG3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EI3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EJ3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="EK3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="EL3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="EM3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="EN3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EP3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EQ3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="ER3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="ES3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="ET3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="EU3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EW3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="EX3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="EY3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="EZ3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="FA3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="FB3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FD3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FE3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="FF3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="FG3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="FH3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="FI3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FK3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FL3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="FM3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="FN3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="FO3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="FP3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FR3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FS3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="FT3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="FU3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="FV3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="FW3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="FX3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FY3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="FZ3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="GA3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="GB3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="GC3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="GD3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="GE3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="GF3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="GG3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="GH3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="GI3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="GJ3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="GK3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="GL3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="GM3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="GN3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="GO3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="GP3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="GQ3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="GR3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="GS3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="GT3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="GU3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="GW3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="GX3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="GY3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="GZ3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="HA3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="HB3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="HC3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="HD3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="HE3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="HF3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="HG3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="HH3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="HI3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="HJ3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="HK3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="HL3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="HM3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="HN3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="HO3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="HP3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="HQ3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="HR3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="HS3" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:228" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="37" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12">
-        <f>SUM(F5:F101)</f>
-        <v>13</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BC3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BJ3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BK3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="BL3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="BN3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="BO3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="BP3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BQ3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BR3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="BT3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="BU3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="BV3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="BW3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BY3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="BZ3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="CA3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="CB3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="CC3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="CD3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="CE3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="CF3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CG3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="CH3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="CI3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="CJ3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="CK3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="CL3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="CM3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CN3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="CO3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="CP3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="CQ3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="CR3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="CS3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="CT3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CU3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="CV3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="CW3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="CX3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="CY3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="CZ3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="DA3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="DB3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="DC3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="DD3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="DE3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="DF3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="DG3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="DH3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="DI3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="DJ3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="DK3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="DL3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="DM3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="DN3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="DO3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="DP3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="DQ3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="DR3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="DS3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="DT3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="DU3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="DV3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="DW3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="DX3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="DY3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="DZ3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="EA3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="EB3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="EC3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="ED3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="EE3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="EF3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="EG3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="EH3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="EI3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="EJ3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="EK3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="EL3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="EM3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="EN3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="EO3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="EP3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="EQ3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="ER3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="ES3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="ET3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="EU3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="EV3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="EW3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="EX3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="EY3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="EZ3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="FA3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="FB3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="FC3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="FD3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="FE3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FF3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="FG3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="FH3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="FI3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="FJ3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="FK3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="FL3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FM3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="FN3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="FO3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="FP3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="FQ3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="FR3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="FS3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="FT3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="FU3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="FV3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="FW3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="FX3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="FY3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="FZ3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GA3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="GB3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="GC3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="GD3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="GE3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="GF3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="GG3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GH3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="GI3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="GJ3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="GK3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="GL3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="GM3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="GN3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GO3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="GP3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="GQ3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="GR3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="GS3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="GT3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="GU3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="GW3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="GX3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="GY3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="GZ3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="HA3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="HB3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HC3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="HD3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="HE3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="HF3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="HG3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="HH3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="HI3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HJ3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="HK3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="HL3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="HM3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="HN3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="HO3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="HP3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="HQ3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="HR3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="HS3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="HT3" s="18"/>
+      <c r="F4" s="42">
+        <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F101)</f>
+        <v>17</v>
+      </c>
+      <c r="G4" s="47">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J4" s="48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K4" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN4" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BR4" s="47">
+        <f t="shared" ref="BR4:EC4" si="1">SUM(BR6:BR101)</f>
+        <v>0</v>
+      </c>
+      <c r="BS4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CS4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DC4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DD4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DE4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DF4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DG4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DH4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DI4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DK4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DL4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DM4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DN4" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DO4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DP4" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY4" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC4" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED4" s="47">
+        <f t="shared" ref="ED4:GO4" si="2">SUM(ED6:ED101)</f>
+        <v>0</v>
+      </c>
+      <c r="EE4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EF4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EG4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EH4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EI4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EK4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EL4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EM4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EN4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EO4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EP4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EQ4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ER4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ES4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ET4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EU4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EV4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EW4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EX4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EY4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EZ4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FA4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FB4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FC4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FD4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FE4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FF4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FG4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FH4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FI4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FJ4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FK4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FL4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FM4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FN4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FO4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FP4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FR4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FS4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FT4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FU4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FV4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FW4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FX4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FY4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GA4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GB4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GC4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GD4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GE4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GF4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GG4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GH4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GI4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GJ4" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GK4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GL4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GM4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GN4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GO4" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GP4" s="48">
+        <f t="shared" ref="GP4:HS4" si="3">SUM(GP6:GP101)</f>
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GR4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GS4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GT4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GU4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GV4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GW4" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GX4" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GY4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GZ4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HA4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HB4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HC4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HD4" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HE4" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HF4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HG4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HH4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HI4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HJ4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HK4" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HL4" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HM4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HN4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HO4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HP4" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HQ4" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HR4" s="50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HS4" s="48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="HT4" s="15"/>
     </row>
-    <row r="4" spans="1:228" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="31">
+    <row r="5" spans="1:228" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="28">
         <v>2018</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="30" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G5" s="29">
         <v>43216</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H5" s="30">
         <v>43217</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I5" s="31">
         <v>43218</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J5" s="31">
         <v>43219</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K5" s="32">
         <v>43220</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L5" s="33">
         <v>43221</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M5" s="30">
         <v>43222</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N5" s="30">
         <v>43223</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O5" s="30">
         <v>43224</v>
       </c>
-      <c r="P4" s="34">
+      <c r="P5" s="31">
         <v>43225</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q5" s="31">
         <v>43226</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R5" s="30">
         <v>43227</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S5" s="30">
         <v>43228</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T5" s="30">
         <v>43229</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U5" s="30">
         <v>43230</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V5" s="30">
         <v>43231</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W5" s="31">
         <v>43232</v>
       </c>
-      <c r="X4" s="34">
+      <c r="X5" s="31">
         <v>43233</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="Y5" s="30">
         <v>43234</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z5" s="30">
         <v>43235</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="AA5" s="30">
         <v>43236</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="AB5" s="30">
         <v>43237</v>
       </c>
-      <c r="AC4" s="33">
+      <c r="AC5" s="30">
         <v>43238</v>
       </c>
-      <c r="AD4" s="34">
+      <c r="AD5" s="31">
         <v>43239</v>
       </c>
-      <c r="AE4" s="34">
+      <c r="AE5" s="31">
         <v>43240</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AF5" s="30">
         <v>43241</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AG5" s="30">
         <v>43242</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH5" s="30">
         <v>43243</v>
       </c>
-      <c r="AI4" s="33">
+      <c r="AI5" s="30">
         <v>43244</v>
       </c>
-      <c r="AJ4" s="33">
+      <c r="AJ5" s="30">
         <v>43245</v>
       </c>
-      <c r="AK4" s="34">
+      <c r="AK5" s="31">
         <v>43246</v>
       </c>
-      <c r="AL4" s="34">
+      <c r="AL5" s="31">
         <v>43247</v>
       </c>
-      <c r="AM4" s="36">
+      <c r="AM5" s="33">
         <v>43248</v>
       </c>
-      <c r="AN4" s="33">
+      <c r="AN5" s="30">
         <v>43249</v>
       </c>
-      <c r="AO4" s="33">
+      <c r="AO5" s="30">
         <v>43250</v>
       </c>
-      <c r="AP4" s="33">
+      <c r="AP5" s="30">
         <v>43251</v>
       </c>
-      <c r="AQ4" s="36">
+      <c r="AQ5" s="33">
         <v>43252</v>
       </c>
-      <c r="AR4" s="34">
+      <c r="AR5" s="31">
         <v>43253</v>
       </c>
-      <c r="AS4" s="34">
+      <c r="AS5" s="31">
         <v>43254</v>
       </c>
-      <c r="AT4" s="33">
+      <c r="AT5" s="30">
         <v>43255</v>
       </c>
-      <c r="AU4" s="33">
+      <c r="AU5" s="30">
         <v>43256</v>
       </c>
-      <c r="AV4" s="33">
+      <c r="AV5" s="30">
         <v>43257</v>
       </c>
-      <c r="AW4" s="33">
+      <c r="AW5" s="30">
         <v>43258</v>
       </c>
-      <c r="AX4" s="33">
+      <c r="AX5" s="30">
         <v>43259</v>
       </c>
-      <c r="AY4" s="34">
+      <c r="AY5" s="31">
         <v>43260</v>
       </c>
-      <c r="AZ4" s="34">
+      <c r="AZ5" s="31">
         <v>43261</v>
       </c>
-      <c r="BA4" s="33">
+      <c r="BA5" s="30">
         <v>43262</v>
       </c>
-      <c r="BB4" s="33">
+      <c r="BB5" s="30">
         <v>43263</v>
       </c>
-      <c r="BC4" s="33">
+      <c r="BC5" s="30">
         <v>43264</v>
       </c>
-      <c r="BD4" s="33">
+      <c r="BD5" s="30">
         <v>43265</v>
       </c>
-      <c r="BE4" s="33">
+      <c r="BE5" s="30">
         <v>43266</v>
       </c>
-      <c r="BF4" s="34">
+      <c r="BF5" s="31">
         <v>43267</v>
       </c>
-      <c r="BG4" s="34">
+      <c r="BG5" s="31">
         <v>43268</v>
       </c>
-      <c r="BH4" s="33">
+      <c r="BH5" s="30">
         <v>43269</v>
       </c>
-      <c r="BI4" s="33">
+      <c r="BI5" s="30">
         <v>43270</v>
       </c>
-      <c r="BJ4" s="33">
+      <c r="BJ5" s="30">
         <v>43271</v>
       </c>
-      <c r="BK4" s="33">
+      <c r="BK5" s="30">
         <v>43272</v>
       </c>
-      <c r="BL4" s="33">
+      <c r="BL5" s="30">
         <v>43273</v>
       </c>
-      <c r="BM4" s="34">
+      <c r="BM5" s="31">
         <v>43274</v>
       </c>
-      <c r="BN4" s="34">
+      <c r="BN5" s="31">
         <v>43275</v>
       </c>
-      <c r="BO4" s="33">
+      <c r="BO5" s="30">
         <v>43276</v>
       </c>
-      <c r="BP4" s="33">
+      <c r="BP5" s="30">
         <v>43277</v>
       </c>
-      <c r="BQ4" s="33">
+      <c r="BQ5" s="30">
         <v>43278</v>
       </c>
-      <c r="BR4" s="33">
+      <c r="BR5" s="30">
         <v>43279</v>
       </c>
-      <c r="BS4" s="33">
+      <c r="BS5" s="30">
         <v>43280</v>
       </c>
-      <c r="BT4" s="34">
+      <c r="BT5" s="31">
         <v>43281</v>
       </c>
-      <c r="BU4" s="34">
+      <c r="BU5" s="31">
         <v>43282</v>
       </c>
-      <c r="BV4" s="33">
+      <c r="BV5" s="30">
         <v>43283</v>
       </c>
-      <c r="BW4" s="33">
+      <c r="BW5" s="30">
         <v>43284</v>
       </c>
-      <c r="BX4" s="33">
+      <c r="BX5" s="30">
         <v>43285</v>
       </c>
-      <c r="BY4" s="33">
+      <c r="BY5" s="30">
         <v>43286</v>
       </c>
-      <c r="BZ4" s="33">
+      <c r="BZ5" s="30">
         <v>43287</v>
       </c>
-      <c r="CA4" s="34">
+      <c r="CA5" s="31">
         <v>43288</v>
       </c>
-      <c r="CB4" s="34">
+      <c r="CB5" s="31">
         <v>43289</v>
       </c>
-      <c r="CC4" s="33">
+      <c r="CC5" s="30">
         <v>43290</v>
       </c>
-      <c r="CD4" s="33">
+      <c r="CD5" s="30">
         <v>43291</v>
       </c>
-      <c r="CE4" s="33">
+      <c r="CE5" s="30">
         <v>43292</v>
       </c>
-      <c r="CF4" s="33">
+      <c r="CF5" s="30">
         <v>43293</v>
       </c>
-      <c r="CG4" s="33">
+      <c r="CG5" s="30">
         <v>43294</v>
       </c>
-      <c r="CH4" s="34">
+      <c r="CH5" s="31">
         <v>43295</v>
       </c>
-      <c r="CI4" s="34">
+      <c r="CI5" s="31">
         <v>43296</v>
       </c>
-      <c r="CJ4" s="33">
+      <c r="CJ5" s="30">
         <v>43297</v>
       </c>
-      <c r="CK4" s="33">
+      <c r="CK5" s="30">
         <v>43298</v>
       </c>
-      <c r="CL4" s="33">
+      <c r="CL5" s="30">
         <v>43299</v>
       </c>
-      <c r="CM4" s="33">
+      <c r="CM5" s="30">
         <v>43300</v>
       </c>
-      <c r="CN4" s="33">
+      <c r="CN5" s="30">
         <v>43301</v>
       </c>
-      <c r="CO4" s="34">
+      <c r="CO5" s="31">
         <v>43302</v>
       </c>
-      <c r="CP4" s="34">
+      <c r="CP5" s="31">
         <v>43303</v>
       </c>
-      <c r="CQ4" s="33">
+      <c r="CQ5" s="30">
         <v>43304</v>
       </c>
-      <c r="CR4" s="33">
+      <c r="CR5" s="30">
         <v>43305</v>
       </c>
-      <c r="CS4" s="33">
+      <c r="CS5" s="30">
         <v>43306</v>
       </c>
-      <c r="CT4" s="33">
+      <c r="CT5" s="30">
         <v>43307</v>
       </c>
-      <c r="CU4" s="33">
+      <c r="CU5" s="30">
         <v>43308</v>
       </c>
-      <c r="CV4" s="34">
+      <c r="CV5" s="31">
         <v>43309</v>
       </c>
-      <c r="CW4" s="34">
+      <c r="CW5" s="31">
         <v>43310</v>
       </c>
-      <c r="CX4" s="33">
+      <c r="CX5" s="30">
         <v>43311</v>
       </c>
-      <c r="CY4" s="33">
+      <c r="CY5" s="30">
         <v>43312</v>
       </c>
-      <c r="CZ4" s="33">
+      <c r="CZ5" s="30">
         <v>43313</v>
       </c>
-      <c r="DA4" s="35">
+      <c r="DA5" s="32">
         <v>43314</v>
       </c>
-      <c r="DB4" s="35">
+      <c r="DB5" s="32">
         <v>43315</v>
       </c>
-      <c r="DC4" s="34">
+      <c r="DC5" s="31">
         <v>43316</v>
       </c>
-      <c r="DD4" s="34">
+      <c r="DD5" s="31">
         <v>43317</v>
       </c>
-      <c r="DE4" s="35">
+      <c r="DE5" s="32">
         <v>43318</v>
       </c>
-      <c r="DF4" s="35">
+      <c r="DF5" s="32">
         <v>43319</v>
       </c>
-      <c r="DG4" s="35">
+      <c r="DG5" s="32">
         <v>43320</v>
       </c>
-      <c r="DH4" s="35">
+      <c r="DH5" s="32">
         <v>43321</v>
       </c>
-      <c r="DI4" s="35">
+      <c r="DI5" s="32">
         <v>43322</v>
       </c>
-      <c r="DJ4" s="34">
+      <c r="DJ5" s="31">
         <v>43323</v>
       </c>
-      <c r="DK4" s="34">
+      <c r="DK5" s="31">
         <v>43324</v>
       </c>
-      <c r="DL4" s="35">
+      <c r="DL5" s="32">
         <v>43325</v>
       </c>
-      <c r="DM4" s="35">
+      <c r="DM5" s="32">
         <v>43326</v>
       </c>
-      <c r="DN4" s="36">
+      <c r="DN5" s="33">
         <v>43327</v>
       </c>
-      <c r="DO4" s="35">
+      <c r="DO5" s="32">
         <v>43328</v>
       </c>
-      <c r="DP4" s="35">
+      <c r="DP5" s="32">
         <v>43329</v>
       </c>
-      <c r="DQ4" s="34">
+      <c r="DQ5" s="31">
         <v>43330</v>
       </c>
-      <c r="DR4" s="34">
+      <c r="DR5" s="31">
         <v>43331</v>
       </c>
-      <c r="DS4" s="33">
+      <c r="DS5" s="30">
         <v>43332</v>
       </c>
-      <c r="DT4" s="33">
+      <c r="DT5" s="30">
         <v>43333</v>
       </c>
-      <c r="DU4" s="33">
+      <c r="DU5" s="30">
         <v>43334</v>
       </c>
-      <c r="DV4" s="33">
+      <c r="DV5" s="30">
         <v>43335</v>
       </c>
-      <c r="DW4" s="33">
+      <c r="DW5" s="30">
         <v>43336</v>
       </c>
-      <c r="DX4" s="34">
+      <c r="DX5" s="31">
         <v>43337</v>
       </c>
-      <c r="DY4" s="34">
+      <c r="DY5" s="31">
         <v>43338</v>
       </c>
-      <c r="DZ4" s="33">
+      <c r="DZ5" s="30">
         <v>43339</v>
       </c>
-      <c r="EA4" s="33">
+      <c r="EA5" s="30">
         <v>43340</v>
       </c>
-      <c r="EB4" s="33">
+      <c r="EB5" s="30">
         <v>43341</v>
       </c>
-      <c r="EC4" s="33">
+      <c r="EC5" s="30">
         <v>43342</v>
       </c>
-      <c r="ED4" s="33">
+      <c r="ED5" s="30">
         <v>43343</v>
       </c>
-      <c r="EE4" s="34">
+      <c r="EE5" s="31">
         <v>43344</v>
       </c>
-      <c r="EF4" s="34">
+      <c r="EF5" s="31">
         <v>43345</v>
       </c>
-      <c r="EG4" s="33">
+      <c r="EG5" s="30">
         <v>43346</v>
       </c>
-      <c r="EH4" s="33">
+      <c r="EH5" s="30">
         <v>43347</v>
       </c>
-      <c r="EI4" s="33">
+      <c r="EI5" s="30">
         <v>43348</v>
       </c>
-      <c r="EJ4" s="33">
+      <c r="EJ5" s="30">
         <v>43349</v>
       </c>
-      <c r="EK4" s="33">
+      <c r="EK5" s="30">
         <v>43350</v>
       </c>
-      <c r="EL4" s="34">
+      <c r="EL5" s="31">
         <v>43351</v>
       </c>
-      <c r="EM4" s="34">
+      <c r="EM5" s="31">
         <v>43352</v>
       </c>
-      <c r="EN4" s="33">
+      <c r="EN5" s="30">
         <v>43353</v>
       </c>
-      <c r="EO4" s="33">
+      <c r="EO5" s="30">
         <v>43354</v>
       </c>
-      <c r="EP4" s="33">
+      <c r="EP5" s="30">
         <v>43355</v>
       </c>
-      <c r="EQ4" s="33">
+      <c r="EQ5" s="30">
         <v>43356</v>
       </c>
-      <c r="ER4" s="33">
+      <c r="ER5" s="30">
         <v>43357</v>
       </c>
-      <c r="ES4" s="34">
+      <c r="ES5" s="31">
         <v>43358</v>
       </c>
-      <c r="ET4" s="34">
+      <c r="ET5" s="31">
         <v>43359</v>
       </c>
-      <c r="EU4" s="33">
+      <c r="EU5" s="30">
         <v>43360</v>
       </c>
-      <c r="EV4" s="33">
+      <c r="EV5" s="30">
         <v>43361</v>
       </c>
-      <c r="EW4" s="33">
+      <c r="EW5" s="30">
         <v>43362</v>
       </c>
-      <c r="EX4" s="33">
+      <c r="EX5" s="30">
         <v>43363</v>
       </c>
-      <c r="EY4" s="33">
+      <c r="EY5" s="30">
         <v>43364</v>
       </c>
-      <c r="EZ4" s="34">
+      <c r="EZ5" s="31">
         <v>43365</v>
       </c>
-      <c r="FA4" s="34">
+      <c r="FA5" s="31">
         <v>43366</v>
       </c>
-      <c r="FB4" s="33">
+      <c r="FB5" s="30">
         <v>43367</v>
       </c>
-      <c r="FC4" s="33">
+      <c r="FC5" s="30">
         <v>43368</v>
       </c>
-      <c r="FD4" s="33">
+      <c r="FD5" s="30">
         <v>43369</v>
       </c>
-      <c r="FE4" s="33">
+      <c r="FE5" s="30">
         <v>43370</v>
       </c>
-      <c r="FF4" s="33">
+      <c r="FF5" s="30">
         <v>43371</v>
       </c>
-      <c r="FG4" s="34">
+      <c r="FG5" s="31">
         <v>43372</v>
       </c>
-      <c r="FH4" s="34">
+      <c r="FH5" s="31">
         <v>43373</v>
       </c>
-      <c r="FI4" s="33">
+      <c r="FI5" s="30">
         <v>43374</v>
       </c>
-      <c r="FJ4" s="33">
+      <c r="FJ5" s="30">
         <v>43375</v>
       </c>
-      <c r="FK4" s="33">
+      <c r="FK5" s="30">
         <v>43376</v>
       </c>
-      <c r="FL4" s="33">
+      <c r="FL5" s="30">
         <v>43377</v>
       </c>
-      <c r="FM4" s="33">
+      <c r="FM5" s="30">
         <v>43378</v>
       </c>
-      <c r="FN4" s="34">
+      <c r="FN5" s="31">
         <v>43379</v>
       </c>
-      <c r="FO4" s="34">
+      <c r="FO5" s="31">
         <v>43380</v>
       </c>
-      <c r="FP4" s="33">
+      <c r="FP5" s="30">
         <v>43381</v>
       </c>
-      <c r="FQ4" s="33">
+      <c r="FQ5" s="30">
         <v>43382</v>
       </c>
-      <c r="FR4" s="33">
+      <c r="FR5" s="30">
         <v>43383</v>
       </c>
-      <c r="FS4" s="33">
+      <c r="FS5" s="30">
         <v>43384</v>
       </c>
-      <c r="FT4" s="33">
+      <c r="FT5" s="30">
         <v>43385</v>
       </c>
-      <c r="FU4" s="34">
+      <c r="FU5" s="31">
         <v>43386</v>
       </c>
-      <c r="FV4" s="34">
+      <c r="FV5" s="31">
         <v>43387</v>
       </c>
-      <c r="FW4" s="33">
+      <c r="FW5" s="30">
         <v>43388</v>
       </c>
-      <c r="FX4" s="33">
+      <c r="FX5" s="30">
         <v>43389</v>
       </c>
-      <c r="FY4" s="33">
+      <c r="FY5" s="30">
         <v>43390</v>
       </c>
-      <c r="FZ4" s="33">
+      <c r="FZ5" s="30">
         <v>43391</v>
       </c>
-      <c r="GA4" s="33">
+      <c r="GA5" s="30">
         <v>43392</v>
       </c>
-      <c r="GB4" s="34">
+      <c r="GB5" s="31">
         <v>43393</v>
       </c>
-      <c r="GC4" s="34">
+      <c r="GC5" s="31">
         <v>43394</v>
       </c>
-      <c r="GD4" s="33">
+      <c r="GD5" s="30">
         <v>43395</v>
       </c>
-      <c r="GE4" s="33">
+      <c r="GE5" s="30">
         <v>43396</v>
       </c>
-      <c r="GF4" s="33">
+      <c r="GF5" s="30">
         <v>43397</v>
       </c>
-      <c r="GG4" s="33">
+      <c r="GG5" s="30">
         <v>43398</v>
       </c>
-      <c r="GH4" s="33">
+      <c r="GH5" s="30">
         <v>43399</v>
       </c>
-      <c r="GI4" s="34">
+      <c r="GI5" s="31">
         <v>43400</v>
       </c>
-      <c r="GJ4" s="34">
+      <c r="GJ5" s="31">
         <v>43401</v>
       </c>
-      <c r="GK4" s="33">
+      <c r="GK5" s="30">
         <v>43402</v>
       </c>
-      <c r="GL4" s="33">
+      <c r="GL5" s="30">
         <v>43403</v>
       </c>
-      <c r="GM4" s="33">
+      <c r="GM5" s="30">
         <v>43404</v>
       </c>
-      <c r="GN4" s="33">
+      <c r="GN5" s="30">
         <v>43405</v>
       </c>
-      <c r="GO4" s="33">
+      <c r="GO5" s="30">
         <v>43406</v>
       </c>
-      <c r="GP4" s="34">
+      <c r="GP5" s="31">
         <v>43407</v>
       </c>
-      <c r="GQ4" s="34">
+      <c r="GQ5" s="31">
         <v>43408</v>
       </c>
-      <c r="GR4" s="33">
+      <c r="GR5" s="30">
         <v>43409</v>
       </c>
-      <c r="GS4" s="33">
+      <c r="GS5" s="30">
         <v>43410</v>
       </c>
-      <c r="GT4" s="33">
+      <c r="GT5" s="30">
         <v>43411</v>
       </c>
-      <c r="GU4" s="33">
+      <c r="GU5" s="30">
         <v>43412</v>
       </c>
-      <c r="GV4" s="33">
+      <c r="GV5" s="30">
         <v>43413</v>
       </c>
-      <c r="GW4" s="34">
+      <c r="GW5" s="31">
         <v>43414</v>
       </c>
-      <c r="GX4" s="34">
+      <c r="GX5" s="31">
         <v>43415</v>
       </c>
-      <c r="GY4" s="33">
+      <c r="GY5" s="30">
         <v>43416</v>
       </c>
-      <c r="GZ4" s="33">
+      <c r="GZ5" s="30">
         <v>43417</v>
       </c>
-      <c r="HA4" s="33">
+      <c r="HA5" s="30">
         <v>43418</v>
       </c>
-      <c r="HB4" s="33">
+      <c r="HB5" s="30">
         <v>43419</v>
       </c>
-      <c r="HC4" s="33">
+      <c r="HC5" s="30">
         <v>43420</v>
       </c>
-      <c r="HD4" s="34">
+      <c r="HD5" s="31">
         <v>43421</v>
       </c>
-      <c r="HE4" s="34">
+      <c r="HE5" s="31">
         <v>43422</v>
       </c>
-      <c r="HF4" s="33">
+      <c r="HF5" s="30">
         <v>43423</v>
       </c>
-      <c r="HG4" s="33">
+      <c r="HG5" s="30">
         <v>43424</v>
       </c>
-      <c r="HH4" s="33">
+      <c r="HH5" s="30">
         <v>43425</v>
       </c>
-      <c r="HI4" s="33">
+      <c r="HI5" s="30">
         <v>43426</v>
       </c>
-      <c r="HJ4" s="33">
+      <c r="HJ5" s="30">
         <v>43427</v>
       </c>
-      <c r="HK4" s="33">
+      <c r="HK5" s="31">
         <v>43428</v>
       </c>
-      <c r="HL4" s="33">
+      <c r="HL5" s="31">
         <v>43429</v>
       </c>
-      <c r="HM4" s="33">
+      <c r="HM5" s="30">
         <v>43430</v>
       </c>
-      <c r="HN4" s="33">
+      <c r="HN5" s="30">
         <v>43431</v>
       </c>
-      <c r="HO4" s="33">
+      <c r="HO5" s="30">
         <v>43432</v>
       </c>
-      <c r="HP4" s="33">
+      <c r="HP5" s="30">
         <v>43433</v>
       </c>
-      <c r="HQ4" s="33">
+      <c r="HQ5" s="33">
         <v>43434</v>
       </c>
-      <c r="HR4" s="33">
+      <c r="HR5" s="33">
         <v>43435</v>
       </c>
-      <c r="HS4" s="33">
+      <c r="HS5" s="31">
         <v>43436</v>
       </c>
-      <c r="HT4" s="33">
+      <c r="HT5" s="30">
         <v>43437</v>
       </c>
-    </row>
-    <row r="5" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="42">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="14">
-        <f t="shared" ref="F5:F101" si="0">SUM(G5:GP5)</f>
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="L5" s="9"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7"/>
-      <c r="BT5" s="7"/>
-      <c r="BU5" s="7"/>
-      <c r="CA5" s="7"/>
-      <c r="CB5" s="7"/>
-      <c r="CH5" s="7"/>
-      <c r="CI5" s="7"/>
-      <c r="CO5" s="7"/>
-      <c r="CP5" s="7"/>
-      <c r="CV5" s="7"/>
-      <c r="CW5" s="7"/>
-      <c r="DC5" s="7"/>
-      <c r="DD5" s="7"/>
-      <c r="DJ5" s="7"/>
-      <c r="DK5" s="7"/>
-      <c r="DN5" s="9"/>
-      <c r="DQ5" s="7"/>
-      <c r="DR5" s="7"/>
-      <c r="DX5" s="7"/>
-      <c r="DY5" s="7"/>
-      <c r="EE5" s="7"/>
-      <c r="EF5" s="7"/>
-      <c r="EL5" s="7"/>
-      <c r="EM5" s="7"/>
-      <c r="ES5" s="7"/>
-      <c r="ET5" s="7"/>
-      <c r="EZ5" s="7"/>
-      <c r="FA5" s="7"/>
-      <c r="FG5" s="7"/>
-      <c r="FH5" s="7"/>
-      <c r="FN5" s="7"/>
-      <c r="FO5" s="7"/>
-      <c r="FU5" s="7"/>
-      <c r="FV5" s="7"/>
-      <c r="GB5" s="7"/>
-      <c r="GC5" s="7"/>
-      <c r="GI5" s="7"/>
-      <c r="GJ5" s="7"/>
-      <c r="GP5" s="7"/>
-      <c r="GQ5" s="7"/>
-      <c r="GW5" s="7"/>
-      <c r="GX5" s="7"/>
-      <c r="HD5" s="7"/>
-      <c r="HE5" s="7"/>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="42">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="B6" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="65">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="44">
+        <f t="shared" ref="F6:F101" si="4">SUM(G6:GP6)</f>
         <v>3</v>
       </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="L6" s="9"/>
       <c r="P6" s="7"/>
@@ -2543,24 +3483,31 @@
       <c r="GX6" s="7"/>
       <c r="HD6" s="7"/>
       <c r="HE6" s="7"/>
+      <c r="HK6" s="7"/>
+      <c r="HL6" s="7"/>
+      <c r="HQ6" s="9"/>
+      <c r="HR6" s="9"/>
+      <c r="HS6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="42">
-        <v>1.3</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="65">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="45">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="L7" s="9"/>
       <c r="P7" s="7"/>
@@ -2624,23 +3571,29 @@
       <c r="GX7" s="7"/>
       <c r="HD7" s="7"/>
       <c r="HE7" s="7"/>
+      <c r="HK7" s="7"/>
+      <c r="HL7" s="7"/>
+      <c r="HQ7" s="9"/>
+      <c r="HR7" s="9"/>
+      <c r="HS7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="42">
-        <v>1.4</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="65">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="45">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="L8" s="9"/>
       <c r="P8" s="7"/>
@@ -2704,21 +3657,28 @@
       <c r="GX8" s="7"/>
       <c r="HD8" s="7"/>
       <c r="HE8" s="7"/>
+      <c r="HK8" s="7"/>
+      <c r="HL8" s="7"/>
+      <c r="HQ8" s="9"/>
+      <c r="HR8" s="9"/>
+      <c r="HS8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="L9" s="9"/>
       <c r="P9" s="7"/>
@@ -2782,18 +3742,23 @@
       <c r="GX9" s="7"/>
       <c r="HD9" s="7"/>
       <c r="HE9" s="7"/>
+      <c r="HK9" s="7"/>
+      <c r="HL9" s="7"/>
+      <c r="HQ9" s="9"/>
+      <c r="HR9" s="9"/>
+      <c r="HS9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="42">
-        <v>1.6</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="0"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
@@ -2860,22 +3825,24 @@
       <c r="GX10" s="7"/>
       <c r="HD10" s="7"/>
       <c r="HE10" s="7"/>
+      <c r="HK10" s="7"/>
+      <c r="HL10" s="7"/>
+      <c r="HQ10" s="9"/>
+      <c r="HR10" s="9"/>
+      <c r="HS10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="42">
-        <v>1.7</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
+      <c r="B11" s="60"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="71">
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2941,18 +3908,23 @@
       <c r="GX11" s="7"/>
       <c r="HD11" s="7"/>
       <c r="HE11" s="7"/>
+      <c r="HK11" s="7"/>
+      <c r="HL11" s="7"/>
+      <c r="HQ11" s="9"/>
+      <c r="HR11" s="9"/>
+      <c r="HS11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="42">
-        <v>1.8</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="0"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="38">
+        <v>1.7</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
@@ -3019,23 +3991,29 @@
       <c r="GX12" s="7"/>
       <c r="HD12" s="7"/>
       <c r="HE12" s="7"/>
+      <c r="HK12" s="7"/>
+      <c r="HL12" s="7"/>
+      <c r="HQ12" s="9"/>
+      <c r="HR12" s="9"/>
+      <c r="HS12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="42">
-        <v>1.9</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="0"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="65">
+        <v>1.8</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="45">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="H13" s="1">
         <v>2</v>
       </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="L13" s="9"/>
       <c r="P13" s="7"/>
@@ -3099,16 +4077,23 @@
       <c r="GX13" s="7"/>
       <c r="HD13" s="7"/>
       <c r="HE13" s="7"/>
+      <c r="HK13" s="7"/>
+      <c r="HL13" s="7"/>
+      <c r="HQ13" s="9"/>
+      <c r="HR13" s="9"/>
+      <c r="HS13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="0"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="71">
+        <v>1.9</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
@@ -3175,25 +4160,28 @@
       <c r="GX14" s="7"/>
       <c r="HD14" s="7"/>
       <c r="HE14" s="7"/>
+      <c r="HK14" s="7"/>
+      <c r="HL14" s="7"/>
+      <c r="HQ14" s="9"/>
+      <c r="HR14" s="9"/>
+      <c r="HS14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="72">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="45">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D15" s="43">
-        <v>2.1</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="L15" s="9"/>
       <c r="P15" s="7"/>
@@ -3257,18 +4245,21 @@
       <c r="GX15" s="7"/>
       <c r="HD15" s="7"/>
       <c r="HE15" s="7"/>
+      <c r="HK15" s="7"/>
+      <c r="HL15" s="7"/>
+      <c r="HQ15" s="9"/>
+      <c r="HR15" s="9"/>
+      <c r="HS15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="42">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" si="0"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
@@ -3335,21 +4326,32 @@
       <c r="GX16" s="7"/>
       <c r="HD16" s="7"/>
       <c r="HE16" s="7"/>
+      <c r="HK16" s="7"/>
+      <c r="HL16" s="7"/>
+      <c r="HQ16" s="9"/>
+      <c r="HR16" s="9"/>
+      <c r="HS16" s="7"/>
     </row>
-    <row r="17" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="42">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
+    <row r="17" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="66">
+        <v>2.1</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="L17" s="9"/>
       <c r="P17" s="7"/>
@@ -3413,18 +4415,23 @@
       <c r="GX17" s="7"/>
       <c r="HD17" s="7"/>
       <c r="HE17" s="7"/>
+      <c r="HK17" s="7"/>
+      <c r="HL17" s="7"/>
+      <c r="HQ17" s="9"/>
+      <c r="HR17" s="9"/>
+      <c r="HS17" s="7"/>
     </row>
-    <row r="18" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="42">
-        <v>2.4</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="0"/>
+    <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="60"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
@@ -3491,16 +4498,23 @@
       <c r="GX18" s="7"/>
       <c r="HD18" s="7"/>
       <c r="HE18" s="7"/>
+      <c r="HK18" s="7"/>
+      <c r="HL18" s="7"/>
+      <c r="HQ18" s="9"/>
+      <c r="HR18" s="9"/>
+      <c r="HS18" s="7"/>
     </row>
-    <row r="19" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="42">
-        <v>2.5</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14">
-        <f t="shared" si="0"/>
+    <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
@@ -3567,20 +4581,29 @@
       <c r="GX19" s="7"/>
       <c r="HD19" s="7"/>
       <c r="HE19" s="7"/>
+      <c r="HK19" s="7"/>
+      <c r="HL19" s="7"/>
+      <c r="HQ19" s="9"/>
+      <c r="HR19" s="9"/>
+      <c r="HS19" s="7"/>
     </row>
-    <row r="20" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="42">
-        <v>2.6</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="60"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="65">
+        <v>2.4</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="45">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -3643,16 +4666,23 @@
       <c r="GX20" s="7"/>
       <c r="HD20" s="7"/>
       <c r="HE20" s="7"/>
+      <c r="HK20" s="7"/>
+      <c r="HL20" s="7"/>
+      <c r="HQ20" s="9"/>
+      <c r="HR20" s="9"/>
+      <c r="HS20" s="7"/>
     </row>
-    <row r="21" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="42">
-        <v>2.7</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14">
-        <f t="shared" si="0"/>
+    <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="60"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="38">
+        <v>2.5</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
@@ -3719,16 +4749,21 @@
       <c r="GX21" s="7"/>
       <c r="HD21" s="7"/>
       <c r="HE21" s="7"/>
+      <c r="HK21" s="7"/>
+      <c r="HL21" s="7"/>
+      <c r="HQ21" s="9"/>
+      <c r="HR21" s="9"/>
+      <c r="HS21" s="7"/>
     </row>
-    <row r="22" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="42">
-        <v>2.8</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14">
-        <f t="shared" si="0"/>
+    <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="60"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="38">
+        <v>2.6</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="7"/>
@@ -3795,16 +4830,21 @@
       <c r="GX22" s="7"/>
       <c r="HD22" s="7"/>
       <c r="HE22" s="7"/>
+      <c r="HK22" s="7"/>
+      <c r="HL22" s="7"/>
+      <c r="HQ22" s="9"/>
+      <c r="HR22" s="9"/>
+      <c r="HS22" s="7"/>
     </row>
-    <row r="23" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="42">
-        <v>2.9</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14">
-        <f t="shared" si="0"/>
+    <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="60"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="38">
+        <v>2.7</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23" s="7"/>
@@ -3871,16 +4911,21 @@
       <c r="GX23" s="7"/>
       <c r="HD23" s="7"/>
       <c r="HE23" s="7"/>
+      <c r="HK23" s="7"/>
+      <c r="HL23" s="7"/>
+      <c r="HQ23" s="9"/>
+      <c r="HR23" s="9"/>
+      <c r="HS23" s="7"/>
     </row>
-    <row r="24" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="17">
-        <f t="shared" si="0"/>
+    <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="60"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="38">
+        <v>2.8</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I24" s="7"/>
@@ -3947,22 +4992,21 @@
       <c r="GX24" s="7"/>
       <c r="HD24" s="7"/>
       <c r="HE24" s="7"/>
+      <c r="HK24" s="7"/>
+      <c r="HL24" s="7"/>
+      <c r="HQ24" s="9"/>
+      <c r="HR24" s="9"/>
+      <c r="HS24" s="7"/>
     </row>
-    <row r="25" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="43">
-        <v>3.1</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="12">
-        <f t="shared" si="0"/>
+    <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="60"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="38">
+        <v>2.9</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I25" s="7"/>
@@ -4029,18 +5073,21 @@
       <c r="GX25" s="7"/>
       <c r="HD25" s="7"/>
       <c r="HE25" s="7"/>
+      <c r="HK25" s="7"/>
+      <c r="HL25" s="7"/>
+      <c r="HQ25" s="9"/>
+      <c r="HR25" s="9"/>
+      <c r="HS25" s="7"/>
     </row>
-    <row r="26" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="42">
-        <v>3.2</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="14">
-        <f t="shared" si="0"/>
+    <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="61"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26" s="7"/>
@@ -4107,18 +5154,27 @@
       <c r="GX26" s="7"/>
       <c r="HD26" s="7"/>
       <c r="HE26" s="7"/>
+      <c r="HK26" s="7"/>
+      <c r="HL26" s="7"/>
+      <c r="HQ26" s="9"/>
+      <c r="HR26" s="9"/>
+      <c r="HS26" s="7"/>
     </row>
-    <row r="27" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="42">
-        <v>3.3</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="14">
-        <f t="shared" si="0"/>
+    <row r="27" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="39">
+        <v>3.1</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="44">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I27" s="7"/>
@@ -4185,18 +5241,23 @@
       <c r="GX27" s="7"/>
       <c r="HD27" s="7"/>
       <c r="HE27" s="7"/>
+      <c r="HK27" s="7"/>
+      <c r="HL27" s="7"/>
+      <c r="HQ27" s="9"/>
+      <c r="HR27" s="9"/>
+      <c r="HS27" s="7"/>
     </row>
-    <row r="28" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="42">
-        <v>3.4</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="14">
-        <f t="shared" si="0"/>
+    <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I28" s="7"/>
@@ -4263,18 +5324,23 @@
       <c r="GX28" s="7"/>
       <c r="HD28" s="7"/>
       <c r="HE28" s="7"/>
+      <c r="HK28" s="7"/>
+      <c r="HL28" s="7"/>
+      <c r="HQ28" s="9"/>
+      <c r="HR28" s="9"/>
+      <c r="HS28" s="7"/>
     </row>
-    <row r="29" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="14">
-        <f t="shared" si="0"/>
+    <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="7"/>
@@ -4341,18 +5407,23 @@
       <c r="GX29" s="7"/>
       <c r="HD29" s="7"/>
       <c r="HE29" s="7"/>
+      <c r="HK29" s="7"/>
+      <c r="HL29" s="7"/>
+      <c r="HQ29" s="9"/>
+      <c r="HR29" s="9"/>
+      <c r="HS29" s="7"/>
     </row>
-    <row r="30" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="42">
-        <v>3.6</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="14">
-        <f t="shared" si="0"/>
+    <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="60"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I30" s="7"/>
@@ -4419,18 +5490,23 @@
       <c r="GX30" s="7"/>
       <c r="HD30" s="7"/>
       <c r="HE30" s="7"/>
+      <c r="HK30" s="7"/>
+      <c r="HL30" s="7"/>
+      <c r="HQ30" s="9"/>
+      <c r="HR30" s="9"/>
+      <c r="HS30" s="7"/>
     </row>
-    <row r="31" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="42">
-        <v>3.7</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="14">
-        <f t="shared" si="0"/>
+    <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="60"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31" s="7"/>
@@ -4497,18 +5573,23 @@
       <c r="GX31" s="7"/>
       <c r="HD31" s="7"/>
       <c r="HE31" s="7"/>
+      <c r="HK31" s="7"/>
+      <c r="HL31" s="7"/>
+      <c r="HQ31" s="9"/>
+      <c r="HR31" s="9"/>
+      <c r="HS31" s="7"/>
     </row>
-    <row r="32" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="42">
-        <v>3.8</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="14">
-        <f t="shared" si="0"/>
+    <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="38">
+        <v>3.6</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I32" s="7"/>
@@ -4575,16 +5656,23 @@
       <c r="GX32" s="7"/>
       <c r="HD32" s="7"/>
       <c r="HE32" s="7"/>
+      <c r="HK32" s="7"/>
+      <c r="HL32" s="7"/>
+      <c r="HQ32" s="9"/>
+      <c r="HR32" s="9"/>
+      <c r="HS32" s="7"/>
     </row>
-    <row r="33" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="42">
-        <v>3.9</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14">
-        <f t="shared" si="0"/>
+    <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="60"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="38">
+        <v>3.7</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33" s="7"/>
@@ -4651,16 +5739,23 @@
       <c r="GX33" s="7"/>
       <c r="HD33" s="7"/>
       <c r="HE33" s="7"/>
+      <c r="HK33" s="7"/>
+      <c r="HL33" s="7"/>
+      <c r="HQ33" s="9"/>
+      <c r="HR33" s="9"/>
+      <c r="HS33" s="7"/>
     </row>
-    <row r="34" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="17">
-        <f t="shared" si="0"/>
+    <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="60"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="38">
+        <v>3.8</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="7"/>
@@ -4727,22 +5822,21 @@
       <c r="GX34" s="7"/>
       <c r="HD34" s="7"/>
       <c r="HE34" s="7"/>
+      <c r="HK34" s="7"/>
+      <c r="HL34" s="7"/>
+      <c r="HQ34" s="9"/>
+      <c r="HR34" s="9"/>
+      <c r="HS34" s="7"/>
     </row>
-    <row r="35" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="43">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="12">
-        <f t="shared" si="0"/>
+    <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="60"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="38">
+        <v>3.9</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I35" s="7"/>
@@ -4809,18 +5903,21 @@
       <c r="GX35" s="7"/>
       <c r="HD35" s="7"/>
       <c r="HE35" s="7"/>
+      <c r="HK35" s="7"/>
+      <c r="HL35" s="7"/>
+      <c r="HQ35" s="9"/>
+      <c r="HR35" s="9"/>
+      <c r="HS35" s="7"/>
     </row>
-    <row r="36" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="42">
-        <v>4.2</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="0"/>
+    <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="61"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I36" s="7"/>
@@ -4887,18 +5984,27 @@
       <c r="GX36" s="7"/>
       <c r="HD36" s="7"/>
       <c r="HE36" s="7"/>
+      <c r="HK36" s="7"/>
+      <c r="HL36" s="7"/>
+      <c r="HQ36" s="9"/>
+      <c r="HR36" s="9"/>
+      <c r="HS36" s="7"/>
     </row>
-    <row r="37" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="42">
-        <v>4.3</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="14">
-        <f t="shared" si="0"/>
+    <row r="37" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="39">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="44">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I37" s="7"/>
@@ -4965,18 +6071,23 @@
       <c r="GX37" s="7"/>
       <c r="HD37" s="7"/>
       <c r="HE37" s="7"/>
+      <c r="HK37" s="7"/>
+      <c r="HL37" s="7"/>
+      <c r="HQ37" s="9"/>
+      <c r="HR37" s="9"/>
+      <c r="HS37" s="7"/>
     </row>
-    <row r="38" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="49"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="42">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="0"/>
+    <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="60"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="38">
+        <v>4.2</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I38" s="7"/>
@@ -5043,18 +6154,23 @@
       <c r="GX38" s="7"/>
       <c r="HD38" s="7"/>
       <c r="HE38" s="7"/>
+      <c r="HK38" s="7"/>
+      <c r="HL38" s="7"/>
+      <c r="HQ38" s="9"/>
+      <c r="HR38" s="9"/>
+      <c r="HS38" s="7"/>
     </row>
-    <row r="39" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="49"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="42">
-        <v>4.5</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="14">
-        <f t="shared" si="0"/>
+    <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="60"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="38">
+        <v>4.3</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="7"/>
@@ -5121,18 +6237,23 @@
       <c r="GX39" s="7"/>
       <c r="HD39" s="7"/>
       <c r="HE39" s="7"/>
+      <c r="HK39" s="7"/>
+      <c r="HL39" s="7"/>
+      <c r="HQ39" s="9"/>
+      <c r="HR39" s="9"/>
+      <c r="HS39" s="7"/>
     </row>
-    <row r="40" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="49"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="42">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="14">
-        <f t="shared" si="0"/>
+    <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="60"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I40" s="7"/>
@@ -5199,18 +6320,23 @@
       <c r="GX40" s="7"/>
       <c r="HD40" s="7"/>
       <c r="HE40" s="7"/>
+      <c r="HK40" s="7"/>
+      <c r="HL40" s="7"/>
+      <c r="HQ40" s="9"/>
+      <c r="HR40" s="9"/>
+      <c r="HS40" s="7"/>
     </row>
-    <row r="41" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="49"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="14">
-        <f t="shared" si="0"/>
+    <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="60"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I41" s="7"/>
@@ -5277,18 +6403,23 @@
       <c r="GX41" s="7"/>
       <c r="HD41" s="7"/>
       <c r="HE41" s="7"/>
+      <c r="HK41" s="7"/>
+      <c r="HL41" s="7"/>
+      <c r="HQ41" s="9"/>
+      <c r="HR41" s="9"/>
+      <c r="HS41" s="7"/>
     </row>
-    <row r="42" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="42">
-        <v>4.8</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="14">
-        <f t="shared" si="0"/>
+    <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="60"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="38">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I42" s="7"/>
@@ -5355,16 +6486,23 @@
       <c r="GX42" s="7"/>
       <c r="HD42" s="7"/>
       <c r="HE42" s="7"/>
+      <c r="HK42" s="7"/>
+      <c r="HL42" s="7"/>
+      <c r="HQ42" s="9"/>
+      <c r="HR42" s="9"/>
+      <c r="HS42" s="7"/>
     </row>
-    <row r="43" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="49"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="42">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14">
-        <f t="shared" si="0"/>
+    <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="60"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="38">
+        <v>4.7</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I43" s="7"/>
@@ -5431,16 +6569,23 @@
       <c r="GX43" s="7"/>
       <c r="HD43" s="7"/>
       <c r="HE43" s="7"/>
+      <c r="HK43" s="7"/>
+      <c r="HL43" s="7"/>
+      <c r="HQ43" s="9"/>
+      <c r="HR43" s="9"/>
+      <c r="HS43" s="7"/>
     </row>
-    <row r="44" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="49"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="44">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14">
-        <f t="shared" si="0"/>
+    <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="60"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="38">
+        <v>4.8</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I44" s="7"/>
@@ -5507,16 +6652,21 @@
       <c r="GX44" s="7"/>
       <c r="HD44" s="7"/>
       <c r="HE44" s="7"/>
+      <c r="HK44" s="7"/>
+      <c r="HL44" s="7"/>
+      <c r="HQ44" s="9"/>
+      <c r="HR44" s="9"/>
+      <c r="HS44" s="7"/>
     </row>
-    <row r="45" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="17">
-        <f t="shared" si="0"/>
+    <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="60"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="38">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I45" s="7"/>
@@ -5583,22 +6733,21 @@
       <c r="GX45" s="7"/>
       <c r="HD45" s="7"/>
       <c r="HE45" s="7"/>
+      <c r="HK45" s="7"/>
+      <c r="HL45" s="7"/>
+      <c r="HQ45" s="9"/>
+      <c r="HR45" s="9"/>
+      <c r="HS45" s="7"/>
     </row>
-    <row r="46" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="43">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="12">
-        <f t="shared" si="0"/>
+    <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="60"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46" s="7"/>
@@ -5665,18 +6814,21 @@
       <c r="GX46" s="7"/>
       <c r="HD46" s="7"/>
       <c r="HE46" s="7"/>
+      <c r="HK46" s="7"/>
+      <c r="HL46" s="7"/>
+      <c r="HQ46" s="9"/>
+      <c r="HR46" s="9"/>
+      <c r="HS46" s="7"/>
     </row>
-    <row r="47" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="42">
-        <v>5.2</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="14">
-        <f t="shared" si="0"/>
+    <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="61"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I47" s="7"/>
@@ -5743,18 +6895,27 @@
       <c r="GX47" s="7"/>
       <c r="HD47" s="7"/>
       <c r="HE47" s="7"/>
+      <c r="HK47" s="7"/>
+      <c r="HL47" s="7"/>
+      <c r="HQ47" s="9"/>
+      <c r="HR47" s="9"/>
+      <c r="HS47" s="7"/>
     </row>
-    <row r="48" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="42">
-        <v>5.3</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="14">
-        <f t="shared" si="0"/>
+    <row r="48" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="39">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="44">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I48" s="7"/>
@@ -5821,18 +6982,23 @@
       <c r="GX48" s="7"/>
       <c r="HD48" s="7"/>
       <c r="HE48" s="7"/>
+      <c r="HK48" s="7"/>
+      <c r="HL48" s="7"/>
+      <c r="HQ48" s="9"/>
+      <c r="HR48" s="9"/>
+      <c r="HS48" s="7"/>
     </row>
-    <row r="49" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="42">
-        <v>5.4</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="14">
-        <f t="shared" si="0"/>
+    <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="60"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="38">
+        <v>5.2</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I49" s="7"/>
@@ -5899,18 +7065,23 @@
       <c r="GX49" s="7"/>
       <c r="HD49" s="7"/>
       <c r="HE49" s="7"/>
+      <c r="HK49" s="7"/>
+      <c r="HL49" s="7"/>
+      <c r="HQ49" s="9"/>
+      <c r="HR49" s="9"/>
+      <c r="HS49" s="7"/>
     </row>
-    <row r="50" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="42">
-        <v>5.5</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="14">
-        <f t="shared" si="0"/>
+    <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="60"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="38">
+        <v>5.3</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I50" s="7"/>
@@ -5977,18 +7148,23 @@
       <c r="GX50" s="7"/>
       <c r="HD50" s="7"/>
       <c r="HE50" s="7"/>
+      <c r="HK50" s="7"/>
+      <c r="HL50" s="7"/>
+      <c r="HQ50" s="9"/>
+      <c r="HR50" s="9"/>
+      <c r="HS50" s="7"/>
     </row>
-    <row r="51" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="49"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="42">
-        <v>5.6</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="14">
-        <f t="shared" si="0"/>
+    <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="60"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I51" s="7"/>
@@ -6055,18 +7231,23 @@
       <c r="GX51" s="7"/>
       <c r="HD51" s="7"/>
       <c r="HE51" s="7"/>
+      <c r="HK51" s="7"/>
+      <c r="HL51" s="7"/>
+      <c r="HQ51" s="9"/>
+      <c r="HR51" s="9"/>
+      <c r="HS51" s="7"/>
     </row>
-    <row r="52" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="49"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="42">
-        <v>5.7</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="14">
-        <f t="shared" si="0"/>
+    <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="60"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="38">
+        <v>5.5</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I52" s="7"/>
@@ -6133,16 +7314,23 @@
       <c r="GX52" s="7"/>
       <c r="HD52" s="7"/>
       <c r="HE52" s="7"/>
+      <c r="HK52" s="7"/>
+      <c r="HL52" s="7"/>
+      <c r="HQ52" s="9"/>
+      <c r="HR52" s="9"/>
+      <c r="HS52" s="7"/>
     </row>
-    <row r="53" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="49"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="42">
-        <v>5.8</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14">
-        <f t="shared" si="0"/>
+    <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="60"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="38">
+        <v>5.6</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I53" s="7"/>
@@ -6209,16 +7397,23 @@
       <c r="GX53" s="7"/>
       <c r="HD53" s="7"/>
       <c r="HE53" s="7"/>
+      <c r="HK53" s="7"/>
+      <c r="HL53" s="7"/>
+      <c r="HQ53" s="9"/>
+      <c r="HR53" s="9"/>
+      <c r="HS53" s="7"/>
     </row>
-    <row r="54" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="49"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="42">
-        <v>5.9</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14">
-        <f t="shared" si="0"/>
+    <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="60"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="38">
+        <v>5.7</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I54" s="7"/>
@@ -6285,16 +7480,21 @@
       <c r="GX54" s="7"/>
       <c r="HD54" s="7"/>
       <c r="HE54" s="7"/>
+      <c r="HK54" s="7"/>
+      <c r="HL54" s="7"/>
+      <c r="HQ54" s="9"/>
+      <c r="HR54" s="9"/>
+      <c r="HS54" s="7"/>
     </row>
-    <row r="55" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="50"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="17">
-        <f t="shared" si="0"/>
+    <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="60"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="38">
+        <v>5.8</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I55" s="7"/>
@@ -6361,22 +7561,21 @@
       <c r="GX55" s="7"/>
       <c r="HD55" s="7"/>
       <c r="HE55" s="7"/>
+      <c r="HK55" s="7"/>
+      <c r="HL55" s="7"/>
+      <c r="HQ55" s="9"/>
+      <c r="HR55" s="9"/>
+      <c r="HS55" s="7"/>
     </row>
-    <row r="56" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="43">
-        <v>6.1</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="12">
-        <f t="shared" ref="F56:F65" si="1">SUM(G56:GP56)</f>
+    <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="60"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="38">
+        <v>5.9</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I56" s="7"/>
@@ -6443,18 +7642,21 @@
       <c r="GX56" s="7"/>
       <c r="HD56" s="7"/>
       <c r="HE56" s="7"/>
+      <c r="HK56" s="7"/>
+      <c r="HL56" s="7"/>
+      <c r="HQ56" s="9"/>
+      <c r="HR56" s="9"/>
+      <c r="HS56" s="7"/>
     </row>
-    <row r="57" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="49"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="42">
-        <v>6.2</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="14">
-        <f t="shared" si="1"/>
+    <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="61"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I57" s="7"/>
@@ -6521,16 +7723,27 @@
       <c r="GX57" s="7"/>
       <c r="HD57" s="7"/>
       <c r="HE57" s="7"/>
+      <c r="HK57" s="7"/>
+      <c r="HL57" s="7"/>
+      <c r="HQ57" s="9"/>
+      <c r="HR57" s="9"/>
+      <c r="HS57" s="7"/>
     </row>
-    <row r="58" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="49"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="42">
-        <v>6.3</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14">
-        <f t="shared" si="1"/>
+    <row r="58" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="39">
+        <v>6.1</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="44">
+        <f t="shared" ref="F58:F67" si="5">SUM(G58:GP58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="7"/>
@@ -6597,16 +7810,23 @@
       <c r="GX58" s="7"/>
       <c r="HD58" s="7"/>
       <c r="HE58" s="7"/>
+      <c r="HK58" s="7"/>
+      <c r="HL58" s="7"/>
+      <c r="HQ58" s="9"/>
+      <c r="HR58" s="9"/>
+      <c r="HS58" s="7"/>
     </row>
-    <row r="59" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="42">
-        <v>6.4</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14">
-        <f t="shared" si="1"/>
+    <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="60"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="38">
+        <v>6.2</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I59" s="7"/>
@@ -6673,16 +7893,21 @@
       <c r="GX59" s="7"/>
       <c r="HD59" s="7"/>
       <c r="HE59" s="7"/>
+      <c r="HK59" s="7"/>
+      <c r="HL59" s="7"/>
+      <c r="HQ59" s="9"/>
+      <c r="HR59" s="9"/>
+      <c r="HS59" s="7"/>
     </row>
-    <row r="60" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="49"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="42">
-        <v>6.5</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="14">
-        <f t="shared" si="1"/>
+    <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="60"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="38">
+        <v>6.3</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I60" s="7"/>
@@ -6749,16 +7974,21 @@
       <c r="GX60" s="7"/>
       <c r="HD60" s="7"/>
       <c r="HE60" s="7"/>
+      <c r="HK60" s="7"/>
+      <c r="HL60" s="7"/>
+      <c r="HQ60" s="9"/>
+      <c r="HR60" s="9"/>
+      <c r="HS60" s="7"/>
     </row>
-    <row r="61" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="49"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="14">
-        <f t="shared" si="1"/>
+    <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="60"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="38">
+        <v>6.4</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I61" s="7"/>
@@ -6825,16 +8055,21 @@
       <c r="GX61" s="7"/>
       <c r="HD61" s="7"/>
       <c r="HE61" s="7"/>
+      <c r="HK61" s="7"/>
+      <c r="HL61" s="7"/>
+      <c r="HQ61" s="9"/>
+      <c r="HR61" s="9"/>
+      <c r="HS61" s="7"/>
     </row>
-    <row r="62" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="49"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="42">
-        <v>6.7</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14">
-        <f t="shared" si="1"/>
+    <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" s="60"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="38">
+        <v>6.5</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I62" s="7"/>
@@ -6901,16 +8136,21 @@
       <c r="GX62" s="7"/>
       <c r="HD62" s="7"/>
       <c r="HE62" s="7"/>
+      <c r="HK62" s="7"/>
+      <c r="HL62" s="7"/>
+      <c r="HQ62" s="9"/>
+      <c r="HR62" s="9"/>
+      <c r="HS62" s="7"/>
     </row>
-    <row r="63" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="49"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="42">
-        <v>6.8</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="14">
-        <f t="shared" si="1"/>
+    <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" s="60"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I63" s="7"/>
@@ -6977,16 +8217,21 @@
       <c r="GX63" s="7"/>
       <c r="HD63" s="7"/>
       <c r="HE63" s="7"/>
+      <c r="HK63" s="7"/>
+      <c r="HL63" s="7"/>
+      <c r="HQ63" s="9"/>
+      <c r="HR63" s="9"/>
+      <c r="HS63" s="7"/>
     </row>
-    <row r="64" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="49"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="42">
-        <v>6.9</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="14">
-        <f t="shared" si="1"/>
+    <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="60"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="38">
+        <v>6.7</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I64" s="7"/>
@@ -7053,16 +8298,21 @@
       <c r="GX64" s="7"/>
       <c r="HD64" s="7"/>
       <c r="HE64" s="7"/>
+      <c r="HK64" s="7"/>
+      <c r="HL64" s="7"/>
+      <c r="HQ64" s="9"/>
+      <c r="HR64" s="9"/>
+      <c r="HS64" s="7"/>
     </row>
-    <row r="65" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="50"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="17">
-        <f t="shared" si="1"/>
+    <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="60"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="38">
+        <v>6.8</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I65" s="7"/>
@@ -7129,22 +8379,21 @@
       <c r="GX65" s="7"/>
       <c r="HD65" s="7"/>
       <c r="HE65" s="7"/>
+      <c r="HK65" s="7"/>
+      <c r="HL65" s="7"/>
+      <c r="HQ65" s="9"/>
+      <c r="HR65" s="9"/>
+      <c r="HS65" s="7"/>
     </row>
-    <row r="66" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="43">
-        <v>7.1</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" s="12">
-        <f t="shared" ref="F66:F75" si="2">SUM(G66:GP66)</f>
+    <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="60"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="38">
+        <v>6.9</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="45">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I66" s="7"/>
@@ -7211,18 +8460,21 @@
       <c r="GX66" s="7"/>
       <c r="HD66" s="7"/>
       <c r="HE66" s="7"/>
+      <c r="HK66" s="7"/>
+      <c r="HL66" s="7"/>
+      <c r="HQ66" s="9"/>
+      <c r="HR66" s="9"/>
+      <c r="HS66" s="7"/>
     </row>
-    <row r="67" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="49"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="42">
-        <v>7.2</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="14">
-        <f t="shared" si="2"/>
+    <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="61"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="46">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I67" s="7"/>
@@ -7289,18 +8541,27 @@
       <c r="GX67" s="7"/>
       <c r="HD67" s="7"/>
       <c r="HE67" s="7"/>
+      <c r="HK67" s="7"/>
+      <c r="HL67" s="7"/>
+      <c r="HQ67" s="9"/>
+      <c r="HR67" s="9"/>
+      <c r="HS67" s="7"/>
     </row>
-    <row r="68" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="42">
-        <v>7.3</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="14">
-        <f t="shared" si="2"/>
+    <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="39">
+        <v>7.1</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="44">
+        <f t="shared" ref="F68:F77" si="6">SUM(G68:GP68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="7"/>
@@ -7367,18 +8628,23 @@
       <c r="GX68" s="7"/>
       <c r="HD68" s="7"/>
       <c r="HE68" s="7"/>
+      <c r="HK68" s="7"/>
+      <c r="HL68" s="7"/>
+      <c r="HQ68" s="9"/>
+      <c r="HR68" s="9"/>
+      <c r="HS68" s="7"/>
     </row>
-    <row r="69" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="49"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="42">
-        <v>7.4</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" s="14">
-        <f t="shared" si="2"/>
+    <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="60"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="38">
+        <v>7.2</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="45">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I69" s="7"/>
@@ -7445,18 +8711,23 @@
       <c r="GX69" s="7"/>
       <c r="HD69" s="7"/>
       <c r="HE69" s="7"/>
+      <c r="HK69" s="7"/>
+      <c r="HL69" s="7"/>
+      <c r="HQ69" s="9"/>
+      <c r="HR69" s="9"/>
+      <c r="HS69" s="7"/>
     </row>
-    <row r="70" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="49"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="42">
-        <v>7.5</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="14">
-        <f t="shared" si="2"/>
+    <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="60"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="38">
+        <v>7.3</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="45">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I70" s="7"/>
@@ -7523,16 +8794,23 @@
       <c r="GX70" s="7"/>
       <c r="HD70" s="7"/>
       <c r="HE70" s="7"/>
+      <c r="HK70" s="7"/>
+      <c r="HL70" s="7"/>
+      <c r="HQ70" s="9"/>
+      <c r="HR70" s="9"/>
+      <c r="HS70" s="7"/>
     </row>
-    <row r="71" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="49"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="42">
-        <v>7.6</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14">
-        <f t="shared" si="2"/>
+    <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" s="60"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="38">
+        <v>7.4</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="45">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I71" s="7"/>
@@ -7599,16 +8877,23 @@
       <c r="GX71" s="7"/>
       <c r="HD71" s="7"/>
       <c r="HE71" s="7"/>
+      <c r="HK71" s="7"/>
+      <c r="HL71" s="7"/>
+      <c r="HQ71" s="9"/>
+      <c r="HR71" s="9"/>
+      <c r="HS71" s="7"/>
     </row>
-    <row r="72" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="49"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="42">
-        <v>7.7</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14">
-        <f t="shared" si="2"/>
+    <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" s="60"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="38">
+        <v>7.5</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="45">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I72" s="7"/>
@@ -7675,16 +8960,21 @@
       <c r="GX72" s="7"/>
       <c r="HD72" s="7"/>
       <c r="HE72" s="7"/>
+      <c r="HK72" s="7"/>
+      <c r="HL72" s="7"/>
+      <c r="HQ72" s="9"/>
+      <c r="HR72" s="9"/>
+      <c r="HS72" s="7"/>
     </row>
-    <row r="73" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="49"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="42">
-        <v>7.8</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="14">
-        <f t="shared" si="2"/>
+    <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" s="60"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="38">
+        <v>7.6</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="45">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I73" s="7"/>
@@ -7751,16 +9041,21 @@
       <c r="GX73" s="7"/>
       <c r="HD73" s="7"/>
       <c r="HE73" s="7"/>
+      <c r="HK73" s="7"/>
+      <c r="HL73" s="7"/>
+      <c r="HQ73" s="9"/>
+      <c r="HR73" s="9"/>
+      <c r="HS73" s="7"/>
     </row>
-    <row r="74" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="49"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="42">
-        <v>7.9</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14">
-        <f t="shared" si="2"/>
+    <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" s="60"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="38">
+        <v>7.7</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="45">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I74" s="7"/>
@@ -7827,16 +9122,21 @@
       <c r="GX74" s="7"/>
       <c r="HD74" s="7"/>
       <c r="HE74" s="7"/>
+      <c r="HK74" s="7"/>
+      <c r="HL74" s="7"/>
+      <c r="HQ74" s="9"/>
+      <c r="HR74" s="9"/>
+      <c r="HS74" s="7"/>
     </row>
-    <row r="75" spans="2:213" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="50"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" s="17">
-        <f t="shared" si="2"/>
+    <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" s="60"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="38">
+        <v>7.8</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="45">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I75" s="7"/>
@@ -7903,20 +9203,21 @@
       <c r="GX75" s="7"/>
       <c r="HD75" s="7"/>
       <c r="HE75" s="7"/>
+      <c r="HK75" s="7"/>
+      <c r="HL75" s="7"/>
+      <c r="HQ75" s="9"/>
+      <c r="HR75" s="9"/>
+      <c r="HS75" s="7"/>
     </row>
-    <row r="76" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="43">
-        <v>7.1</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12">
-        <f t="shared" ref="F76:F85" si="3">SUM(G76:GP76)</f>
+    <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76" s="60"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="38">
+        <v>7.9</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="45">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I76" s="7"/>
@@ -7983,16 +9284,21 @@
       <c r="GX76" s="7"/>
       <c r="HD76" s="7"/>
       <c r="HE76" s="7"/>
+      <c r="HK76" s="7"/>
+      <c r="HL76" s="7"/>
+      <c r="HQ76" s="9"/>
+      <c r="HR76" s="9"/>
+      <c r="HS76" s="7"/>
     </row>
-    <row r="77" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="54"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="42">
-        <v>7.2</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14">
-        <f t="shared" si="3"/>
+    <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
+      <c r="B77" s="61"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="46">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I77" s="7"/>
@@ -8059,16 +9365,25 @@
       <c r="GX77" s="7"/>
       <c r="HD77" s="7"/>
       <c r="HE77" s="7"/>
+      <c r="HK77" s="7"/>
+      <c r="HL77" s="7"/>
+      <c r="HQ77" s="9"/>
+      <c r="HR77" s="9"/>
+      <c r="HS77" s="7"/>
     </row>
-    <row r="78" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="54"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="42">
-        <v>7.3</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="14">
-        <f t="shared" si="3"/>
+    <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="39">
+        <v>7.1</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="44">
+        <f t="shared" ref="F78:F87" si="7">SUM(G78:GP78)</f>
         <v>0</v>
       </c>
       <c r="I78" s="7"/>
@@ -8135,16 +9450,21 @@
       <c r="GX78" s="7"/>
       <c r="HD78" s="7"/>
       <c r="HE78" s="7"/>
+      <c r="HK78" s="7"/>
+      <c r="HL78" s="7"/>
+      <c r="HQ78" s="9"/>
+      <c r="HR78" s="9"/>
+      <c r="HS78" s="7"/>
     </row>
-    <row r="79" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="54"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="42">
-        <v>7.4</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="14">
-        <f t="shared" si="3"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="38">
+        <v>7.2</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I79" s="7"/>
@@ -8211,16 +9531,21 @@
       <c r="GX79" s="7"/>
       <c r="HD79" s="7"/>
       <c r="HE79" s="7"/>
+      <c r="HK79" s="7"/>
+      <c r="HL79" s="7"/>
+      <c r="HQ79" s="9"/>
+      <c r="HR79" s="9"/>
+      <c r="HS79" s="7"/>
     </row>
-    <row r="80" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="54"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="42">
-        <v>7.5</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="14">
-        <f t="shared" si="3"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="38">
+        <v>7.3</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I80" s="7"/>
@@ -8287,16 +9612,21 @@
       <c r="GX80" s="7"/>
       <c r="HD80" s="7"/>
       <c r="HE80" s="7"/>
+      <c r="HK80" s="7"/>
+      <c r="HL80" s="7"/>
+      <c r="HQ80" s="9"/>
+      <c r="HR80" s="9"/>
+      <c r="HS80" s="7"/>
     </row>
-    <row r="81" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="54"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="42">
-        <v>7.6</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="14">
-        <f t="shared" si="3"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="38">
+        <v>7.4</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I81" s="7"/>
@@ -8363,16 +9693,21 @@
       <c r="GX81" s="7"/>
       <c r="HD81" s="7"/>
       <c r="HE81" s="7"/>
+      <c r="HK81" s="7"/>
+      <c r="HL81" s="7"/>
+      <c r="HQ81" s="9"/>
+      <c r="HR81" s="9"/>
+      <c r="HS81" s="7"/>
     </row>
-    <row r="82" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="54"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="42">
-        <v>7.7</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="14">
-        <f t="shared" si="3"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="38">
+        <v>7.5</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I82" s="7"/>
@@ -8439,16 +9774,21 @@
       <c r="GX82" s="7"/>
       <c r="HD82" s="7"/>
       <c r="HE82" s="7"/>
+      <c r="HK82" s="7"/>
+      <c r="HL82" s="7"/>
+      <c r="HQ82" s="9"/>
+      <c r="HR82" s="9"/>
+      <c r="HS82" s="7"/>
     </row>
-    <row r="83" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="54"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="42">
-        <v>7.8</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="14">
-        <f t="shared" si="3"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="38">
+        <v>7.6</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I83" s="7"/>
@@ -8515,16 +9855,21 @@
       <c r="GX83" s="7"/>
       <c r="HD83" s="7"/>
       <c r="HE83" s="7"/>
+      <c r="HK83" s="7"/>
+      <c r="HL83" s="7"/>
+      <c r="HQ83" s="9"/>
+      <c r="HR83" s="9"/>
+      <c r="HS83" s="7"/>
     </row>
-    <row r="84" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="54"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="42">
-        <v>7.9</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="14">
-        <f t="shared" si="3"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="38">
+        <v>7.7</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I84" s="7"/>
@@ -8591,16 +9936,21 @@
       <c r="GX84" s="7"/>
       <c r="HD84" s="7"/>
       <c r="HE84" s="7"/>
+      <c r="HK84" s="7"/>
+      <c r="HL84" s="7"/>
+      <c r="HQ84" s="9"/>
+      <c r="HR84" s="9"/>
+      <c r="HS84" s="7"/>
     </row>
-    <row r="85" spans="2:213" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="55"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="17">
-        <f t="shared" si="3"/>
+    <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="54"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="38">
+        <v>7.8</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I85" s="7"/>
@@ -8667,11 +10017,21 @@
       <c r="GX85" s="7"/>
       <c r="HD85" s="7"/>
       <c r="HE85" s="7"/>
+      <c r="HK85" s="7"/>
+      <c r="HL85" s="7"/>
+      <c r="HQ85" s="9"/>
+      <c r="HR85" s="9"/>
+      <c r="HS85" s="7"/>
     </row>
-    <row r="86" spans="2:213" x14ac:dyDescent="0.25">
-      <c r="E86" s="8"/>
-      <c r="F86" s="3">
-        <f t="shared" si="0"/>
+    <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="54"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="38">
+        <v>7.9</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I86" s="7"/>
@@ -8738,11 +10098,21 @@
       <c r="GX86" s="7"/>
       <c r="HD86" s="7"/>
       <c r="HE86" s="7"/>
+      <c r="HK86" s="7"/>
+      <c r="HL86" s="7"/>
+      <c r="HQ86" s="9"/>
+      <c r="HR86" s="9"/>
+      <c r="HS86" s="7"/>
     </row>
-    <row r="87" spans="2:213" x14ac:dyDescent="0.25">
-      <c r="E87" s="8"/>
-      <c r="F87" s="3">
-        <f t="shared" si="0"/>
+    <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="55"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" s="46">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I87" s="7"/>
@@ -8809,11 +10179,16 @@
       <c r="GX87" s="7"/>
       <c r="HD87" s="7"/>
       <c r="HE87" s="7"/>
+      <c r="HK87" s="7"/>
+      <c r="HL87" s="7"/>
+      <c r="HQ87" s="9"/>
+      <c r="HR87" s="9"/>
+      <c r="HS87" s="7"/>
     </row>
-    <row r="88" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E88" s="8"/>
       <c r="F88" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I88" s="7"/>
@@ -8880,11 +10255,16 @@
       <c r="GX88" s="7"/>
       <c r="HD88" s="7"/>
       <c r="HE88" s="7"/>
+      <c r="HK88" s="7"/>
+      <c r="HL88" s="7"/>
+      <c r="HQ88" s="9"/>
+      <c r="HR88" s="9"/>
+      <c r="HS88" s="7"/>
     </row>
-    <row r="89" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E89" s="8"/>
       <c r="F89" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I89" s="7"/>
@@ -8951,11 +10331,16 @@
       <c r="GX89" s="7"/>
       <c r="HD89" s="7"/>
       <c r="HE89" s="7"/>
+      <c r="HK89" s="7"/>
+      <c r="HL89" s="7"/>
+      <c r="HQ89" s="9"/>
+      <c r="HR89" s="9"/>
+      <c r="HS89" s="7"/>
     </row>
-    <row r="90" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E90" s="8"/>
       <c r="F90" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I90" s="7"/>
@@ -9022,11 +10407,16 @@
       <c r="GX90" s="7"/>
       <c r="HD90" s="7"/>
       <c r="HE90" s="7"/>
+      <c r="HK90" s="7"/>
+      <c r="HL90" s="7"/>
+      <c r="HQ90" s="9"/>
+      <c r="HR90" s="9"/>
+      <c r="HS90" s="7"/>
     </row>
-    <row r="91" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E91" s="8"/>
       <c r="F91" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I91" s="7"/>
@@ -9093,11 +10483,16 @@
       <c r="GX91" s="7"/>
       <c r="HD91" s="7"/>
       <c r="HE91" s="7"/>
+      <c r="HK91" s="7"/>
+      <c r="HL91" s="7"/>
+      <c r="HQ91" s="9"/>
+      <c r="HR91" s="9"/>
+      <c r="HS91" s="7"/>
     </row>
-    <row r="92" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E92" s="8"/>
       <c r="F92" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I92" s="7"/>
@@ -9164,11 +10559,16 @@
       <c r="GX92" s="7"/>
       <c r="HD92" s="7"/>
       <c r="HE92" s="7"/>
+      <c r="HK92" s="7"/>
+      <c r="HL92" s="7"/>
+      <c r="HQ92" s="9"/>
+      <c r="HR92" s="9"/>
+      <c r="HS92" s="7"/>
     </row>
-    <row r="93" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E93" s="8"/>
       <c r="F93" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I93" s="7"/>
@@ -9235,11 +10635,16 @@
       <c r="GX93" s="7"/>
       <c r="HD93" s="7"/>
       <c r="HE93" s="7"/>
+      <c r="HK93" s="7"/>
+      <c r="HL93" s="7"/>
+      <c r="HQ93" s="9"/>
+      <c r="HR93" s="9"/>
+      <c r="HS93" s="7"/>
     </row>
-    <row r="94" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E94" s="8"/>
       <c r="F94" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I94" s="7"/>
@@ -9306,11 +10711,16 @@
       <c r="GX94" s="7"/>
       <c r="HD94" s="7"/>
       <c r="HE94" s="7"/>
+      <c r="HK94" s="7"/>
+      <c r="HL94" s="7"/>
+      <c r="HQ94" s="9"/>
+      <c r="HR94" s="9"/>
+      <c r="HS94" s="7"/>
     </row>
-    <row r="95" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E95" s="8"/>
       <c r="F95" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I95" s="7"/>
@@ -9377,11 +10787,16 @@
       <c r="GX95" s="7"/>
       <c r="HD95" s="7"/>
       <c r="HE95" s="7"/>
+      <c r="HK95" s="7"/>
+      <c r="HL95" s="7"/>
+      <c r="HQ95" s="9"/>
+      <c r="HR95" s="9"/>
+      <c r="HS95" s="7"/>
     </row>
-    <row r="96" spans="2:213" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:227" x14ac:dyDescent="0.25">
       <c r="E96" s="8"/>
       <c r="F96" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I96" s="7"/>
@@ -9448,11 +10863,16 @@
       <c r="GX96" s="7"/>
       <c r="HD96" s="7"/>
       <c r="HE96" s="7"/>
+      <c r="HK96" s="7"/>
+      <c r="HL96" s="7"/>
+      <c r="HQ96" s="9"/>
+      <c r="HR96" s="9"/>
+      <c r="HS96" s="7"/>
     </row>
-    <row r="97" spans="5:213" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:227" x14ac:dyDescent="0.25">
       <c r="E97" s="8"/>
       <c r="F97" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I97" s="7"/>
@@ -9519,11 +10939,16 @@
       <c r="GX97" s="7"/>
       <c r="HD97" s="7"/>
       <c r="HE97" s="7"/>
+      <c r="HK97" s="7"/>
+      <c r="HL97" s="7"/>
+      <c r="HQ97" s="9"/>
+      <c r="HR97" s="9"/>
+      <c r="HS97" s="7"/>
     </row>
-    <row r="98" spans="5:213" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:227" x14ac:dyDescent="0.25">
       <c r="E98" s="8"/>
       <c r="F98" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I98" s="7"/>
@@ -9590,11 +11015,16 @@
       <c r="GX98" s="7"/>
       <c r="HD98" s="7"/>
       <c r="HE98" s="7"/>
+      <c r="HK98" s="7"/>
+      <c r="HL98" s="7"/>
+      <c r="HQ98" s="9"/>
+      <c r="HR98" s="9"/>
+      <c r="HS98" s="7"/>
     </row>
-    <row r="99" spans="5:213" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:227" x14ac:dyDescent="0.25">
       <c r="E99" s="8"/>
       <c r="F99" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I99" s="7"/>
@@ -9661,11 +11091,16 @@
       <c r="GX99" s="7"/>
       <c r="HD99" s="7"/>
       <c r="HE99" s="7"/>
+      <c r="HK99" s="7"/>
+      <c r="HL99" s="7"/>
+      <c r="HQ99" s="9"/>
+      <c r="HR99" s="9"/>
+      <c r="HS99" s="7"/>
     </row>
-    <row r="100" spans="5:213" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:227" x14ac:dyDescent="0.25">
       <c r="E100" s="8"/>
       <c r="F100" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I100" s="7"/>
@@ -9732,11 +11167,16 @@
       <c r="GX100" s="7"/>
       <c r="HD100" s="7"/>
       <c r="HE100" s="7"/>
+      <c r="HK100" s="7"/>
+      <c r="HL100" s="7"/>
+      <c r="HQ100" s="9"/>
+      <c r="HR100" s="9"/>
+      <c r="HS100" s="7"/>
     </row>
-    <row r="101" spans="5:213" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:227" x14ac:dyDescent="0.25">
       <c r="E101" s="8"/>
       <c r="F101" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I101" s="7"/>
@@ -9803,34 +11243,42 @@
       <c r="GX101" s="7"/>
       <c r="HD101" s="7"/>
       <c r="HE101" s="7"/>
+      <c r="HK101" s="7"/>
+      <c r="HL101" s="7"/>
+      <c r="HQ101" s="9"/>
+      <c r="HR101" s="9"/>
+      <c r="HS101" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B76:B85"/>
-    <mergeCell ref="C76:C85"/>
-    <mergeCell ref="B25:B34"/>
+  <mergeCells count="22">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="C78:C87"/>
+    <mergeCell ref="B27:B36"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:P1"/>
-    <mergeCell ref="B56:B65"/>
-    <mergeCell ref="C56:C65"/>
-    <mergeCell ref="B66:B75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="C35:C45"/>
-    <mergeCell ref="B35:B45"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="C15:C24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="B58:B67"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="C68:C77"/>
+    <mergeCell ref="C37:C47"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="C48:C57"/>
+    <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B45:B76 B5:B12 B14:B43" numberStoredAsText="1"/>
+    <ignoredError sqref="B47:B78 B11:B14 B16:B45 B6:B9" numberStoredAsText="1"/>
+    <ignoredError sqref="G4:HS4" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/useful/time_sheet.xlsx
+++ b/useful/time_sheet.xlsx
@@ -281,7 +281,7 @@
     <t>= recurent</t>
   </si>
   <si>
-    <t>Create functional links to proper pages in header menu</t>
+    <t>Create functional links to proper pages on site, in header menu</t>
   </si>
 </sst>
 </file>
@@ -679,6 +679,51 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -694,56 +739,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:HT101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1070,55 +1070,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="B1" s="64"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="G1" s="62" t="s">
+      <c r="D1" s="55"/>
+      <c r="G1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="51" t="s">
+      <c r="Z1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="67"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
       <c r="AH1" s="22"/>
       <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="B2" s="70"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="59"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
@@ -1150,11 +1150,11 @@
       <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="12"/>
       <c r="G3" s="15" t="s">
         <v>13</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="F4" s="42">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F101)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G4" s="47">
         <f t="shared" si="0"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="J4" s="48">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K4" s="49">
         <f t="shared" si="0"/>
@@ -3400,13 +3400,13 @@
       </c>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="52">
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -3490,9 +3490,9 @@
       <c r="HS6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="65">
+      <c r="B7" s="64"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="52">
         <v>1.2</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -3578,9 +3578,9 @@
       <c r="HS7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="65">
+      <c r="B8" s="64"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="52">
         <v>1.3</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -3664,8 +3664,8 @@
       <c r="HS8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="38">
         <v>1.4</v>
       </c>
@@ -3749,8 +3749,8 @@
       <c r="HS9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="38">
         <v>1.5</v>
       </c>
@@ -3832,9 +3832,9 @@
       <c r="HS10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="71">
+      <c r="B11" s="64"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="57">
         <v>1.6</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -3842,10 +3842,12 @@
       </c>
       <c r="F11" s="45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -3915,8 +3917,8 @@
       <c r="HS11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="38">
         <v>1.7</v>
       </c>
@@ -3998,9 +4000,9 @@
       <c r="HS12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="65">
+      <c r="B13" s="64"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="52">
         <v>1.8</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -4084,9 +4086,9 @@
       <c r="HS13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="71">
+      <c r="B14" s="64"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="57">
         <v>1.9</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -4094,10 +4096,12 @@
       </c>
       <c r="F14" s="45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>6</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -4167,9 +4171,9 @@
       <c r="HS14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="72">
+      <c r="B15" s="64"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58">
         <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -4252,8 +4256,8 @@
       <c r="HS15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="37"/>
       <c r="E16" s="14" t="s">
         <v>44</v>
@@ -4333,13 +4337,13 @@
       <c r="HS16" s="7"/>
     </row>
     <row r="17" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="53">
         <v>2.1</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -4422,8 +4426,8 @@
       <c r="HS17" s="7"/>
     </row>
     <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="60"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="38">
         <v>2.2000000000000002</v>
       </c>
@@ -4505,8 +4509,8 @@
       <c r="HS18" s="7"/>
     </row>
     <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
-      <c r="C19" s="57"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="38">
         <v>2.2999999999999998</v>
       </c>
@@ -4588,9 +4592,9 @@
       <c r="HS19" s="7"/>
     </row>
     <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="65">
+      <c r="B20" s="64"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="52">
         <v>2.4</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -4673,8 +4677,8 @@
       <c r="HS20" s="7"/>
     </row>
     <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="38">
         <v>2.5</v>
       </c>
@@ -4683,10 +4687,12 @@
       </c>
       <c r="F21" s="45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <v>2</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -4756,8 +4762,8 @@
       <c r="HS21" s="7"/>
     </row>
     <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="38">
         <v>2.6</v>
       </c>
@@ -4837,8 +4843,8 @@
       <c r="HS22" s="7"/>
     </row>
     <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="38">
         <v>2.7</v>
       </c>
@@ -4918,8 +4924,8 @@
       <c r="HS23" s="7"/>
     </row>
     <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="38">
         <v>2.8</v>
       </c>
@@ -4999,8 +5005,8 @@
       <c r="HS24" s="7"/>
     </row>
     <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="57"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="38">
         <v>2.9</v>
       </c>
@@ -5080,8 +5086,8 @@
       <c r="HS25" s="7"/>
     </row>
     <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="37"/>
       <c r="E26" s="14" t="s">
         <v>44</v>
@@ -5161,10 +5167,10 @@
       <c r="HS26" s="7"/>
     </row>
     <row r="27" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="62" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="39">
@@ -5248,8 +5254,8 @@
       <c r="HS27" s="7"/>
     </row>
     <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="60"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="38">
         <v>3.2</v>
       </c>
@@ -5331,8 +5337,8 @@
       <c r="HS28" s="7"/>
     </row>
     <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="38">
         <v>3.3</v>
       </c>
@@ -5414,8 +5420,8 @@
       <c r="HS29" s="7"/>
     </row>
     <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="38">
         <v>3.4</v>
       </c>
@@ -5497,8 +5503,8 @@
       <c r="HS30" s="7"/>
     </row>
     <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="60"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="38">
         <v>3.5</v>
       </c>
@@ -5580,8 +5586,8 @@
       <c r="HS31" s="7"/>
     </row>
     <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
-      <c r="C32" s="57"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="38">
         <v>3.6</v>
       </c>
@@ -5663,8 +5669,8 @@
       <c r="HS32" s="7"/>
     </row>
     <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="60"/>
-      <c r="C33" s="57"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="38">
         <v>3.7</v>
       </c>
@@ -5746,8 +5752,8 @@
       <c r="HS33" s="7"/>
     </row>
     <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="60"/>
-      <c r="C34" s="57"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="38">
         <v>3.8</v>
       </c>
@@ -5829,8 +5835,8 @@
       <c r="HS34" s="7"/>
     </row>
     <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="57"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="38">
         <v>3.9</v>
       </c>
@@ -5910,8 +5916,8 @@
       <c r="HS35" s="7"/>
     </row>
     <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
-      <c r="C36" s="58"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="37"/>
       <c r="E36" s="14" t="s">
         <v>44</v>
@@ -5991,10 +5997,10 @@
       <c r="HS36" s="7"/>
     </row>
     <row r="37" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="39">
@@ -6078,8 +6084,8 @@
       <c r="HS37" s="7"/>
     </row>
     <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="60"/>
-      <c r="C38" s="57"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="38">
         <v>4.2</v>
       </c>
@@ -6161,8 +6167,8 @@
       <c r="HS38" s="7"/>
     </row>
     <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="60"/>
-      <c r="C39" s="57"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="38">
         <v>4.3</v>
       </c>
@@ -6244,8 +6250,8 @@
       <c r="HS39" s="7"/>
     </row>
     <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="60"/>
-      <c r="C40" s="57"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="38">
         <v>4.4000000000000004</v>
       </c>
@@ -6327,8 +6333,8 @@
       <c r="HS40" s="7"/>
     </row>
     <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="60"/>
-      <c r="C41" s="57"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="38">
         <v>4.5</v>
       </c>
@@ -6410,8 +6416,8 @@
       <c r="HS41" s="7"/>
     </row>
     <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="60"/>
-      <c r="C42" s="57"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="38">
         <v>4.5999999999999996</v>
       </c>
@@ -6493,8 +6499,8 @@
       <c r="HS42" s="7"/>
     </row>
     <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="60"/>
-      <c r="C43" s="57"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="38">
         <v>4.7</v>
       </c>
@@ -6576,8 +6582,8 @@
       <c r="HS43" s="7"/>
     </row>
     <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="60"/>
-      <c r="C44" s="57"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="38">
         <v>4.8</v>
       </c>
@@ -6659,8 +6665,8 @@
       <c r="HS44" s="7"/>
     </row>
     <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="60"/>
-      <c r="C45" s="57"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="38">
         <v>4.9000000000000004</v>
       </c>
@@ -6740,8 +6746,8 @@
       <c r="HS45" s="7"/>
     </row>
     <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="60"/>
-      <c r="C46" s="57"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="40">
         <v>4.0999999999999996</v>
       </c>
@@ -6821,8 +6827,8 @@
       <c r="HS46" s="7"/>
     </row>
     <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="61"/>
-      <c r="C47" s="58"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="37"/>
       <c r="E47" s="14" t="s">
         <v>44</v>
@@ -6902,10 +6908,10 @@
       <c r="HS47" s="7"/>
     </row>
     <row r="48" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="39">
@@ -6989,8 +6995,8 @@
       <c r="HS48" s="7"/>
     </row>
     <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="60"/>
-      <c r="C49" s="57"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="38">
         <v>5.2</v>
       </c>
@@ -7072,8 +7078,8 @@
       <c r="HS49" s="7"/>
     </row>
     <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="60"/>
-      <c r="C50" s="57"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="38">
         <v>5.3</v>
       </c>
@@ -7155,8 +7161,8 @@
       <c r="HS50" s="7"/>
     </row>
     <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="60"/>
-      <c r="C51" s="57"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="38">
         <v>5.4</v>
       </c>
@@ -7238,8 +7244,8 @@
       <c r="HS51" s="7"/>
     </row>
     <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="60"/>
-      <c r="C52" s="57"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="38">
         <v>5.5</v>
       </c>
@@ -7321,8 +7327,8 @@
       <c r="HS52" s="7"/>
     </row>
     <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="60"/>
-      <c r="C53" s="57"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="38">
         <v>5.6</v>
       </c>
@@ -7404,8 +7410,8 @@
       <c r="HS53" s="7"/>
     </row>
     <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="60"/>
-      <c r="C54" s="57"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="38">
         <v>5.7</v>
       </c>
@@ -7487,8 +7493,8 @@
       <c r="HS54" s="7"/>
     </row>
     <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="60"/>
-      <c r="C55" s="57"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="38">
         <v>5.8</v>
       </c>
@@ -7568,8 +7574,8 @@
       <c r="HS55" s="7"/>
     </row>
     <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="60"/>
-      <c r="C56" s="57"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="38">
         <v>5.9</v>
       </c>
@@ -7649,8 +7655,8 @@
       <c r="HS56" s="7"/>
     </row>
     <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="61"/>
-      <c r="C57" s="58"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="37"/>
       <c r="E57" s="14" t="s">
         <v>44</v>
@@ -7730,10 +7736,10 @@
       <c r="HS57" s="7"/>
     </row>
     <row r="58" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="62" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="39">
@@ -7817,8 +7823,8 @@
       <c r="HS58" s="7"/>
     </row>
     <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="60"/>
-      <c r="C59" s="57"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="38">
         <v>6.2</v>
       </c>
@@ -7900,8 +7906,8 @@
       <c r="HS59" s="7"/>
     </row>
     <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="60"/>
-      <c r="C60" s="57"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="38">
         <v>6.3</v>
       </c>
@@ -7981,8 +7987,8 @@
       <c r="HS60" s="7"/>
     </row>
     <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="60"/>
-      <c r="C61" s="57"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="38">
         <v>6.4</v>
       </c>
@@ -8062,8 +8068,8 @@
       <c r="HS61" s="7"/>
     </row>
     <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="60"/>
-      <c r="C62" s="57"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="38">
         <v>6.5</v>
       </c>
@@ -8143,8 +8149,8 @@
       <c r="HS62" s="7"/>
     </row>
     <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="60"/>
-      <c r="C63" s="57"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="38">
         <v>6.6</v>
       </c>
@@ -8224,8 +8230,8 @@
       <c r="HS63" s="7"/>
     </row>
     <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="60"/>
-      <c r="C64" s="57"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="38">
         <v>6.7</v>
       </c>
@@ -8305,8 +8311,8 @@
       <c r="HS64" s="7"/>
     </row>
     <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="60"/>
-      <c r="C65" s="57"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="38">
         <v>6.8</v>
       </c>
@@ -8386,8 +8392,8 @@
       <c r="HS65" s="7"/>
     </row>
     <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="60"/>
-      <c r="C66" s="57"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="38">
         <v>6.9</v>
       </c>
@@ -8467,8 +8473,8 @@
       <c r="HS66" s="7"/>
     </row>
     <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="61"/>
-      <c r="C67" s="58"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="37"/>
       <c r="E67" s="14" t="s">
         <v>44</v>
@@ -8548,10 +8554,10 @@
       <c r="HS67" s="7"/>
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="39">
@@ -8635,8 +8641,8 @@
       <c r="HS68" s="7"/>
     </row>
     <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="60"/>
-      <c r="C69" s="57"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="38">
         <v>7.2</v>
       </c>
@@ -8718,8 +8724,8 @@
       <c r="HS69" s="7"/>
     </row>
     <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="60"/>
-      <c r="C70" s="57"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="38">
         <v>7.3</v>
       </c>
@@ -8801,8 +8807,8 @@
       <c r="HS70" s="7"/>
     </row>
     <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="60"/>
-      <c r="C71" s="57"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="38">
         <v>7.4</v>
       </c>
@@ -8884,8 +8890,8 @@
       <c r="HS71" s="7"/>
     </row>
     <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="60"/>
-      <c r="C72" s="57"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="60"/>
       <c r="D72" s="38">
         <v>7.5</v>
       </c>
@@ -8967,8 +8973,8 @@
       <c r="HS72" s="7"/>
     </row>
     <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="60"/>
-      <c r="C73" s="57"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="38">
         <v>7.6</v>
       </c>
@@ -9048,8 +9054,8 @@
       <c r="HS73" s="7"/>
     </row>
     <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="60"/>
-      <c r="C74" s="57"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="38">
         <v>7.7</v>
       </c>
@@ -9129,8 +9135,8 @@
       <c r="HS74" s="7"/>
     </row>
     <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="60"/>
-      <c r="C75" s="57"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="38">
         <v>7.8</v>
       </c>
@@ -9210,8 +9216,8 @@
       <c r="HS75" s="7"/>
     </row>
     <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="60"/>
-      <c r="C76" s="57"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="38">
         <v>7.9</v>
       </c>
@@ -9291,8 +9297,8 @@
       <c r="HS76" s="7"/>
     </row>
     <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="61"/>
-      <c r="C77" s="58"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="37"/>
       <c r="E77" s="14" t="s">
         <v>44</v>
@@ -9372,10 +9378,10 @@
       <c r="HS77" s="7"/>
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="C78" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D78" s="39">
@@ -9457,8 +9463,8 @@
       <c r="HS78" s="7"/>
     </row>
     <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="54"/>
-      <c r="C79" s="57"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="38">
         <v>7.2</v>
       </c>
@@ -9538,8 +9544,8 @@
       <c r="HS79" s="7"/>
     </row>
     <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="54"/>
-      <c r="C80" s="57"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="38">
         <v>7.3</v>
       </c>
@@ -9619,8 +9625,8 @@
       <c r="HS80" s="7"/>
     </row>
     <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="54"/>
-      <c r="C81" s="57"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="38">
         <v>7.4</v>
       </c>
@@ -9700,8 +9706,8 @@
       <c r="HS81" s="7"/>
     </row>
     <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="54"/>
-      <c r="C82" s="57"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="38">
         <v>7.5</v>
       </c>
@@ -9781,8 +9787,8 @@
       <c r="HS82" s="7"/>
     </row>
     <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="54"/>
-      <c r="C83" s="57"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="38">
         <v>7.6</v>
       </c>
@@ -9862,8 +9868,8 @@
       <c r="HS83" s="7"/>
     </row>
     <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="54"/>
-      <c r="C84" s="57"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="38">
         <v>7.7</v>
       </c>
@@ -9943,8 +9949,8 @@
       <c r="HS84" s="7"/>
     </row>
     <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="54"/>
-      <c r="C85" s="57"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="38">
         <v>7.8</v>
       </c>
@@ -10024,8 +10030,8 @@
       <c r="HS85" s="7"/>
     </row>
     <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="54"/>
-      <c r="C86" s="57"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="60"/>
       <c r="D86" s="38">
         <v>7.9</v>
       </c>
@@ -10105,8 +10111,8 @@
       <c r="HS86" s="7"/>
     </row>
     <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="55"/>
-      <c r="C87" s="58"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="37"/>
       <c r="E87" s="14" t="s">
         <v>44</v>
@@ -11251,11 +11257,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C27:C36"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="S1:W1"/>
@@ -11272,6 +11273,11 @@
     <mergeCell ref="B37:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="C48:C57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C27:C36"/>
     <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/useful/time_sheet.xlsx
+++ b/useful/time_sheet.xlsx
@@ -706,24 +706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -737,6 +719,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,7 +1054,10 @@
   <dimension ref="A1:HT101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1082,32 +1085,32 @@
       <c r="I1" s="72"/>
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="67"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="61"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
       <c r="AH1" s="22"/>
@@ -1831,7 +1834,7 @@
       </c>
       <c r="F4" s="42">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F101)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="47">
         <f t="shared" si="0"/>
@@ -1847,7 +1850,7 @@
       </c>
       <c r="J4" s="48">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="49">
         <f t="shared" si="0"/>
@@ -3400,10 +3403,10 @@
       </c>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="52">
@@ -3490,8 +3493,8 @@
       <c r="HS6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
-      <c r="C7" s="60"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="52">
         <v>1.2</v>
       </c>
@@ -3578,8 +3581,8 @@
       <c r="HS7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="52">
         <v>1.3</v>
       </c>
@@ -3664,8 +3667,8 @@
       <c r="HS8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="64"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="38">
         <v>1.4</v>
       </c>
@@ -3749,8 +3752,8 @@
       <c r="HS9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="64"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="38">
         <v>1.5</v>
       </c>
@@ -3832,8 +3835,8 @@
       <c r="HS10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="64"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="57">
         <v>1.6</v>
       </c>
@@ -3917,8 +3920,8 @@
       <c r="HS11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="64"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="38">
         <v>1.7</v>
       </c>
@@ -4000,8 +4003,8 @@
       <c r="HS12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="64"/>
-      <c r="C13" s="60"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="52">
         <v>1.8</v>
       </c>
@@ -4086,8 +4089,8 @@
       <c r="HS13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="64"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="57">
         <v>1.9</v>
       </c>
@@ -4171,8 +4174,8 @@
       <c r="HS14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="64"/>
-      <c r="C15" s="60"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="58">
         <v>1.1000000000000001</v>
       </c>
@@ -4256,8 +4259,8 @@
       <c r="HS15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="37"/>
       <c r="E16" s="14" t="s">
         <v>44</v>
@@ -4337,10 +4340,10 @@
       <c r="HS16" s="7"/>
     </row>
     <row r="17" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="65" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="53">
@@ -4426,8 +4429,8 @@
       <c r="HS17" s="7"/>
     </row>
     <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="64"/>
-      <c r="C18" s="60"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="38">
         <v>2.2000000000000002</v>
       </c>
@@ -4509,8 +4512,8 @@
       <c r="HS18" s="7"/>
     </row>
     <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="64"/>
-      <c r="C19" s="60"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="38">
         <v>2.2999999999999998</v>
       </c>
@@ -4592,8 +4595,8 @@
       <c r="HS19" s="7"/>
     </row>
     <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="64"/>
-      <c r="C20" s="60"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="52">
         <v>2.4</v>
       </c>
@@ -4677,8 +4680,8 @@
       <c r="HS20" s="7"/>
     </row>
     <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="64"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="38">
         <v>2.5</v>
       </c>
@@ -4762,18 +4765,22 @@
       <c r="HS21" s="7"/>
     </row>
     <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="64"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="38">
+      <c r="B22" s="69"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="52">
         <v>2.6</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F22" s="45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
       <c r="L22" s="9"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -4843,8 +4850,8 @@
       <c r="HS22" s="7"/>
     </row>
     <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="64"/>
-      <c r="C23" s="60"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="38">
         <v>2.7</v>
       </c>
@@ -4924,8 +4931,8 @@
       <c r="HS23" s="7"/>
     </row>
     <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="64"/>
-      <c r="C24" s="60"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="38">
         <v>2.8</v>
       </c>
@@ -5005,8 +5012,8 @@
       <c r="HS24" s="7"/>
     </row>
     <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="64"/>
-      <c r="C25" s="60"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="38">
         <v>2.9</v>
       </c>
@@ -5086,8 +5093,8 @@
       <c r="HS25" s="7"/>
     </row>
     <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="65"/>
-      <c r="C26" s="61"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="37"/>
       <c r="E26" s="14" t="s">
         <v>44</v>
@@ -5167,18 +5174,16 @@
       <c r="HS26" s="7"/>
     </row>
     <row r="27" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="65" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="39">
         <v>3.1</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5254,8 +5259,8 @@
       <c r="HS27" s="7"/>
     </row>
     <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="64"/>
-      <c r="C28" s="60"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="38">
         <v>3.2</v>
       </c>
@@ -5337,8 +5342,8 @@
       <c r="HS28" s="7"/>
     </row>
     <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="64"/>
-      <c r="C29" s="60"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="38">
         <v>3.3</v>
       </c>
@@ -5420,8 +5425,8 @@
       <c r="HS29" s="7"/>
     </row>
     <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="64"/>
-      <c r="C30" s="60"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="38">
         <v>3.4</v>
       </c>
@@ -5503,8 +5508,8 @@
       <c r="HS30" s="7"/>
     </row>
     <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="64"/>
-      <c r="C31" s="60"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="38">
         <v>3.5</v>
       </c>
@@ -5586,8 +5591,8 @@
       <c r="HS31" s="7"/>
     </row>
     <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="64"/>
-      <c r="C32" s="60"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="38">
         <v>3.6</v>
       </c>
@@ -5669,8 +5674,8 @@
       <c r="HS32" s="7"/>
     </row>
     <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="64"/>
-      <c r="C33" s="60"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="38">
         <v>3.7</v>
       </c>
@@ -5752,8 +5757,8 @@
       <c r="HS33" s="7"/>
     </row>
     <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="64"/>
-      <c r="C34" s="60"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="38">
         <v>3.8</v>
       </c>
@@ -5835,8 +5840,8 @@
       <c r="HS34" s="7"/>
     </row>
     <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="64"/>
-      <c r="C35" s="60"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="38">
         <v>3.9</v>
       </c>
@@ -5916,8 +5921,8 @@
       <c r="HS35" s="7"/>
     </row>
     <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="65"/>
-      <c r="C36" s="61"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="37"/>
       <c r="E36" s="14" t="s">
         <v>44</v>
@@ -5997,10 +6002,10 @@
       <c r="HS36" s="7"/>
     </row>
     <row r="37" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="65" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="39">
@@ -6084,8 +6089,8 @@
       <c r="HS37" s="7"/>
     </row>
     <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="64"/>
-      <c r="C38" s="60"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="38">
         <v>4.2</v>
       </c>
@@ -6167,8 +6172,8 @@
       <c r="HS38" s="7"/>
     </row>
     <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="64"/>
-      <c r="C39" s="60"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="38">
         <v>4.3</v>
       </c>
@@ -6250,8 +6255,8 @@
       <c r="HS39" s="7"/>
     </row>
     <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="64"/>
-      <c r="C40" s="60"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="38">
         <v>4.4000000000000004</v>
       </c>
@@ -6333,8 +6338,8 @@
       <c r="HS40" s="7"/>
     </row>
     <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="64"/>
-      <c r="C41" s="60"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="38">
         <v>4.5</v>
       </c>
@@ -6416,8 +6421,8 @@
       <c r="HS41" s="7"/>
     </row>
     <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="64"/>
-      <c r="C42" s="60"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="38">
         <v>4.5999999999999996</v>
       </c>
@@ -6499,8 +6504,8 @@
       <c r="HS42" s="7"/>
     </row>
     <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="64"/>
-      <c r="C43" s="60"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="38">
         <v>4.7</v>
       </c>
@@ -6582,8 +6587,8 @@
       <c r="HS43" s="7"/>
     </row>
     <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="64"/>
-      <c r="C44" s="60"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="38">
         <v>4.8</v>
       </c>
@@ -6665,8 +6670,8 @@
       <c r="HS44" s="7"/>
     </row>
     <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="64"/>
-      <c r="C45" s="60"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="38">
         <v>4.9000000000000004</v>
       </c>
@@ -6746,8 +6751,8 @@
       <c r="HS45" s="7"/>
     </row>
     <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="64"/>
-      <c r="C46" s="60"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="40">
         <v>4.0999999999999996</v>
       </c>
@@ -6827,8 +6832,8 @@
       <c r="HS46" s="7"/>
     </row>
     <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="65"/>
-      <c r="C47" s="61"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="37"/>
       <c r="E47" s="14" t="s">
         <v>44</v>
@@ -6908,13 +6913,13 @@
       <c r="HS47" s="7"/>
     </row>
     <row r="48" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="53">
         <v>5.0999999999999996</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -6995,9 +7000,9 @@
       <c r="HS48" s="7"/>
     </row>
     <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="64"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="38">
+      <c r="B49" s="69"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="52">
         <v>5.2</v>
       </c>
       <c r="E49" s="12" t="s">
@@ -7078,9 +7083,9 @@
       <c r="HS49" s="7"/>
     </row>
     <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="64"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="38">
+      <c r="B50" s="69"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="52">
         <v>5.3</v>
       </c>
       <c r="E50" s="12" t="s">
@@ -7161,9 +7166,9 @@
       <c r="HS50" s="7"/>
     </row>
     <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="64"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="38">
+      <c r="B51" s="69"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="52">
         <v>5.4</v>
       </c>
       <c r="E51" s="12" t="s">
@@ -7244,9 +7249,9 @@
       <c r="HS51" s="7"/>
     </row>
     <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="64"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="38">
+      <c r="B52" s="69"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="52">
         <v>5.5</v>
       </c>
       <c r="E52" s="12" t="s">
@@ -7327,9 +7332,9 @@
       <c r="HS52" s="7"/>
     </row>
     <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="64"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="38">
+      <c r="B53" s="69"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="52">
         <v>5.6</v>
       </c>
       <c r="E53" s="12" t="s">
@@ -7410,9 +7415,9 @@
       <c r="HS53" s="7"/>
     </row>
     <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="64"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="38">
+      <c r="B54" s="69"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="52">
         <v>5.7</v>
       </c>
       <c r="E54" s="12" t="s">
@@ -7493,8 +7498,8 @@
       <c r="HS54" s="7"/>
     </row>
     <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="64"/>
-      <c r="C55" s="60"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="38">
         <v>5.8</v>
       </c>
@@ -7574,8 +7579,8 @@
       <c r="HS55" s="7"/>
     </row>
     <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="64"/>
-      <c r="C56" s="60"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="38">
         <v>5.9</v>
       </c>
@@ -7655,8 +7660,8 @@
       <c r="HS56" s="7"/>
     </row>
     <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="65"/>
-      <c r="C57" s="61"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="37"/>
       <c r="E57" s="14" t="s">
         <v>44</v>
@@ -7736,10 +7741,10 @@
       <c r="HS57" s="7"/>
     </row>
     <row r="58" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="65" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="39">
@@ -7823,8 +7828,8 @@
       <c r="HS58" s="7"/>
     </row>
     <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="64"/>
-      <c r="C59" s="60"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="38">
         <v>6.2</v>
       </c>
@@ -7906,8 +7911,8 @@
       <c r="HS59" s="7"/>
     </row>
     <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="64"/>
-      <c r="C60" s="60"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="38">
         <v>6.3</v>
       </c>
@@ -7987,8 +7992,8 @@
       <c r="HS60" s="7"/>
     </row>
     <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="64"/>
-      <c r="C61" s="60"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="38">
         <v>6.4</v>
       </c>
@@ -8068,8 +8073,8 @@
       <c r="HS61" s="7"/>
     </row>
     <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="64"/>
-      <c r="C62" s="60"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="38">
         <v>6.5</v>
       </c>
@@ -8149,8 +8154,8 @@
       <c r="HS62" s="7"/>
     </row>
     <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="64"/>
-      <c r="C63" s="60"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="38">
         <v>6.6</v>
       </c>
@@ -8230,8 +8235,8 @@
       <c r="HS63" s="7"/>
     </row>
     <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="64"/>
-      <c r="C64" s="60"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="38">
         <v>6.7</v>
       </c>
@@ -8311,8 +8316,8 @@
       <c r="HS64" s="7"/>
     </row>
     <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="64"/>
-      <c r="C65" s="60"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="38">
         <v>6.8</v>
       </c>
@@ -8392,8 +8397,8 @@
       <c r="HS65" s="7"/>
     </row>
     <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="64"/>
-      <c r="C66" s="60"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="38">
         <v>6.9</v>
       </c>
@@ -8473,8 +8478,8 @@
       <c r="HS66" s="7"/>
     </row>
     <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="65"/>
-      <c r="C67" s="61"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="37"/>
       <c r="E67" s="14" t="s">
         <v>44</v>
@@ -8554,10 +8559,10 @@
       <c r="HS67" s="7"/>
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="62" t="s">
+      <c r="C68" s="65" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="39">
@@ -8641,8 +8646,8 @@
       <c r="HS68" s="7"/>
     </row>
     <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="64"/>
-      <c r="C69" s="60"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="38">
         <v>7.2</v>
       </c>
@@ -8724,8 +8729,8 @@
       <c r="HS69" s="7"/>
     </row>
     <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="64"/>
-      <c r="C70" s="60"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="38">
         <v>7.3</v>
       </c>
@@ -8807,8 +8812,8 @@
       <c r="HS70" s="7"/>
     </row>
     <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="64"/>
-      <c r="C71" s="60"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="38">
         <v>7.4</v>
       </c>
@@ -8890,8 +8895,8 @@
       <c r="HS71" s="7"/>
     </row>
     <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="64"/>
-      <c r="C72" s="60"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="38">
         <v>7.5</v>
       </c>
@@ -8973,8 +8978,8 @@
       <c r="HS72" s="7"/>
     </row>
     <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
-      <c r="C73" s="60"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="38">
         <v>7.6</v>
       </c>
@@ -9054,8 +9059,8 @@
       <c r="HS73" s="7"/>
     </row>
     <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="64"/>
-      <c r="C74" s="60"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="38">
         <v>7.7</v>
       </c>
@@ -9135,8 +9140,8 @@
       <c r="HS74" s="7"/>
     </row>
     <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="64"/>
-      <c r="C75" s="60"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="38">
         <v>7.8</v>
       </c>
@@ -9216,8 +9221,8 @@
       <c r="HS75" s="7"/>
     </row>
     <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="64"/>
-      <c r="C76" s="60"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="38">
         <v>7.9</v>
       </c>
@@ -9297,8 +9302,8 @@
       <c r="HS76" s="7"/>
     </row>
     <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="65"/>
-      <c r="C77" s="61"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="67"/>
       <c r="D77" s="37"/>
       <c r="E77" s="14" t="s">
         <v>44</v>
@@ -9378,10 +9383,10 @@
       <c r="HS77" s="7"/>
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="68" t="s">
+      <c r="B78" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="65" t="s">
         <v>55</v>
       </c>
       <c r="D78" s="39">
@@ -9463,8 +9468,8 @@
       <c r="HS78" s="7"/>
     </row>
     <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="69"/>
-      <c r="C79" s="60"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="38">
         <v>7.2</v>
       </c>
@@ -9544,8 +9549,8 @@
       <c r="HS79" s="7"/>
     </row>
     <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="69"/>
-      <c r="C80" s="60"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="38">
         <v>7.3</v>
       </c>
@@ -9625,8 +9630,8 @@
       <c r="HS80" s="7"/>
     </row>
     <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="69"/>
-      <c r="C81" s="60"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="38">
         <v>7.4</v>
       </c>
@@ -9706,8 +9711,8 @@
       <c r="HS81" s="7"/>
     </row>
     <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="69"/>
-      <c r="C82" s="60"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="38">
         <v>7.5</v>
       </c>
@@ -9787,8 +9792,8 @@
       <c r="HS82" s="7"/>
     </row>
     <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="69"/>
-      <c r="C83" s="60"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="38">
         <v>7.6</v>
       </c>
@@ -9868,8 +9873,8 @@
       <c r="HS83" s="7"/>
     </row>
     <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="69"/>
-      <c r="C84" s="60"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="38">
         <v>7.7</v>
       </c>
@@ -9949,8 +9954,8 @@
       <c r="HS84" s="7"/>
     </row>
     <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="69"/>
-      <c r="C85" s="60"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="38">
         <v>7.8</v>
       </c>
@@ -10030,8 +10035,8 @@
       <c r="HS85" s="7"/>
     </row>
     <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="69"/>
-      <c r="C86" s="60"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="38">
         <v>7.9</v>
       </c>
@@ -10111,8 +10116,8 @@
       <c r="HS86" s="7"/>
     </row>
     <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="70"/>
-      <c r="C87" s="61"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="37"/>
       <c r="E87" s="14" t="s">
         <v>44</v>
@@ -11257,6 +11262,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="B6:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="S1:W1"/>
@@ -11273,12 +11284,6 @@
     <mergeCell ref="B37:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="C48:C57"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/useful/time_sheet.xlsx
+++ b/useful/time_sheet.xlsx
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Update the files on GitHub</t>
-  </si>
-  <si>
-    <t>Design the log-in form</t>
   </si>
   <si>
     <t>Customized header / professor user: record notes feature</t>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Create functional links to proper pages on site, in header menu</t>
+  </si>
+  <si>
+    <t>Design the log-in form - consider type of possible user</t>
   </si>
 </sst>
 </file>
@@ -607,9 +607,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,6 +699,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1051,13 +1051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HT101"/>
+  <dimension ref="A1:HT100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1065,7 @@
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="34" customWidth="1"/>
     <col min="5" max="5" width="63.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="302" width="3.28515625" style="1" customWidth="1"/>
@@ -1073,13 +1073,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="B1" s="51"/>
-      <c r="C1" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="54"/>
       <c r="G1" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
@@ -1117,45 +1117,45 @@
       <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="B2" s="56"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="59"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
       <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:228" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="12"/>
@@ -1826,1579 +1826,1579 @@
     <row r="4" spans="1:228" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="42">
-        <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F101)</f>
+      <c r="F4" s="41">
+        <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
         <v>27</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="48">
+      <c r="P4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="47">
+      <c r="S4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="47">
+      <c r="T4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="47">
+      <c r="U4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="47">
+      <c r="V4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="48">
+      <c r="W4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="48">
+      <c r="X4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="47">
+      <c r="Y4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="47">
+      <c r="Z4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="47">
+      <c r="AA4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="47">
+      <c r="AB4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="47">
+      <c r="AC4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="48">
+      <c r="AD4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="48">
+      <c r="AE4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="47">
+      <c r="AF4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="47">
+      <c r="AG4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="47">
+      <c r="AH4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="47">
+      <c r="AI4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ4" s="47">
+      <c r="AJ4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="48">
+      <c r="AK4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="48">
+      <c r="AL4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM4" s="50">
+      <c r="AM4" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN4" s="47">
+      <c r="AN4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="47">
+      <c r="AO4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP4" s="47">
+      <c r="AP4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="50">
+      <c r="AQ4" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR4" s="48">
+      <c r="AR4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS4" s="48">
+      <c r="AS4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT4" s="47">
+      <c r="AT4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AU4" s="47">
+      <c r="AU4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AV4" s="47">
+      <c r="AV4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AW4" s="47">
+      <c r="AW4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AX4" s="47">
+      <c r="AX4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AY4" s="48">
+      <c r="AY4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AZ4" s="48">
+      <c r="AZ4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BA4" s="47">
+      <c r="BA4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BB4" s="47">
+      <c r="BB4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BC4" s="47">
+      <c r="BC4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD4" s="47">
+      <c r="BD4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BE4" s="47">
+      <c r="BE4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BF4" s="48">
+      <c r="BF4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BG4" s="48">
+      <c r="BG4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BH4" s="47">
+      <c r="BH4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BI4" s="47">
+      <c r="BI4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ4" s="47">
+      <c r="BJ4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BK4" s="47">
+      <c r="BK4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BL4" s="47">
+      <c r="BL4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BM4" s="48">
+      <c r="BM4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BN4" s="48">
+      <c r="BN4" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BO4" s="47">
+      <c r="BO4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BP4" s="47">
+      <c r="BP4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BQ4" s="47">
+      <c r="BQ4" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BR4" s="47">
-        <f t="shared" ref="BR4:EC4" si="1">SUM(BR6:BR101)</f>
-        <v>0</v>
-      </c>
-      <c r="BS4" s="47">
+      <c r="BR4" s="46">
+        <f t="shared" ref="BR4:EC4" si="1">SUM(BR6:BR100)</f>
+        <v>0</v>
+      </c>
+      <c r="BS4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BT4" s="48">
+      <c r="BT4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BU4" s="48">
+      <c r="BU4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BV4" s="47">
+      <c r="BV4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BW4" s="47">
+      <c r="BW4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BX4" s="47">
+      <c r="BX4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BY4" s="47">
+      <c r="BY4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BZ4" s="47">
+      <c r="BZ4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CA4" s="48">
+      <c r="CA4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CB4" s="48">
+      <c r="CB4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CC4" s="47">
+      <c r="CC4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CD4" s="47">
+      <c r="CD4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CE4" s="47">
+      <c r="CE4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CF4" s="47">
+      <c r="CF4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CG4" s="47">
+      <c r="CG4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CH4" s="48">
+      <c r="CH4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CI4" s="48">
+      <c r="CI4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CJ4" s="47">
+      <c r="CJ4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CK4" s="47">
+      <c r="CK4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CL4" s="47">
+      <c r="CL4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CM4" s="47">
+      <c r="CM4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CN4" s="47">
+      <c r="CN4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CO4" s="48">
+      <c r="CO4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CP4" s="48">
+      <c r="CP4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CQ4" s="47">
+      <c r="CQ4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CR4" s="47">
+      <c r="CR4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CS4" s="47">
+      <c r="CS4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CT4" s="47">
+      <c r="CT4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CU4" s="47">
+      <c r="CU4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CV4" s="48">
+      <c r="CV4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CW4" s="48">
+      <c r="CW4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CX4" s="47">
+      <c r="CX4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CY4" s="47">
+      <c r="CY4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="CZ4" s="47">
+      <c r="CZ4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DA4" s="49">
+      <c r="DA4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DB4" s="49">
+      <c r="DB4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DC4" s="48">
+      <c r="DC4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DD4" s="48">
+      <c r="DD4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DE4" s="49">
+      <c r="DE4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DF4" s="49">
+      <c r="DF4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DG4" s="49">
+      <c r="DG4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DH4" s="49">
+      <c r="DH4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DI4" s="49">
+      <c r="DI4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DJ4" s="48">
+      <c r="DJ4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DK4" s="48">
+      <c r="DK4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DL4" s="49">
+      <c r="DL4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DM4" s="49">
+      <c r="DM4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DN4" s="50">
+      <c r="DN4" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DO4" s="49">
+      <c r="DO4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DP4" s="49">
+      <c r="DP4" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DQ4" s="48">
+      <c r="DQ4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DR4" s="48">
+      <c r="DR4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DS4" s="47">
+      <c r="DS4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DT4" s="47">
+      <c r="DT4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DU4" s="47">
+      <c r="DU4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DV4" s="47">
+      <c r="DV4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DW4" s="47">
+      <c r="DW4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DX4" s="48">
+      <c r="DX4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DY4" s="48">
+      <c r="DY4" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="DZ4" s="47">
+      <c r="DZ4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="EA4" s="47">
+      <c r="EA4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="EB4" s="47">
+      <c r="EB4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="EC4" s="47">
+      <c r="EC4" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="ED4" s="47">
-        <f t="shared" ref="ED4:GO4" si="2">SUM(ED6:ED101)</f>
-        <v>0</v>
-      </c>
-      <c r="EE4" s="48">
+      <c r="ED4" s="46">
+        <f t="shared" ref="ED4:GO4" si="2">SUM(ED6:ED100)</f>
+        <v>0</v>
+      </c>
+      <c r="EE4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EF4" s="48">
+      <c r="EF4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EG4" s="47">
+      <c r="EG4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EH4" s="47">
+      <c r="EH4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EI4" s="47">
+      <c r="EI4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EJ4" s="47">
+      <c r="EJ4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EK4" s="47">
+      <c r="EK4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EL4" s="48">
+      <c r="EL4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EM4" s="48">
+      <c r="EM4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EN4" s="47">
+      <c r="EN4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EO4" s="47">
+      <c r="EO4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EP4" s="47">
+      <c r="EP4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EQ4" s="47">
+      <c r="EQ4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="ER4" s="47">
+      <c r="ER4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="ES4" s="48">
+      <c r="ES4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="ET4" s="48">
+      <c r="ET4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EU4" s="47">
+      <c r="EU4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EV4" s="47">
+      <c r="EV4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EW4" s="47">
+      <c r="EW4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EX4" s="47">
+      <c r="EX4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EY4" s="47">
+      <c r="EY4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="EZ4" s="48">
+      <c r="EZ4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FA4" s="48">
+      <c r="FA4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FB4" s="47">
+      <c r="FB4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FC4" s="47">
+      <c r="FC4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FD4" s="47">
+      <c r="FD4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FE4" s="47">
+      <c r="FE4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FF4" s="47">
+      <c r="FF4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FG4" s="48">
+      <c r="FG4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FH4" s="48">
+      <c r="FH4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FI4" s="47">
+      <c r="FI4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FJ4" s="47">
+      <c r="FJ4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FK4" s="47">
+      <c r="FK4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FL4" s="47">
+      <c r="FL4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FM4" s="47">
+      <c r="FM4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FN4" s="48">
+      <c r="FN4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FO4" s="48">
+      <c r="FO4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FP4" s="47">
+      <c r="FP4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FQ4" s="47">
+      <c r="FQ4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FR4" s="47">
+      <c r="FR4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FS4" s="47">
+      <c r="FS4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FT4" s="47">
+      <c r="FT4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FU4" s="48">
+      <c r="FU4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FV4" s="48">
+      <c r="FV4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FW4" s="47">
+      <c r="FW4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FX4" s="47">
+      <c r="FX4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FY4" s="47">
+      <c r="FY4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="FZ4" s="47">
+      <c r="FZ4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GA4" s="47">
+      <c r="GA4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GB4" s="48">
+      <c r="GB4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GC4" s="48">
+      <c r="GC4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GD4" s="47">
+      <c r="GD4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GE4" s="47">
+      <c r="GE4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GF4" s="47">
+      <c r="GF4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GG4" s="47">
+      <c r="GG4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GH4" s="47">
+      <c r="GH4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GI4" s="48">
+      <c r="GI4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GJ4" s="48">
+      <c r="GJ4" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GK4" s="47">
+      <c r="GK4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GL4" s="47">
+      <c r="GL4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GM4" s="47">
+      <c r="GM4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GN4" s="47">
+      <c r="GN4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GO4" s="47">
+      <c r="GO4" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="GP4" s="48">
-        <f t="shared" ref="GP4:HS4" si="3">SUM(GP6:GP101)</f>
-        <v>0</v>
-      </c>
-      <c r="GQ4" s="48">
+      <c r="GP4" s="47">
+        <f t="shared" ref="GP4:HS4" si="3">SUM(GP6:GP100)</f>
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GR4" s="47">
+      <c r="GR4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GS4" s="47">
+      <c r="GS4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GT4" s="47">
+      <c r="GT4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GU4" s="47">
+      <c r="GU4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GV4" s="47">
+      <c r="GV4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GW4" s="48">
+      <c r="GW4" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GX4" s="48">
+      <c r="GX4" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GY4" s="47">
+      <c r="GY4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="GZ4" s="47">
+      <c r="GZ4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HA4" s="47">
+      <c r="HA4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HB4" s="47">
+      <c r="HB4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HC4" s="47">
+      <c r="HC4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HD4" s="48">
+      <c r="HD4" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HE4" s="48">
+      <c r="HE4" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HF4" s="47">
+      <c r="HF4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HG4" s="47">
+      <c r="HG4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HH4" s="47">
+      <c r="HH4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HI4" s="47">
+      <c r="HI4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HJ4" s="47">
+      <c r="HJ4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HK4" s="48">
+      <c r="HK4" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HL4" s="48">
+      <c r="HL4" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HM4" s="47">
+      <c r="HM4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HN4" s="47">
+      <c r="HN4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HO4" s="47">
+      <c r="HO4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HP4" s="47">
+      <c r="HP4" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HQ4" s="50">
+      <c r="HQ4" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HR4" s="50">
+      <c r="HR4" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="HS4" s="48">
+      <c r="HS4" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="HT4" s="15"/>
     </row>
-    <row r="5" spans="1:228" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:228" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>2018</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="43" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>43216</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <v>43217</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>43218</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="30">
         <v>43219</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="31">
         <v>43220</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="32">
         <v>43221</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="29">
         <v>43222</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="29">
         <v>43223</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="29">
         <v>43224</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="30">
         <v>43225</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <v>43226</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="29">
         <v>43227</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="29">
         <v>43228</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="29">
         <v>43229</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="29">
         <v>43230</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="29">
         <v>43231</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="30">
         <v>43232</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="30">
         <v>43233</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="29">
         <v>43234</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="29">
         <v>43235</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="29">
         <v>43236</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="29">
         <v>43237</v>
       </c>
-      <c r="AC5" s="30">
+      <c r="AC5" s="29">
         <v>43238</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="30">
         <v>43239</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AE5" s="30">
         <v>43240</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="29">
         <v>43241</v>
       </c>
-      <c r="AG5" s="30">
+      <c r="AG5" s="29">
         <v>43242</v>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="29">
         <v>43243</v>
       </c>
-      <c r="AI5" s="30">
+      <c r="AI5" s="29">
         <v>43244</v>
       </c>
-      <c r="AJ5" s="30">
+      <c r="AJ5" s="29">
         <v>43245</v>
       </c>
-      <c r="AK5" s="31">
+      <c r="AK5" s="30">
         <v>43246</v>
       </c>
-      <c r="AL5" s="31">
+      <c r="AL5" s="30">
         <v>43247</v>
       </c>
-      <c r="AM5" s="33">
+      <c r="AM5" s="32">
         <v>43248</v>
       </c>
-      <c r="AN5" s="30">
+      <c r="AN5" s="29">
         <v>43249</v>
       </c>
-      <c r="AO5" s="30">
+      <c r="AO5" s="29">
         <v>43250</v>
       </c>
-      <c r="AP5" s="30">
+      <c r="AP5" s="29">
         <v>43251</v>
       </c>
-      <c r="AQ5" s="33">
+      <c r="AQ5" s="32">
         <v>43252</v>
       </c>
-      <c r="AR5" s="31">
+      <c r="AR5" s="30">
         <v>43253</v>
       </c>
-      <c r="AS5" s="31">
+      <c r="AS5" s="30">
         <v>43254</v>
       </c>
-      <c r="AT5" s="30">
+      <c r="AT5" s="29">
         <v>43255</v>
       </c>
-      <c r="AU5" s="30">
+      <c r="AU5" s="29">
         <v>43256</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AV5" s="29">
         <v>43257</v>
       </c>
-      <c r="AW5" s="30">
+      <c r="AW5" s="29">
         <v>43258</v>
       </c>
-      <c r="AX5" s="30">
+      <c r="AX5" s="29">
         <v>43259</v>
       </c>
-      <c r="AY5" s="31">
+      <c r="AY5" s="30">
         <v>43260</v>
       </c>
-      <c r="AZ5" s="31">
+      <c r="AZ5" s="30">
         <v>43261</v>
       </c>
-      <c r="BA5" s="30">
+      <c r="BA5" s="29">
         <v>43262</v>
       </c>
-      <c r="BB5" s="30">
+      <c r="BB5" s="29">
         <v>43263</v>
       </c>
-      <c r="BC5" s="30">
+      <c r="BC5" s="29">
         <v>43264</v>
       </c>
-      <c r="BD5" s="30">
+      <c r="BD5" s="29">
         <v>43265</v>
       </c>
-      <c r="BE5" s="30">
+      <c r="BE5" s="29">
         <v>43266</v>
       </c>
-      <c r="BF5" s="31">
+      <c r="BF5" s="30">
         <v>43267</v>
       </c>
-      <c r="BG5" s="31">
+      <c r="BG5" s="30">
         <v>43268</v>
       </c>
-      <c r="BH5" s="30">
+      <c r="BH5" s="29">
         <v>43269</v>
       </c>
-      <c r="BI5" s="30">
+      <c r="BI5" s="29">
         <v>43270</v>
       </c>
-      <c r="BJ5" s="30">
+      <c r="BJ5" s="29">
         <v>43271</v>
       </c>
-      <c r="BK5" s="30">
+      <c r="BK5" s="29">
         <v>43272</v>
       </c>
-      <c r="BL5" s="30">
+      <c r="BL5" s="29">
         <v>43273</v>
       </c>
-      <c r="BM5" s="31">
+      <c r="BM5" s="30">
         <v>43274</v>
       </c>
-      <c r="BN5" s="31">
+      <c r="BN5" s="30">
         <v>43275</v>
       </c>
-      <c r="BO5" s="30">
+      <c r="BO5" s="29">
         <v>43276</v>
       </c>
-      <c r="BP5" s="30">
+      <c r="BP5" s="29">
         <v>43277</v>
       </c>
-      <c r="BQ5" s="30">
+      <c r="BQ5" s="29">
         <v>43278</v>
       </c>
-      <c r="BR5" s="30">
+      <c r="BR5" s="29">
         <v>43279</v>
       </c>
-      <c r="BS5" s="30">
+      <c r="BS5" s="29">
         <v>43280</v>
       </c>
-      <c r="BT5" s="31">
+      <c r="BT5" s="30">
         <v>43281</v>
       </c>
-      <c r="BU5" s="31">
+      <c r="BU5" s="30">
         <v>43282</v>
       </c>
-      <c r="BV5" s="30">
+      <c r="BV5" s="29">
         <v>43283</v>
       </c>
-      <c r="BW5" s="30">
+      <c r="BW5" s="29">
         <v>43284</v>
       </c>
-      <c r="BX5" s="30">
+      <c r="BX5" s="29">
         <v>43285</v>
       </c>
-      <c r="BY5" s="30">
+      <c r="BY5" s="29">
         <v>43286</v>
       </c>
-      <c r="BZ5" s="30">
+      <c r="BZ5" s="29">
         <v>43287</v>
       </c>
-      <c r="CA5" s="31">
+      <c r="CA5" s="30">
         <v>43288</v>
       </c>
-      <c r="CB5" s="31">
+      <c r="CB5" s="30">
         <v>43289</v>
       </c>
-      <c r="CC5" s="30">
+      <c r="CC5" s="29">
         <v>43290</v>
       </c>
-      <c r="CD5" s="30">
+      <c r="CD5" s="29">
         <v>43291</v>
       </c>
-      <c r="CE5" s="30">
+      <c r="CE5" s="29">
         <v>43292</v>
       </c>
-      <c r="CF5" s="30">
+      <c r="CF5" s="29">
         <v>43293</v>
       </c>
-      <c r="CG5" s="30">
+      <c r="CG5" s="29">
         <v>43294</v>
       </c>
-      <c r="CH5" s="31">
+      <c r="CH5" s="30">
         <v>43295</v>
       </c>
-      <c r="CI5" s="31">
+      <c r="CI5" s="30">
         <v>43296</v>
       </c>
-      <c r="CJ5" s="30">
+      <c r="CJ5" s="29">
         <v>43297</v>
       </c>
-      <c r="CK5" s="30">
+      <c r="CK5" s="29">
         <v>43298</v>
       </c>
-      <c r="CL5" s="30">
+      <c r="CL5" s="29">
         <v>43299</v>
       </c>
-      <c r="CM5" s="30">
+      <c r="CM5" s="29">
         <v>43300</v>
       </c>
-      <c r="CN5" s="30">
+      <c r="CN5" s="29">
         <v>43301</v>
       </c>
-      <c r="CO5" s="31">
+      <c r="CO5" s="30">
         <v>43302</v>
       </c>
-      <c r="CP5" s="31">
+      <c r="CP5" s="30">
         <v>43303</v>
       </c>
-      <c r="CQ5" s="30">
+      <c r="CQ5" s="29">
         <v>43304</v>
       </c>
-      <c r="CR5" s="30">
+      <c r="CR5" s="29">
         <v>43305</v>
       </c>
-      <c r="CS5" s="30">
+      <c r="CS5" s="29">
         <v>43306</v>
       </c>
-      <c r="CT5" s="30">
+      <c r="CT5" s="29">
         <v>43307</v>
       </c>
-      <c r="CU5" s="30">
+      <c r="CU5" s="29">
         <v>43308</v>
       </c>
-      <c r="CV5" s="31">
+      <c r="CV5" s="30">
         <v>43309</v>
       </c>
-      <c r="CW5" s="31">
+      <c r="CW5" s="30">
         <v>43310</v>
       </c>
-      <c r="CX5" s="30">
+      <c r="CX5" s="29">
         <v>43311</v>
       </c>
-      <c r="CY5" s="30">
+      <c r="CY5" s="29">
         <v>43312</v>
       </c>
-      <c r="CZ5" s="30">
+      <c r="CZ5" s="29">
         <v>43313</v>
       </c>
-      <c r="DA5" s="32">
+      <c r="DA5" s="31">
         <v>43314</v>
       </c>
-      <c r="DB5" s="32">
+      <c r="DB5" s="31">
         <v>43315</v>
       </c>
-      <c r="DC5" s="31">
+      <c r="DC5" s="30">
         <v>43316</v>
       </c>
-      <c r="DD5" s="31">
+      <c r="DD5" s="30">
         <v>43317</v>
       </c>
-      <c r="DE5" s="32">
+      <c r="DE5" s="31">
         <v>43318</v>
       </c>
-      <c r="DF5" s="32">
+      <c r="DF5" s="31">
         <v>43319</v>
       </c>
-      <c r="DG5" s="32">
+      <c r="DG5" s="31">
         <v>43320</v>
       </c>
-      <c r="DH5" s="32">
+      <c r="DH5" s="31">
         <v>43321</v>
       </c>
-      <c r="DI5" s="32">
+      <c r="DI5" s="31">
         <v>43322</v>
       </c>
-      <c r="DJ5" s="31">
+      <c r="DJ5" s="30">
         <v>43323</v>
       </c>
-      <c r="DK5" s="31">
+      <c r="DK5" s="30">
         <v>43324</v>
       </c>
-      <c r="DL5" s="32">
+      <c r="DL5" s="31">
         <v>43325</v>
       </c>
-      <c r="DM5" s="32">
+      <c r="DM5" s="31">
         <v>43326</v>
       </c>
-      <c r="DN5" s="33">
+      <c r="DN5" s="32">
         <v>43327</v>
       </c>
-      <c r="DO5" s="32">
+      <c r="DO5" s="31">
         <v>43328</v>
       </c>
-      <c r="DP5" s="32">
+      <c r="DP5" s="31">
         <v>43329</v>
       </c>
-      <c r="DQ5" s="31">
+      <c r="DQ5" s="30">
         <v>43330</v>
       </c>
-      <c r="DR5" s="31">
+      <c r="DR5" s="30">
         <v>43331</v>
       </c>
-      <c r="DS5" s="30">
+      <c r="DS5" s="29">
         <v>43332</v>
       </c>
-      <c r="DT5" s="30">
+      <c r="DT5" s="29">
         <v>43333</v>
       </c>
-      <c r="DU5" s="30">
+      <c r="DU5" s="29">
         <v>43334</v>
       </c>
-      <c r="DV5" s="30">
+      <c r="DV5" s="29">
         <v>43335</v>
       </c>
-      <c r="DW5" s="30">
+      <c r="DW5" s="29">
         <v>43336</v>
       </c>
-      <c r="DX5" s="31">
+      <c r="DX5" s="30">
         <v>43337</v>
       </c>
-      <c r="DY5" s="31">
+      <c r="DY5" s="30">
         <v>43338</v>
       </c>
-      <c r="DZ5" s="30">
+      <c r="DZ5" s="29">
         <v>43339</v>
       </c>
-      <c r="EA5" s="30">
+      <c r="EA5" s="29">
         <v>43340</v>
       </c>
-      <c r="EB5" s="30">
+      <c r="EB5" s="29">
         <v>43341</v>
       </c>
-      <c r="EC5" s="30">
+      <c r="EC5" s="29">
         <v>43342</v>
       </c>
-      <c r="ED5" s="30">
+      <c r="ED5" s="29">
         <v>43343</v>
       </c>
-      <c r="EE5" s="31">
+      <c r="EE5" s="30">
         <v>43344</v>
       </c>
-      <c r="EF5" s="31">
+      <c r="EF5" s="30">
         <v>43345</v>
       </c>
-      <c r="EG5" s="30">
+      <c r="EG5" s="29">
         <v>43346</v>
       </c>
-      <c r="EH5" s="30">
+      <c r="EH5" s="29">
         <v>43347</v>
       </c>
-      <c r="EI5" s="30">
+      <c r="EI5" s="29">
         <v>43348</v>
       </c>
-      <c r="EJ5" s="30">
+      <c r="EJ5" s="29">
         <v>43349</v>
       </c>
-      <c r="EK5" s="30">
+      <c r="EK5" s="29">
         <v>43350</v>
       </c>
-      <c r="EL5" s="31">
+      <c r="EL5" s="30">
         <v>43351</v>
       </c>
-      <c r="EM5" s="31">
+      <c r="EM5" s="30">
         <v>43352</v>
       </c>
-      <c r="EN5" s="30">
+      <c r="EN5" s="29">
         <v>43353</v>
       </c>
-      <c r="EO5" s="30">
+      <c r="EO5" s="29">
         <v>43354</v>
       </c>
-      <c r="EP5" s="30">
+      <c r="EP5" s="29">
         <v>43355</v>
       </c>
-      <c r="EQ5" s="30">
+      <c r="EQ5" s="29">
         <v>43356</v>
       </c>
-      <c r="ER5" s="30">
+      <c r="ER5" s="29">
         <v>43357</v>
       </c>
-      <c r="ES5" s="31">
+      <c r="ES5" s="30">
         <v>43358</v>
       </c>
-      <c r="ET5" s="31">
+      <c r="ET5" s="30">
         <v>43359</v>
       </c>
-      <c r="EU5" s="30">
+      <c r="EU5" s="29">
         <v>43360</v>
       </c>
-      <c r="EV5" s="30">
+      <c r="EV5" s="29">
         <v>43361</v>
       </c>
-      <c r="EW5" s="30">
+      <c r="EW5" s="29">
         <v>43362</v>
       </c>
-      <c r="EX5" s="30">
+      <c r="EX5" s="29">
         <v>43363</v>
       </c>
-      <c r="EY5" s="30">
+      <c r="EY5" s="29">
         <v>43364</v>
       </c>
-      <c r="EZ5" s="31">
+      <c r="EZ5" s="30">
         <v>43365</v>
       </c>
-      <c r="FA5" s="31">
+      <c r="FA5" s="30">
         <v>43366</v>
       </c>
-      <c r="FB5" s="30">
+      <c r="FB5" s="29">
         <v>43367</v>
       </c>
-      <c r="FC5" s="30">
+      <c r="FC5" s="29">
         <v>43368</v>
       </c>
-      <c r="FD5" s="30">
+      <c r="FD5" s="29">
         <v>43369</v>
       </c>
-      <c r="FE5" s="30">
+      <c r="FE5" s="29">
         <v>43370</v>
       </c>
-      <c r="FF5" s="30">
+      <c r="FF5" s="29">
         <v>43371</v>
       </c>
-      <c r="FG5" s="31">
+      <c r="FG5" s="30">
         <v>43372</v>
       </c>
-      <c r="FH5" s="31">
+      <c r="FH5" s="30">
         <v>43373</v>
       </c>
-      <c r="FI5" s="30">
+      <c r="FI5" s="29">
         <v>43374</v>
       </c>
-      <c r="FJ5" s="30">
+      <c r="FJ5" s="29">
         <v>43375</v>
       </c>
-      <c r="FK5" s="30">
+      <c r="FK5" s="29">
         <v>43376</v>
       </c>
-      <c r="FL5" s="30">
+      <c r="FL5" s="29">
         <v>43377</v>
       </c>
-      <c r="FM5" s="30">
+      <c r="FM5" s="29">
         <v>43378</v>
       </c>
-      <c r="FN5" s="31">
+      <c r="FN5" s="30">
         <v>43379</v>
       </c>
-      <c r="FO5" s="31">
+      <c r="FO5" s="30">
         <v>43380</v>
       </c>
-      <c r="FP5" s="30">
+      <c r="FP5" s="29">
         <v>43381</v>
       </c>
-      <c r="FQ5" s="30">
+      <c r="FQ5" s="29">
         <v>43382</v>
       </c>
-      <c r="FR5" s="30">
+      <c r="FR5" s="29">
         <v>43383</v>
       </c>
-      <c r="FS5" s="30">
+      <c r="FS5" s="29">
         <v>43384</v>
       </c>
-      <c r="FT5" s="30">
+      <c r="FT5" s="29">
         <v>43385</v>
       </c>
-      <c r="FU5" s="31">
+      <c r="FU5" s="30">
         <v>43386</v>
       </c>
-      <c r="FV5" s="31">
+      <c r="FV5" s="30">
         <v>43387</v>
       </c>
-      <c r="FW5" s="30">
+      <c r="FW5" s="29">
         <v>43388</v>
       </c>
-      <c r="FX5" s="30">
+      <c r="FX5" s="29">
         <v>43389</v>
       </c>
-      <c r="FY5" s="30">
+      <c r="FY5" s="29">
         <v>43390</v>
       </c>
-      <c r="FZ5" s="30">
+      <c r="FZ5" s="29">
         <v>43391</v>
       </c>
-      <c r="GA5" s="30">
+      <c r="GA5" s="29">
         <v>43392</v>
       </c>
-      <c r="GB5" s="31">
+      <c r="GB5" s="30">
         <v>43393</v>
       </c>
-      <c r="GC5" s="31">
+      <c r="GC5" s="30">
         <v>43394</v>
       </c>
-      <c r="GD5" s="30">
+      <c r="GD5" s="29">
         <v>43395</v>
       </c>
-      <c r="GE5" s="30">
+      <c r="GE5" s="29">
         <v>43396</v>
       </c>
-      <c r="GF5" s="30">
+      <c r="GF5" s="29">
         <v>43397</v>
       </c>
-      <c r="GG5" s="30">
+      <c r="GG5" s="29">
         <v>43398</v>
       </c>
-      <c r="GH5" s="30">
+      <c r="GH5" s="29">
         <v>43399</v>
       </c>
-      <c r="GI5" s="31">
+      <c r="GI5" s="30">
         <v>43400</v>
       </c>
-      <c r="GJ5" s="31">
+      <c r="GJ5" s="30">
         <v>43401</v>
       </c>
-      <c r="GK5" s="30">
+      <c r="GK5" s="29">
         <v>43402</v>
       </c>
-      <c r="GL5" s="30">
+      <c r="GL5" s="29">
         <v>43403</v>
       </c>
-      <c r="GM5" s="30">
+      <c r="GM5" s="29">
         <v>43404</v>
       </c>
-      <c r="GN5" s="30">
+      <c r="GN5" s="29">
         <v>43405</v>
       </c>
-      <c r="GO5" s="30">
+      <c r="GO5" s="29">
         <v>43406</v>
       </c>
-      <c r="GP5" s="31">
+      <c r="GP5" s="30">
         <v>43407</v>
       </c>
-      <c r="GQ5" s="31">
+      <c r="GQ5" s="30">
         <v>43408</v>
       </c>
-      <c r="GR5" s="30">
+      <c r="GR5" s="29">
         <v>43409</v>
       </c>
-      <c r="GS5" s="30">
+      <c r="GS5" s="29">
         <v>43410</v>
       </c>
-      <c r="GT5" s="30">
+      <c r="GT5" s="29">
         <v>43411</v>
       </c>
-      <c r="GU5" s="30">
+      <c r="GU5" s="29">
         <v>43412</v>
       </c>
-      <c r="GV5" s="30">
+      <c r="GV5" s="29">
         <v>43413</v>
       </c>
-      <c r="GW5" s="31">
+      <c r="GW5" s="30">
         <v>43414</v>
       </c>
-      <c r="GX5" s="31">
+      <c r="GX5" s="30">
         <v>43415</v>
       </c>
-      <c r="GY5" s="30">
+      <c r="GY5" s="29">
         <v>43416</v>
       </c>
-      <c r="GZ5" s="30">
+      <c r="GZ5" s="29">
         <v>43417</v>
       </c>
-      <c r="HA5" s="30">
+      <c r="HA5" s="29">
         <v>43418</v>
       </c>
-      <c r="HB5" s="30">
+      <c r="HB5" s="29">
         <v>43419</v>
       </c>
-      <c r="HC5" s="30">
+      <c r="HC5" s="29">
         <v>43420</v>
       </c>
-      <c r="HD5" s="31">
+      <c r="HD5" s="30">
         <v>43421</v>
       </c>
-      <c r="HE5" s="31">
+      <c r="HE5" s="30">
         <v>43422</v>
       </c>
-      <c r="HF5" s="30">
+      <c r="HF5" s="29">
         <v>43423</v>
       </c>
-      <c r="HG5" s="30">
+      <c r="HG5" s="29">
         <v>43424</v>
       </c>
-      <c r="HH5" s="30">
+      <c r="HH5" s="29">
         <v>43425</v>
       </c>
-      <c r="HI5" s="30">
+      <c r="HI5" s="29">
         <v>43426</v>
       </c>
-      <c r="HJ5" s="30">
+      <c r="HJ5" s="29">
         <v>43427</v>
       </c>
-      <c r="HK5" s="31">
+      <c r="HK5" s="30">
         <v>43428</v>
       </c>
-      <c r="HL5" s="31">
+      <c r="HL5" s="30">
         <v>43429</v>
       </c>
-      <c r="HM5" s="30">
+      <c r="HM5" s="29">
         <v>43430</v>
       </c>
-      <c r="HN5" s="30">
+      <c r="HN5" s="29">
         <v>43431</v>
       </c>
-      <c r="HO5" s="30">
+      <c r="HO5" s="29">
         <v>43432</v>
       </c>
-      <c r="HP5" s="30">
+      <c r="HP5" s="29">
         <v>43433</v>
       </c>
-      <c r="HQ5" s="33">
+      <c r="HQ5" s="32">
         <v>43434</v>
       </c>
-      <c r="HR5" s="33">
+      <c r="HR5" s="32">
         <v>43435</v>
       </c>
-      <c r="HS5" s="31">
+      <c r="HS5" s="30">
         <v>43436</v>
       </c>
-      <c r="HT5" s="30">
+      <c r="HT5" s="29">
         <v>43437</v>
       </c>
     </row>
@@ -3409,14 +3409,14 @@
       <c r="C6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="51">
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="44">
-        <f t="shared" ref="F6:F101" si="4">SUM(G6:GP6)</f>
+      <c r="F6" s="43">
+        <f t="shared" ref="F6:F100" si="4">SUM(G6:GP6)</f>
         <v>3</v>
       </c>
       <c r="G6" s="1">
@@ -3495,13 +3495,13 @@
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="69"/>
       <c r="C7" s="66"/>
-      <c r="D7" s="52">
+      <c r="D7" s="51">
         <v>1.2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="45">
+        <v>44</v>
+      </c>
+      <c r="F7" s="44">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3583,13 +3583,13 @@
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="69"/>
       <c r="C8" s="66"/>
-      <c r="D8" s="52">
+      <c r="D8" s="51">
         <v>1.3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="45">
+        <v>46</v>
+      </c>
+      <c r="F8" s="44">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3669,13 +3669,13 @@
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="69"/>
       <c r="C9" s="66"/>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>1.4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="45">
+        <v>67</v>
+      </c>
+      <c r="F9" s="44">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3754,13 +3754,13 @@
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="69"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>1.5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="45">
+        <v>73</v>
+      </c>
+      <c r="F10" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3837,13 +3837,13 @@
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="69"/>
       <c r="C11" s="66"/>
-      <c r="D11" s="57">
+      <c r="D11" s="56">
         <v>1.6</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3922,13 +3922,13 @@
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="69"/>
       <c r="C12" s="66"/>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>1.7</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="45">
+        <v>55</v>
+      </c>
+      <c r="F12" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4005,13 +4005,13 @@
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="69"/>
       <c r="C13" s="66"/>
-      <c r="D13" s="52">
+      <c r="D13" s="51">
         <v>1.8</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -4091,13 +4091,13 @@
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="69"/>
       <c r="C14" s="66"/>
-      <c r="D14" s="57">
+      <c r="D14" s="56">
         <v>1.9</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -4176,13 +4176,13 @@
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="69"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="58">
+      <c r="D15" s="57">
         <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="45">
+        <v>66</v>
+      </c>
+      <c r="F15" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -4261,11 +4261,11 @@
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="70"/>
       <c r="C16" s="67"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="46">
+        <v>43</v>
+      </c>
+      <c r="F16" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4346,13 +4346,13 @@
       <c r="C17" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="52">
         <v>2.1</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -4431,13 +4431,13 @@
     <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="69"/>
       <c r="C18" s="66"/>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>2.2000000000000002</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4514,13 +4514,13 @@
     <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="69"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>2.2999999999999998</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="45">
+        <v>51</v>
+      </c>
+      <c r="F19" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4597,13 +4597,13 @@
     <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="69"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="52">
+      <c r="D20" s="51">
         <v>2.4</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -4682,13 +4682,13 @@
     <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="69"/>
       <c r="C21" s="66"/>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>2.5</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="45">
+        <v>77</v>
+      </c>
+      <c r="F21" s="44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -4767,13 +4767,13 @@
     <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="69"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="52">
+      <c r="D22" s="51">
         <v>2.6</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="45">
+        <v>78</v>
+      </c>
+      <c r="F22" s="44">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4852,11 +4852,11 @@
     <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="69"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>2.7</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="45">
+      <c r="F23" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4933,11 +4933,11 @@
     <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="69"/>
       <c r="C24" s="66"/>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>2.8</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="45">
+      <c r="F24" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5014,11 +5014,11 @@
     <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="69"/>
       <c r="C25" s="66"/>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>2.9</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="45">
+      <c r="F25" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5095,11 +5095,11 @@
     <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="70"/>
       <c r="C26" s="67"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="46">
+        <v>43</v>
+      </c>
+      <c r="F26" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5180,11 +5180,11 @@
       <c r="C27" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="38">
         <v>3.1</v>
       </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="44">
+      <c r="F27" s="43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5261,13 +5261,13 @@
     <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="69"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>3.2</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5344,13 +5344,13 @@
     <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="69"/>
       <c r="C29" s="66"/>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>3.3</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5427,13 +5427,13 @@
     <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="69"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>3.4</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5510,13 +5510,13 @@
     <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="69"/>
       <c r="C31" s="66"/>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>3.5</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="45">
+        <v>57</v>
+      </c>
+      <c r="F31" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5593,13 +5593,13 @@
     <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="69"/>
       <c r="C32" s="66"/>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>3.6</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="45">
+        <v>58</v>
+      </c>
+      <c r="F32" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5676,13 +5676,13 @@
     <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="69"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>3.7</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="45">
+        <v>59</v>
+      </c>
+      <c r="F33" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5759,13 +5759,13 @@
     <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="69"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>3.8</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="45">
+        <v>72</v>
+      </c>
+      <c r="F34" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5842,11 +5842,11 @@
     <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="69"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>3.9</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="45">
+      <c r="F35" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -5923,11 +5923,11 @@
     <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="70"/>
       <c r="C36" s="67"/>
-      <c r="D36" s="37"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="46">
+        <v>43</v>
+      </c>
+      <c r="F36" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6008,13 +6008,13 @@
       <c r="C37" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="38">
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6091,13 +6091,13 @@
     <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="69"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="38">
+      <c r="D38" s="37">
         <v>4.2</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="45">
+        <v>39</v>
+      </c>
+      <c r="F38" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6174,13 +6174,13 @@
     <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="69"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="38">
+      <c r="D39" s="37">
         <v>4.3</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6257,13 +6257,13 @@
     <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="69"/>
       <c r="C40" s="66"/>
-      <c r="D40" s="38">
+      <c r="D40" s="37">
         <v>4.4000000000000004</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="45">
+        <v>40</v>
+      </c>
+      <c r="F40" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6340,13 +6340,13 @@
     <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="69"/>
       <c r="C41" s="66"/>
-      <c r="D41" s="38">
+      <c r="D41" s="37">
         <v>4.5</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6423,13 +6423,13 @@
     <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="69"/>
       <c r="C42" s="66"/>
-      <c r="D42" s="38">
+      <c r="D42" s="37">
         <v>4.5999999999999996</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6506,13 +6506,13 @@
     <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="69"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="38">
+      <c r="D43" s="37">
         <v>4.7</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="45">
+        <v>70</v>
+      </c>
+      <c r="F43" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6589,13 +6589,13 @@
     <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="69"/>
       <c r="C44" s="66"/>
-      <c r="D44" s="38">
+      <c r="D44" s="37">
         <v>4.8</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="45">
+        <v>71</v>
+      </c>
+      <c r="F44" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6672,11 +6672,11 @@
     <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="69"/>
       <c r="C45" s="66"/>
-      <c r="D45" s="38">
+      <c r="D45" s="37">
         <v>4.9000000000000004</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="45">
+      <c r="F45" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6753,11 +6753,11 @@
     <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="69"/>
       <c r="C46" s="66"/>
-      <c r="D46" s="40">
+      <c r="D46" s="39">
         <v>4.0999999999999996</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="45">
+      <c r="F46" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6834,11 +6834,11 @@
     <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="70"/>
       <c r="C47" s="67"/>
-      <c r="D47" s="37"/>
+      <c r="D47" s="36"/>
       <c r="E47" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="46">
+        <v>43</v>
+      </c>
+      <c r="F47" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6919,13 +6919,13 @@
       <c r="C48" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="52">
         <v>5.0999999999999996</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="44">
+        <v>50</v>
+      </c>
+      <c r="F48" s="43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7002,13 +7002,13 @@
     <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="69"/>
       <c r="C49" s="66"/>
-      <c r="D49" s="52">
+      <c r="D49" s="51">
         <v>5.2</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7085,13 +7085,13 @@
     <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="69"/>
       <c r="C50" s="66"/>
-      <c r="D50" s="52">
+      <c r="D50" s="51">
         <v>5.3</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7168,13 +7168,13 @@
     <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="69"/>
       <c r="C51" s="66"/>
-      <c r="D51" s="52">
+      <c r="D51" s="51">
         <v>5.4</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7251,13 +7251,13 @@
     <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="69"/>
       <c r="C52" s="66"/>
-      <c r="D52" s="52">
+      <c r="D52" s="51">
         <v>5.5</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="45">
+        <v>60</v>
+      </c>
+      <c r="F52" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7334,13 +7334,13 @@
     <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="69"/>
       <c r="C53" s="66"/>
-      <c r="D53" s="52">
+      <c r="D53" s="51">
         <v>5.6</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="45">
+        <v>61</v>
+      </c>
+      <c r="F53" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7417,13 +7417,13 @@
     <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="69"/>
       <c r="C54" s="66"/>
-      <c r="D54" s="52">
+      <c r="D54" s="51">
         <v>5.7</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="45">
+        <v>62</v>
+      </c>
+      <c r="F54" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7500,11 +7500,11 @@
     <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="69"/>
       <c r="C55" s="66"/>
-      <c r="D55" s="38">
+      <c r="D55" s="37">
         <v>5.8</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="45">
+      <c r="F55" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7581,11 +7581,11 @@
     <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="69"/>
       <c r="C56" s="66"/>
-      <c r="D56" s="38">
+      <c r="D56" s="37">
         <v>5.9</v>
       </c>
       <c r="E56" s="12"/>
-      <c r="F56" s="45">
+      <c r="F56" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7662,11 +7662,11 @@
     <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" s="70"/>
       <c r="C57" s="67"/>
-      <c r="D57" s="37"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="46">
+        <v>43</v>
+      </c>
+      <c r="F57" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7745,15 +7745,15 @@
         <v>20</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="39">
+        <v>68</v>
+      </c>
+      <c r="D58" s="38">
         <v>6.1</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="44">
+        <v>42</v>
+      </c>
+      <c r="F58" s="43">
         <f t="shared" ref="F58:F67" si="5">SUM(G58:GP58)</f>
         <v>0</v>
       </c>
@@ -7830,13 +7830,13 @@
     <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" s="69"/>
       <c r="C59" s="66"/>
-      <c r="D59" s="38">
+      <c r="D59" s="37">
         <v>6.2</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="45">
+        <v>53</v>
+      </c>
+      <c r="F59" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7913,11 +7913,11 @@
     <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" s="69"/>
       <c r="C60" s="66"/>
-      <c r="D60" s="38">
+      <c r="D60" s="37">
         <v>6.3</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="45">
+      <c r="F60" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -7994,11 +7994,11 @@
     <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" s="69"/>
       <c r="C61" s="66"/>
-      <c r="D61" s="38">
+      <c r="D61" s="37">
         <v>6.4</v>
       </c>
       <c r="E61" s="12"/>
-      <c r="F61" s="45">
+      <c r="F61" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8075,11 +8075,11 @@
     <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" s="69"/>
       <c r="C62" s="66"/>
-      <c r="D62" s="38">
+      <c r="D62" s="37">
         <v>6.5</v>
       </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="45">
+      <c r="F62" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8156,11 +8156,11 @@
     <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" s="69"/>
       <c r="C63" s="66"/>
-      <c r="D63" s="38">
+      <c r="D63" s="37">
         <v>6.6</v>
       </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="45">
+      <c r="F63" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8237,11 +8237,11 @@
     <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" s="69"/>
       <c r="C64" s="66"/>
-      <c r="D64" s="38">
+      <c r="D64" s="37">
         <v>6.7</v>
       </c>
       <c r="E64" s="12"/>
-      <c r="F64" s="45">
+      <c r="F64" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8318,11 +8318,11 @@
     <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" s="69"/>
       <c r="C65" s="66"/>
-      <c r="D65" s="38">
+      <c r="D65" s="37">
         <v>6.8</v>
       </c>
       <c r="E65" s="12"/>
-      <c r="F65" s="45">
+      <c r="F65" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8399,11 +8399,11 @@
     <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B66" s="69"/>
       <c r="C66" s="66"/>
-      <c r="D66" s="38">
+      <c r="D66" s="37">
         <v>6.9</v>
       </c>
       <c r="E66" s="12"/>
-      <c r="F66" s="45">
+      <c r="F66" s="44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8480,11 +8480,11 @@
     <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B67" s="70"/>
       <c r="C67" s="67"/>
-      <c r="D67" s="37"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="46">
+        <v>43</v>
+      </c>
+      <c r="F67" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -8560,18 +8560,18 @@
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B68" s="68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="39">
+        <v>65</v>
+      </c>
+      <c r="D68" s="38">
         <v>7.1</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" s="44">
+        <v>48</v>
+      </c>
+      <c r="F68" s="43">
         <f t="shared" ref="F68:F77" si="6">SUM(G68:GP68)</f>
         <v>0</v>
       </c>
@@ -8648,13 +8648,13 @@
     <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B69" s="69"/>
       <c r="C69" s="66"/>
-      <c r="D69" s="38">
+      <c r="D69" s="37">
         <v>7.2</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="45">
+        <v>49</v>
+      </c>
+      <c r="F69" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8731,13 +8731,13 @@
     <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B70" s="69"/>
       <c r="C70" s="66"/>
-      <c r="D70" s="38">
+      <c r="D70" s="37">
         <v>7.3</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" s="45">
+        <v>63</v>
+      </c>
+      <c r="F70" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8814,13 +8814,13 @@
     <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B71" s="69"/>
       <c r="C71" s="66"/>
-      <c r="D71" s="38">
+      <c r="D71" s="37">
         <v>7.4</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="45">
+        <v>64</v>
+      </c>
+      <c r="F71" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8897,13 +8897,13 @@
     <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B72" s="69"/>
       <c r="C72" s="66"/>
-      <c r="D72" s="38">
+      <c r="D72" s="37">
         <v>7.5</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="45">
+        <v>69</v>
+      </c>
+      <c r="F72" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8980,11 +8980,11 @@
     <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B73" s="69"/>
       <c r="C73" s="66"/>
-      <c r="D73" s="38">
+      <c r="D73" s="37">
         <v>7.6</v>
       </c>
       <c r="E73" s="12"/>
-      <c r="F73" s="45">
+      <c r="F73" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9061,11 +9061,11 @@
     <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B74" s="69"/>
       <c r="C74" s="66"/>
-      <c r="D74" s="38">
+      <c r="D74" s="37">
         <v>7.7</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="45">
+      <c r="F74" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9142,11 +9142,11 @@
     <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B75" s="69"/>
       <c r="C75" s="66"/>
-      <c r="D75" s="38">
+      <c r="D75" s="37">
         <v>7.8</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="45">
+      <c r="F75" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9223,11 +9223,11 @@
     <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B76" s="69"/>
       <c r="C76" s="66"/>
-      <c r="D76" s="38">
+      <c r="D76" s="37">
         <v>7.9</v>
       </c>
       <c r="E76" s="12"/>
-      <c r="F76" s="45">
+      <c r="F76" s="44">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9304,11 +9304,11 @@
     <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B77" s="70"/>
       <c r="C77" s="67"/>
-      <c r="D77" s="37"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" s="46">
+        <v>43</v>
+      </c>
+      <c r="F77" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9384,16 +9384,16 @@
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="39">
+        <v>54</v>
+      </c>
+      <c r="D78" s="38">
         <v>7.1</v>
       </c>
       <c r="E78" s="11"/>
-      <c r="F78" s="44">
+      <c r="F78" s="43">
         <f t="shared" ref="F78:F87" si="7">SUM(G78:GP78)</f>
         <v>0</v>
       </c>
@@ -9470,11 +9470,11 @@
     <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="63"/>
       <c r="C79" s="66"/>
-      <c r="D79" s="38">
+      <c r="D79" s="37">
         <v>7.2</v>
       </c>
       <c r="E79" s="12"/>
-      <c r="F79" s="45">
+      <c r="F79" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9551,11 +9551,11 @@
     <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="63"/>
       <c r="C80" s="66"/>
-      <c r="D80" s="38">
+      <c r="D80" s="37">
         <v>7.3</v>
       </c>
       <c r="E80" s="12"/>
-      <c r="F80" s="45">
+      <c r="F80" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9632,11 +9632,11 @@
     <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="63"/>
       <c r="C81" s="66"/>
-      <c r="D81" s="38">
+      <c r="D81" s="37">
         <v>7.4</v>
       </c>
       <c r="E81" s="12"/>
-      <c r="F81" s="45">
+      <c r="F81" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9713,11 +9713,11 @@
     <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="63"/>
       <c r="C82" s="66"/>
-      <c r="D82" s="38">
+      <c r="D82" s="37">
         <v>7.5</v>
       </c>
       <c r="E82" s="12"/>
-      <c r="F82" s="45">
+      <c r="F82" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9794,11 +9794,11 @@
     <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="63"/>
       <c r="C83" s="66"/>
-      <c r="D83" s="38">
+      <c r="D83" s="37">
         <v>7.6</v>
       </c>
       <c r="E83" s="12"/>
-      <c r="F83" s="45">
+      <c r="F83" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9875,11 +9875,11 @@
     <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="63"/>
       <c r="C84" s="66"/>
-      <c r="D84" s="38">
+      <c r="D84" s="37">
         <v>7.7</v>
       </c>
       <c r="E84" s="12"/>
-      <c r="F84" s="45">
+      <c r="F84" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -9956,11 +9956,11 @@
     <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="63"/>
       <c r="C85" s="66"/>
-      <c r="D85" s="38">
+      <c r="D85" s="37">
         <v>7.8</v>
       </c>
       <c r="E85" s="12"/>
-      <c r="F85" s="45">
+      <c r="F85" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10037,11 +10037,11 @@
     <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="63"/>
       <c r="C86" s="66"/>
-      <c r="D86" s="38">
+      <c r="D86" s="37">
         <v>7.9</v>
       </c>
       <c r="E86" s="12"/>
-      <c r="F86" s="45">
+      <c r="F86" s="44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -10118,11 +10118,11 @@
     <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="64"/>
       <c r="C87" s="67"/>
-      <c r="D87" s="37"/>
+      <c r="D87" s="36"/>
       <c r="E87" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" s="46">
+        <v>43</v>
+      </c>
+      <c r="F87" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11184,82 +11184,6 @@
       <c r="HR100" s="9"/>
       <c r="HS100" s="7"/>
     </row>
-    <row r="101" spans="5:227" x14ac:dyDescent="0.25">
-      <c r="E101" s="8"/>
-      <c r="F101" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="L101" s="9"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
-      <c r="AD101" s="7"/>
-      <c r="AE101" s="7"/>
-      <c r="AK101" s="7"/>
-      <c r="AL101" s="7"/>
-      <c r="AM101" s="9"/>
-      <c r="AQ101" s="9"/>
-      <c r="AR101" s="7"/>
-      <c r="AS101" s="7"/>
-      <c r="AY101" s="7"/>
-      <c r="AZ101" s="7"/>
-      <c r="BF101" s="7"/>
-      <c r="BG101" s="7"/>
-      <c r="BM101" s="7"/>
-      <c r="BN101" s="7"/>
-      <c r="BT101" s="7"/>
-      <c r="BU101" s="7"/>
-      <c r="CA101" s="7"/>
-      <c r="CB101" s="7"/>
-      <c r="CH101" s="7"/>
-      <c r="CI101" s="7"/>
-      <c r="CO101" s="7"/>
-      <c r="CP101" s="7"/>
-      <c r="CV101" s="7"/>
-      <c r="CW101" s="7"/>
-      <c r="DC101" s="7"/>
-      <c r="DD101" s="7"/>
-      <c r="DJ101" s="7"/>
-      <c r="DK101" s="7"/>
-      <c r="DN101" s="9"/>
-      <c r="DQ101" s="7"/>
-      <c r="DR101" s="7"/>
-      <c r="DX101" s="7"/>
-      <c r="DY101" s="7"/>
-      <c r="EE101" s="7"/>
-      <c r="EF101" s="7"/>
-      <c r="EL101" s="7"/>
-      <c r="EM101" s="7"/>
-      <c r="ES101" s="7"/>
-      <c r="ET101" s="7"/>
-      <c r="EZ101" s="7"/>
-      <c r="FA101" s="7"/>
-      <c r="FG101" s="7"/>
-      <c r="FH101" s="7"/>
-      <c r="FN101" s="7"/>
-      <c r="FO101" s="7"/>
-      <c r="FU101" s="7"/>
-      <c r="FV101" s="7"/>
-      <c r="GB101" s="7"/>
-      <c r="GC101" s="7"/>
-      <c r="GI101" s="7"/>
-      <c r="GJ101" s="7"/>
-      <c r="GP101" s="7"/>
-      <c r="GQ101" s="7"/>
-      <c r="GW101" s="7"/>
-      <c r="GX101" s="7"/>
-      <c r="HD101" s="7"/>
-      <c r="HE101" s="7"/>
-      <c r="HK101" s="7"/>
-      <c r="HL101" s="7"/>
-      <c r="HQ101" s="9"/>
-      <c r="HR101" s="9"/>
-      <c r="HS101" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="C3:D3"/>

--- a/useful/time_sheet.xlsx
+++ b/useful/time_sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="78">
   <si>
     <t>1.</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Protect pw after form validation - record in DB</t>
   </si>
   <si>
-    <t>Add in header: show notes - button for all users</t>
-  </si>
-  <si>
     <t>Add in header: show absences - button for all users</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>Customized header / professor user: record notes feature</t>
-  </si>
-  <si>
-    <t>Assure functionality for DB interogations</t>
   </si>
   <si>
     <t>7.</t>
@@ -263,9 +257,6 @@
     <t>Prof. page: add drop-down menu for fields - Clasa, Semestru, nota</t>
   </si>
   <si>
-    <t>design</t>
-  </si>
-  <si>
     <t>Create a timeline for the project - proposed deadlines for steps</t>
   </si>
   <si>
@@ -278,10 +269,16 @@
     <t>= recurent</t>
   </si>
   <si>
-    <t>Create functional links to proper pages on site, in header menu</t>
+    <t>Design the log-in form - consider type of possible user</t>
   </si>
   <si>
-    <t>Design the log-in form - consider type of possible user</t>
+    <t>Assure functionality for DB interogations - from diff. pages on site</t>
+  </si>
+  <si>
+    <t>Add in header: "show notes" - button for all users</t>
+  </si>
+  <si>
+    <t>Create functional links to proper pages on site, form header menu</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1054,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1075,11 +1072,11 @@
     <row r="1" spans="1:228" x14ac:dyDescent="0.25">
       <c r="B1" s="50"/>
       <c r="C1" s="54" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="54"/>
       <c r="G1" s="71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
@@ -1119,7 +1116,7 @@
     <row r="2" spans="1:228" x14ac:dyDescent="0.25">
       <c r="B2" s="55"/>
       <c r="C2" s="59" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="59"/>
       <c r="G2" s="40"/>
@@ -1155,7 +1152,7 @@
     <row r="3" spans="1:228" x14ac:dyDescent="0.25">
       <c r="B3" s="53"/>
       <c r="C3" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="12"/>
@@ -1826,7 +1823,7 @@
     <row r="4" spans="1:228" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="33" t="s">
@@ -1834,7 +1831,7 @@
       </c>
       <c r="F4" s="41">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G4" s="46">
         <f t="shared" si="0"/>
@@ -1854,11 +1851,11 @@
       </c>
       <c r="K4" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L4" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="46">
         <f t="shared" si="0"/>
@@ -2730,7 +2727,7 @@
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="42" t="s">
         <v>4</v>
@@ -3499,7 +3496,7 @@
         <v>1.2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="44">
         <f t="shared" si="4"/>
@@ -3587,7 +3584,7 @@
         <v>1.3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="44">
         <f t="shared" si="4"/>
@@ -3673,7 +3670,7 @@
         <v>1.4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="44">
         <f t="shared" si="4"/>
@@ -3758,7 +3755,7 @@
         <v>1.5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="44">
         <f t="shared" si="4"/>
@@ -3841,7 +3838,7 @@
         <v>1.6</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="44">
         <f t="shared" si="4"/>
@@ -3926,7 +3923,7 @@
         <v>1.7</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="44">
         <f t="shared" si="4"/>
@@ -4099,13 +4096,18 @@
       </c>
       <c r="F14" s="44">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7">
         <v>6</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="K14" s="1">
+        <v>6</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="W14" s="7"/>
@@ -4180,7 +4182,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="44">
         <f t="shared" si="4"/>
@@ -4263,7 +4265,7 @@
       <c r="C16" s="67"/>
       <c r="D16" s="36"/>
       <c r="E16" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="45">
         <f t="shared" si="4"/>
@@ -4518,7 +4520,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="44">
         <f t="shared" si="4"/>
@@ -4690,10 +4692,13 @@
       </c>
       <c r="F21" s="44">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
         <v>2</v>
       </c>
       <c r="L21" s="9"/>
@@ -4771,7 +4776,7 @@
         <v>2.6</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="44">
         <f t="shared" si="4"/>
@@ -5097,7 +5102,7 @@
       <c r="C26" s="67"/>
       <c r="D26" s="36"/>
       <c r="E26" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="45">
         <f t="shared" si="4"/>
@@ -5183,14 +5188,18 @@
       <c r="D27" s="38">
         <v>3.1</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="F27" s="43">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9">
+        <v>2</v>
+      </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="W27" s="7"/>
@@ -5265,14 +5274,17 @@
         <v>3.2</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -5348,7 +5360,7 @@
         <v>3.3</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F29" s="44">
         <f t="shared" si="4"/>
@@ -5431,7 +5443,7 @@
         <v>3.4</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F30" s="44">
         <f t="shared" si="4"/>
@@ -5514,7 +5526,7 @@
         <v>3.5</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="44">
         <f t="shared" si="4"/>
@@ -5597,7 +5609,7 @@
         <v>3.6</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="44">
         <f t="shared" si="4"/>
@@ -5679,9 +5691,7 @@
       <c r="D33" s="37">
         <v>3.7</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5762,9 +5772,7 @@
       <c r="D34" s="37">
         <v>3.8</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5925,7 +5933,7 @@
       <c r="C36" s="67"/>
       <c r="D36" s="36"/>
       <c r="E36" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F36" s="45">
         <f t="shared" si="4"/>
@@ -6095,7 +6103,7 @@
         <v>4.2</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" s="44">
         <f t="shared" si="4"/>
@@ -6178,7 +6186,7 @@
         <v>4.3</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F39" s="44">
         <f t="shared" si="4"/>
@@ -6260,9 +6268,7 @@
       <c r="D40" s="37">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6427,7 +6433,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="44">
         <f t="shared" si="4"/>
@@ -6510,7 +6516,7 @@
         <v>4.7</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F43" s="44">
         <f t="shared" si="4"/>
@@ -6593,7 +6599,7 @@
         <v>4.8</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F44" s="44">
         <f t="shared" si="4"/>
@@ -6836,7 +6842,7 @@
       <c r="C47" s="67"/>
       <c r="D47" s="36"/>
       <c r="E47" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47" s="45">
         <f t="shared" si="4"/>
@@ -6923,7 +6929,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="43">
         <f t="shared" si="4"/>
@@ -7255,7 +7261,7 @@
         <v>5.5</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="44">
         <f t="shared" si="4"/>
@@ -7338,7 +7344,7 @@
         <v>5.6</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="44">
         <f t="shared" si="4"/>
@@ -7421,7 +7427,7 @@
         <v>5.7</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="44">
         <f t="shared" si="4"/>
@@ -7503,13 +7509,18 @@
       <c r="D55" s="37">
         <v>5.8</v>
       </c>
-      <c r="E55" s="12"/>
+      <c r="E55" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="F55" s="44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
+      <c r="K55" s="1">
+        <v>2</v>
+      </c>
       <c r="L55" s="9"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
@@ -7664,7 +7675,7 @@
       <c r="C57" s="67"/>
       <c r="D57" s="36"/>
       <c r="E57" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F57" s="45">
         <f t="shared" si="4"/>
@@ -7745,13 +7756,13 @@
         <v>20</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D58" s="38">
         <v>6.1</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F58" s="43">
         <f t="shared" ref="F58:F67" si="5">SUM(G58:GP58)</f>
@@ -7834,7 +7845,7 @@
         <v>6.2</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F59" s="44">
         <f t="shared" si="5"/>
@@ -8482,7 +8493,7 @@
       <c r="C67" s="67"/>
       <c r="D67" s="36"/>
       <c r="E67" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F67" s="45">
         <f t="shared" si="5"/>
@@ -8560,16 +8571,16 @@
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
       <c r="B68" s="68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D68" s="38">
         <v>7.1</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F68" s="43">
         <f t="shared" ref="F68:F77" si="6">SUM(G68:GP68)</f>
@@ -8652,7 +8663,7 @@
         <v>7.2</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F69" s="44">
         <f t="shared" si="6"/>
@@ -8735,7 +8746,7 @@
         <v>7.3</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F70" s="44">
         <f t="shared" si="6"/>
@@ -8818,7 +8829,7 @@
         <v>7.4</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F71" s="44">
         <f t="shared" si="6"/>
@@ -8901,7 +8912,7 @@
         <v>7.5</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F72" s="44">
         <f t="shared" si="6"/>
@@ -9306,7 +9317,7 @@
       <c r="C77" s="67"/>
       <c r="D77" s="36"/>
       <c r="E77" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F77" s="45">
         <f t="shared" si="6"/>
@@ -9384,10 +9395,10 @@
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D78" s="38">
         <v>7.1</v>
@@ -10120,7 +10131,7 @@
       <c r="C87" s="67"/>
       <c r="D87" s="36"/>
       <c r="E87" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F87" s="45">
         <f t="shared" si="7"/>

--- a/useful/time_sheet.xlsx
+++ b/useful/time_sheet.xlsx
@@ -703,6 +703,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -716,24 +734,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,7 +1054,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1082,32 +1082,32 @@
       <c r="I1" s="72"/>
       <c r="J1" s="23"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="25"/>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="60" t="s">
+      <c r="Z1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="61"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="67"/>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
       <c r="AH1" s="22"/>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="F4" s="41">
         <f t="shared" ref="F4:BQ4" si="0">SUM(F6:F100)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="46">
         <f t="shared" si="0"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="M4" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="46">
         <f t="shared" si="0"/>
@@ -3400,10 +3400,10 @@
       </c>
     </row>
     <row r="6" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="51">
@@ -3490,8 +3490,8 @@
       <c r="HS6" s="7"/>
     </row>
     <row r="7" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="69"/>
-      <c r="C7" s="66"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="51">
         <v>1.2</v>
       </c>
@@ -3578,8 +3578,8 @@
       <c r="HS7" s="7"/>
     </row>
     <row r="8" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="69"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="51">
         <v>1.3</v>
       </c>
@@ -3664,8 +3664,8 @@
       <c r="HS8" s="7"/>
     </row>
     <row r="9" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="37">
         <v>1.4</v>
       </c>
@@ -3749,8 +3749,8 @@
       <c r="HS9" s="7"/>
     </row>
     <row r="10" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
-      <c r="C10" s="66"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="37">
         <v>1.5</v>
       </c>
@@ -3832,8 +3832,8 @@
       <c r="HS10" s="7"/>
     </row>
     <row r="11" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="69"/>
-      <c r="C11" s="66"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="56">
         <v>1.6</v>
       </c>
@@ -3917,8 +3917,8 @@
       <c r="HS11" s="7"/>
     </row>
     <row r="12" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="37">
         <v>1.7</v>
       </c>
@@ -4000,8 +4000,8 @@
       <c r="HS12" s="7"/>
     </row>
     <row r="13" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="51">
         <v>1.8</v>
       </c>
@@ -4086,8 +4086,8 @@
       <c r="HS13" s="7"/>
     </row>
     <row r="14" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="56">
         <v>1.9</v>
       </c>
@@ -4176,8 +4176,8 @@
       <c r="HS14" s="7"/>
     </row>
     <row r="15" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="57">
         <v>1.1000000000000001</v>
       </c>
@@ -4261,8 +4261,8 @@
       <c r="HS15" s="7"/>
     </row>
     <row r="16" spans="1:228" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="36"/>
       <c r="E16" s="14" t="s">
         <v>41</v>
@@ -4342,10 +4342,10 @@
       <c r="HS16" s="7"/>
     </row>
     <row r="17" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="62" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="52">
@@ -4431,8 +4431,8 @@
       <c r="HS17" s="7"/>
     </row>
     <row r="18" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="66"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="37">
         <v>2.2000000000000002</v>
       </c>
@@ -4514,8 +4514,8 @@
       <c r="HS18" s="7"/>
     </row>
     <row r="19" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="69"/>
-      <c r="C19" s="66"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="37">
         <v>2.2999999999999998</v>
       </c>
@@ -4597,8 +4597,8 @@
       <c r="HS19" s="7"/>
     </row>
     <row r="20" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="69"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="51">
         <v>2.4</v>
       </c>
@@ -4682,8 +4682,8 @@
       <c r="HS20" s="7"/>
     </row>
     <row r="21" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
-      <c r="C21" s="66"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="37">
         <v>2.5</v>
       </c>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="F21" s="44">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7">
@@ -4702,6 +4702,9 @@
         <v>2</v>
       </c>
       <c r="L21" s="9"/>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="W21" s="7"/>
@@ -4770,8 +4773,8 @@
       <c r="HS21" s="7"/>
     </row>
     <row r="22" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="51">
         <v>2.6</v>
       </c>
@@ -4855,8 +4858,8 @@
       <c r="HS22" s="7"/>
     </row>
     <row r="23" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="69"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="37">
         <v>2.7</v>
       </c>
@@ -4936,8 +4939,8 @@
       <c r="HS23" s="7"/>
     </row>
     <row r="24" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="66"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="37">
         <v>2.8</v>
       </c>
@@ -5017,8 +5020,8 @@
       <c r="HS24" s="7"/>
     </row>
     <row r="25" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="37">
         <v>2.9</v>
       </c>
@@ -5098,8 +5101,8 @@
       <c r="HS25" s="7"/>
     </row>
     <row r="26" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="70"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="36"/>
       <c r="E26" s="14" t="s">
         <v>41</v>
@@ -5179,10 +5182,10 @@
       <c r="HS26" s="7"/>
     </row>
     <row r="27" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="62" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="38">
@@ -5268,8 +5271,8 @@
       <c r="HS27" s="7"/>
     </row>
     <row r="28" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="37">
         <v>3.2</v>
       </c>
@@ -5354,8 +5357,8 @@
       <c r="HS28" s="7"/>
     </row>
     <row r="29" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
-      <c r="C29" s="66"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="37">
         <v>3.3</v>
       </c>
@@ -5437,8 +5440,8 @@
       <c r="HS29" s="7"/>
     </row>
     <row r="30" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="69"/>
-      <c r="C30" s="66"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="37">
         <v>3.4</v>
       </c>
@@ -5520,8 +5523,8 @@
       <c r="HS30" s="7"/>
     </row>
     <row r="31" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="69"/>
-      <c r="C31" s="66"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="37">
         <v>3.5</v>
       </c>
@@ -5603,8 +5606,8 @@
       <c r="HS31" s="7"/>
     </row>
     <row r="32" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="69"/>
-      <c r="C32" s="66"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="37">
         <v>3.6</v>
       </c>
@@ -5686,8 +5689,8 @@
       <c r="HS32" s="7"/>
     </row>
     <row r="33" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="69"/>
-      <c r="C33" s="66"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="37">
         <v>3.7</v>
       </c>
@@ -5767,8 +5770,8 @@
       <c r="HS33" s="7"/>
     </row>
     <row r="34" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="69"/>
-      <c r="C34" s="66"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="37">
         <v>3.8</v>
       </c>
@@ -5848,8 +5851,8 @@
       <c r="HS34" s="7"/>
     </row>
     <row r="35" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="69"/>
-      <c r="C35" s="66"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="37">
         <v>3.9</v>
       </c>
@@ -5929,8 +5932,8 @@
       <c r="HS35" s="7"/>
     </row>
     <row r="36" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="70"/>
-      <c r="C36" s="67"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="36"/>
       <c r="E36" s="14" t="s">
         <v>41</v>
@@ -6010,10 +6013,10 @@
       <c r="HS36" s="7"/>
     </row>
     <row r="37" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="62" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="38">
@@ -6097,8 +6100,8 @@
       <c r="HS37" s="7"/>
     </row>
     <row r="38" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="69"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="37">
         <v>4.2</v>
       </c>
@@ -6180,8 +6183,8 @@
       <c r="HS38" s="7"/>
     </row>
     <row r="39" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="69"/>
-      <c r="C39" s="66"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="37">
         <v>4.3</v>
       </c>
@@ -6263,8 +6266,8 @@
       <c r="HS39" s="7"/>
     </row>
     <row r="40" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="69"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="37">
         <v>4.4000000000000004</v>
       </c>
@@ -6344,8 +6347,8 @@
       <c r="HS40" s="7"/>
     </row>
     <row r="41" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="69"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="37">
         <v>4.5</v>
       </c>
@@ -6427,8 +6430,8 @@
       <c r="HS41" s="7"/>
     </row>
     <row r="42" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="69"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="37">
         <v>4.5999999999999996</v>
       </c>
@@ -6510,8 +6513,8 @@
       <c r="HS42" s="7"/>
     </row>
     <row r="43" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="69"/>
-      <c r="C43" s="66"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="37">
         <v>4.7</v>
       </c>
@@ -6593,8 +6596,8 @@
       <c r="HS43" s="7"/>
     </row>
     <row r="44" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B44" s="69"/>
-      <c r="C44" s="66"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="37">
         <v>4.8</v>
       </c>
@@ -6676,8 +6679,8 @@
       <c r="HS44" s="7"/>
     </row>
     <row r="45" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="69"/>
-      <c r="C45" s="66"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="37">
         <v>4.9000000000000004</v>
       </c>
@@ -6757,8 +6760,8 @@
       <c r="HS45" s="7"/>
     </row>
     <row r="46" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="69"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="39">
         <v>4.0999999999999996</v>
       </c>
@@ -6838,8 +6841,8 @@
       <c r="HS46" s="7"/>
     </row>
     <row r="47" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B47" s="70"/>
-      <c r="C47" s="67"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="36"/>
       <c r="E47" s="14" t="s">
         <v>41</v>
@@ -6919,10 +6922,10 @@
       <c r="HS47" s="7"/>
     </row>
     <row r="48" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="52">
@@ -7006,8 +7009,8 @@
       <c r="HS48" s="7"/>
     </row>
     <row r="49" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="69"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="51">
         <v>5.2</v>
       </c>
@@ -7089,8 +7092,8 @@
       <c r="HS49" s="7"/>
     </row>
     <row r="50" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="69"/>
-      <c r="C50" s="66"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="51">
         <v>5.3</v>
       </c>
@@ -7172,8 +7175,8 @@
       <c r="HS50" s="7"/>
     </row>
     <row r="51" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="69"/>
-      <c r="C51" s="66"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="51">
         <v>5.4</v>
       </c>
@@ -7255,8 +7258,8 @@
       <c r="HS51" s="7"/>
     </row>
     <row r="52" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="69"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="51">
         <v>5.5</v>
       </c>
@@ -7338,8 +7341,8 @@
       <c r="HS52" s="7"/>
     </row>
     <row r="53" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="69"/>
-      <c r="C53" s="66"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="51">
         <v>5.6</v>
       </c>
@@ -7421,8 +7424,8 @@
       <c r="HS53" s="7"/>
     </row>
     <row r="54" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="69"/>
-      <c r="C54" s="66"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="51">
         <v>5.7</v>
       </c>
@@ -7504,8 +7507,8 @@
       <c r="HS54" s="7"/>
     </row>
     <row r="55" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="69"/>
-      <c r="C55" s="66"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="37">
         <v>5.8</v>
       </c>
@@ -7590,8 +7593,8 @@
       <c r="HS55" s="7"/>
     </row>
     <row r="56" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="69"/>
-      <c r="C56" s="66"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="37">
         <v>5.9</v>
       </c>
@@ -7671,8 +7674,8 @@
       <c r="HS56" s="7"/>
     </row>
     <row r="57" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" s="70"/>
-      <c r="C57" s="67"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="36"/>
       <c r="E57" s="14" t="s">
         <v>41</v>
@@ -7752,10 +7755,10 @@
       <c r="HS57" s="7"/>
     </row>
     <row r="58" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="65" t="s">
+      <c r="C58" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D58" s="38">
@@ -7839,8 +7842,8 @@
       <c r="HS58" s="7"/>
     </row>
     <row r="59" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59" s="69"/>
-      <c r="C59" s="66"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="37">
         <v>6.2</v>
       </c>
@@ -7922,8 +7925,8 @@
       <c r="HS59" s="7"/>
     </row>
     <row r="60" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="69"/>
-      <c r="C60" s="66"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="37">
         <v>6.3</v>
       </c>
@@ -8003,8 +8006,8 @@
       <c r="HS60" s="7"/>
     </row>
     <row r="61" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="69"/>
-      <c r="C61" s="66"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="37">
         <v>6.4</v>
       </c>
@@ -8084,8 +8087,8 @@
       <c r="HS61" s="7"/>
     </row>
     <row r="62" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B62" s="69"/>
-      <c r="C62" s="66"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="37">
         <v>6.5</v>
       </c>
@@ -8165,8 +8168,8 @@
       <c r="HS62" s="7"/>
     </row>
     <row r="63" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B63" s="69"/>
-      <c r="C63" s="66"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="37">
         <v>6.6</v>
       </c>
@@ -8246,8 +8249,8 @@
       <c r="HS63" s="7"/>
     </row>
     <row r="64" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="69"/>
-      <c r="C64" s="66"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="37">
         <v>6.7</v>
       </c>
@@ -8327,8 +8330,8 @@
       <c r="HS64" s="7"/>
     </row>
     <row r="65" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="69"/>
-      <c r="C65" s="66"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="37">
         <v>6.8</v>
       </c>
@@ -8408,8 +8411,8 @@
       <c r="HS65" s="7"/>
     </row>
     <row r="66" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="69"/>
-      <c r="C66" s="66"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="37">
         <v>6.9</v>
       </c>
@@ -8489,8 +8492,8 @@
       <c r="HS66" s="7"/>
     </row>
     <row r="67" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B67" s="70"/>
-      <c r="C67" s="67"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="36"/>
       <c r="E67" s="14" t="s">
         <v>41</v>
@@ -8570,10 +8573,10 @@
       <c r="HS67" s="7"/>
     </row>
     <row r="68" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="65" t="s">
+      <c r="C68" s="62" t="s">
         <v>63</v>
       </c>
       <c r="D68" s="38">
@@ -8657,8 +8660,8 @@
       <c r="HS68" s="7"/>
     </row>
     <row r="69" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="69"/>
-      <c r="C69" s="66"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="37">
         <v>7.2</v>
       </c>
@@ -8740,8 +8743,8 @@
       <c r="HS69" s="7"/>
     </row>
     <row r="70" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="69"/>
-      <c r="C70" s="66"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="37">
         <v>7.3</v>
       </c>
@@ -8823,8 +8826,8 @@
       <c r="HS70" s="7"/>
     </row>
     <row r="71" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="69"/>
-      <c r="C71" s="66"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="37">
         <v>7.4</v>
       </c>
@@ -8906,8 +8909,8 @@
       <c r="HS71" s="7"/>
     </row>
     <row r="72" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="69"/>
-      <c r="C72" s="66"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="60"/>
       <c r="D72" s="37">
         <v>7.5</v>
       </c>
@@ -8989,8 +8992,8 @@
       <c r="HS72" s="7"/>
     </row>
     <row r="73" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="69"/>
-      <c r="C73" s="66"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="37">
         <v>7.6</v>
       </c>
@@ -9070,8 +9073,8 @@
       <c r="HS73" s="7"/>
     </row>
     <row r="74" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="69"/>
-      <c r="C74" s="66"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="37">
         <v>7.7</v>
       </c>
@@ -9151,8 +9154,8 @@
       <c r="HS74" s="7"/>
     </row>
     <row r="75" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="69"/>
-      <c r="C75" s="66"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="37">
         <v>7.8</v>
       </c>
@@ -9232,8 +9235,8 @@
       <c r="HS75" s="7"/>
     </row>
     <row r="76" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76" s="69"/>
-      <c r="C76" s="66"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="37">
         <v>7.9</v>
       </c>
@@ -9313,8 +9316,8 @@
       <c r="HS76" s="7"/>
     </row>
     <row r="77" spans="2:227" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77" s="70"/>
-      <c r="C77" s="67"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="36"/>
       <c r="E77" s="14" t="s">
         <v>41</v>
@@ -9394,10 +9397,10 @@
       <c r="HS77" s="7"/>
     </row>
     <row r="78" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="62" t="s">
         <v>52</v>
       </c>
       <c r="D78" s="38">
@@ -9479,8 +9482,8 @@
       <c r="HS78" s="7"/>
     </row>
     <row r="79" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="63"/>
-      <c r="C79" s="66"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="37">
         <v>7.2</v>
       </c>
@@ -9560,8 +9563,8 @@
       <c r="HS79" s="7"/>
     </row>
     <row r="80" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="63"/>
-      <c r="C80" s="66"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="37">
         <v>7.3</v>
       </c>
@@ -9641,8 +9644,8 @@
       <c r="HS80" s="7"/>
     </row>
     <row r="81" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="63"/>
-      <c r="C81" s="66"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="37">
         <v>7.4</v>
       </c>
@@ -9722,8 +9725,8 @@
       <c r="HS81" s="7"/>
     </row>
     <row r="82" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="63"/>
-      <c r="C82" s="66"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="37">
         <v>7.5</v>
       </c>
@@ -9803,8 +9806,8 @@
       <c r="HS82" s="7"/>
     </row>
     <row r="83" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="63"/>
-      <c r="C83" s="66"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="37">
         <v>7.6</v>
       </c>
@@ -9884,8 +9887,8 @@
       <c r="HS83" s="7"/>
     </row>
     <row r="84" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="63"/>
-      <c r="C84" s="66"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="37">
         <v>7.7</v>
       </c>
@@ -9965,8 +9968,8 @@
       <c r="HS84" s="7"/>
     </row>
     <row r="85" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="63"/>
-      <c r="C85" s="66"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="37">
         <v>7.8</v>
       </c>
@@ -10046,8 +10049,8 @@
       <c r="HS85" s="7"/>
     </row>
     <row r="86" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="63"/>
-      <c r="C86" s="66"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="60"/>
       <c r="D86" s="37">
         <v>7.9</v>
       </c>
@@ -10127,8 +10130,8 @@
       <c r="HS86" s="7"/>
     </row>
     <row r="87" spans="2:227" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="64"/>
-      <c r="C87" s="67"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="36"/>
       <c r="E87" s="14" t="s">
         <v>41</v>
@@ -11197,12 +11200,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="B6:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="S1:W1"/>
@@ -11219,6 +11216,12 @@
     <mergeCell ref="B37:B47"/>
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="C48:C57"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="B6:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
